--- a/Проверка.xlsx
+++ b/Проверка.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE01D34-D96A-49A0-9394-5E104ECEC357}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ДНП" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Лист9" sheetId="9" r:id="rId9"/>
     <sheet name="Лист10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="110">
   <si>
     <t>L</t>
   </si>
@@ -447,17 +446,20 @@
   <si>
     <t>B, кмоль / ч</t>
   </si>
+  <si>
+    <t>Pi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -675,20 +677,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -707,7 +709,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -813,7 +815,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -906,7 +908,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -999,7 +1001,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1092,7 +1094,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1185,7 +1187,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1278,7 +1280,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1377,7 +1379,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1476,7 +1478,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1490,11 +1492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="62662015"/>
-        <c:axId val="61663887"/>
+        <c:axId val="41257792"/>
+        <c:axId val="41258368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62662015"/>
+        <c:axId val="41257792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="273"/>
@@ -1552,12 +1554,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61663887"/>
+        <c:crossAx val="41258368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61663887"/>
+        <c:axId val="41258368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,7 +1616,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62662015"/>
+        <c:crossAx val="41257792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1628,14 +1630,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1671,7 +1673,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1753,7 +1755,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -1822,7 +1824,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -1836,11 +1838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60203008"/>
-        <c:axId val="60203584"/>
+        <c:axId val="145715712"/>
+        <c:axId val="145716288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60203008"/>
+        <c:axId val="145715712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1852,12 +1854,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60203584"/>
+        <c:crossAx val="145716288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60203584"/>
+        <c:axId val="145716288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +1869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60203008"/>
+        <c:crossAx val="145715712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1889,7 +1891,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1984,7 +1986,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -2056,7 +2058,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -2128,7 +2130,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -2142,11 +2144,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60206464"/>
-        <c:axId val="60207040"/>
+        <c:axId val="148586496"/>
+        <c:axId val="148587072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60206464"/>
+        <c:axId val="148586496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2175,13 +2177,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60207040"/>
+        <c:crossAx val="148587072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60207040"/>
+        <c:axId val="148587072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2219,7 +2221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60206464"/>
+        <c:crossAx val="148586496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2256,7 +2258,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2338,7 +2340,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2407,7 +2409,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2421,11 +2423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60208768"/>
-        <c:axId val="60209344"/>
+        <c:axId val="148588800"/>
+        <c:axId val="148589376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60208768"/>
+        <c:axId val="148588800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2437,12 +2439,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60209344"/>
+        <c:crossAx val="148589376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60209344"/>
+        <c:axId val="148589376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2452,7 +2454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60208768"/>
+        <c:crossAx val="148588800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2474,7 +2476,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2569,7 +2571,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2641,7 +2643,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2713,7 +2715,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2727,11 +2729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60539456"/>
-        <c:axId val="60540032"/>
+        <c:axId val="148591680"/>
+        <c:axId val="148592256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60539456"/>
+        <c:axId val="148591680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2760,13 +2762,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60540032"/>
+        <c:crossAx val="148592256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60540032"/>
+        <c:axId val="148592256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2802,7 +2804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60539456"/>
+        <c:crossAx val="148591680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2839,7 +2841,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2934,7 +2936,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -3006,7 +3008,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -3078,7 +3080,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -3092,11 +3094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60542336"/>
-        <c:axId val="60542912"/>
+        <c:axId val="149757952"/>
+        <c:axId val="149758528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60542336"/>
+        <c:axId val="149757952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3125,13 +3127,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60542912"/>
+        <c:crossAx val="149758528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60542912"/>
+        <c:axId val="149758528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60542336"/>
+        <c:crossAx val="149757952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3204,7 +3206,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3299,7 +3301,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -3313,11 +3315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60545216"/>
-        <c:axId val="60545792"/>
+        <c:axId val="149760832"/>
+        <c:axId val="149761408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60545216"/>
+        <c:axId val="149760832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3346,13 +3348,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60545792"/>
+        <c:crossAx val="149761408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60545792"/>
+        <c:axId val="149761408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -3386,7 +3388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60545216"/>
+        <c:crossAx val="149760832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3423,7 +3425,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3529,7 +3531,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -3622,7 +3624,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -3715,7 +3717,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -3808,7 +3810,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -3901,7 +3903,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -3994,7 +3996,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -4093,7 +4095,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -4192,7 +4194,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -4206,11 +4208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="62662015"/>
-        <c:axId val="61663887"/>
+        <c:axId val="41260672"/>
+        <c:axId val="41261248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62662015"/>
+        <c:axId val="41260672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="273"/>
@@ -4268,12 +4270,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61663887"/>
+        <c:crossAx val="41261248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61663887"/>
+        <c:axId val="41261248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4330,7 +4332,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62662015"/>
+        <c:crossAx val="41260672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4344,14 +4346,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4387,7 +4389,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4469,7 +4471,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -4538,7 +4540,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -4552,11 +4554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48148416"/>
-        <c:axId val="48148992"/>
+        <c:axId val="42680896"/>
+        <c:axId val="42681472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48148416"/>
+        <c:axId val="42680896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4568,12 +4570,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48148992"/>
+        <c:crossAx val="42681472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48148992"/>
+        <c:axId val="42681472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,13 +4585,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48148416"/>
+        <c:crossAx val="42680896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4605,7 +4608,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4687,7 +4690,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -4756,7 +4759,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -4770,11 +4773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48151296"/>
-        <c:axId val="48151872"/>
+        <c:axId val="42683776"/>
+        <c:axId val="42684352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48151296"/>
+        <c:axId val="42683776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4786,12 +4789,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48151872"/>
+        <c:crossAx val="42684352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48151872"/>
+        <c:axId val="42684352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4801,7 +4804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48151296"/>
+        <c:crossAx val="42683776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4823,7 +4826,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4905,7 +4908,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -4974,7 +4977,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -4988,11 +4991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59410112"/>
-        <c:axId val="59410688"/>
+        <c:axId val="42686656"/>
+        <c:axId val="42687232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59410112"/>
+        <c:axId val="42686656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5004,12 +5007,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59410688"/>
+        <c:crossAx val="42687232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59410688"/>
+        <c:axId val="42687232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5019,7 +5022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59410112"/>
+        <c:crossAx val="42686656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5041,7 +5044,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5123,7 +5126,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -5192,7 +5195,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -5206,11 +5209,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59412992"/>
-        <c:axId val="59413568"/>
+        <c:axId val="41100416"/>
+        <c:axId val="41100992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59412992"/>
+        <c:axId val="41100416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5222,12 +5225,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59413568"/>
+        <c:crossAx val="41100992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59413568"/>
+        <c:axId val="41100992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5237,7 +5240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59412992"/>
+        <c:crossAx val="41100416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5259,7 +5262,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5341,7 +5344,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -5410,7 +5413,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -5424,11 +5427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59415872"/>
-        <c:axId val="59678720"/>
+        <c:axId val="41103296"/>
+        <c:axId val="41103872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59415872"/>
+        <c:axId val="41103296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5440,12 +5443,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59678720"/>
+        <c:crossAx val="41103872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59678720"/>
+        <c:axId val="41103872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5455,7 +5458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59415872"/>
+        <c:crossAx val="41103296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5477,7 +5480,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5559,7 +5562,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -5628,7 +5631,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -5642,11 +5645,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59681024"/>
-        <c:axId val="59681600"/>
+        <c:axId val="41106176"/>
+        <c:axId val="41106752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59681024"/>
+        <c:axId val="41106176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5658,12 +5661,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59681600"/>
+        <c:crossAx val="41106752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59681600"/>
+        <c:axId val="41106752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5673,7 +5676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59681024"/>
+        <c:crossAx val="41106176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5695,7 +5698,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5777,7 +5780,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -5846,7 +5849,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -5860,11 +5863,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59683904"/>
-        <c:axId val="59684480"/>
+        <c:axId val="145712832"/>
+        <c:axId val="145713408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59683904"/>
+        <c:axId val="145712832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5876,12 +5879,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59684480"/>
+        <c:crossAx val="145713408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59684480"/>
+        <c:axId val="145713408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5891,7 +5894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59683904"/>
+        <c:crossAx val="145712832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7044,7 +7047,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C94ACE-71BD-4398-A09C-D1C4A56819D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58C94ACE-71BD-4398-A09C-D1C4A56819D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7080,7 +7083,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7B5430-F0AC-4403-B282-79309BE5028C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE7B5430-F0AC-4403-B282-79309BE5028C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7121,7 +7124,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7157,7 +7160,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7195,7 +7198,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7231,7 +7234,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7267,7 +7270,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7308,7 +7311,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7349,7 +7352,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7392,7 +7395,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7435,7 +7438,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7478,7 +7481,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7521,7 +7524,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7564,7 +7567,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7607,7 +7610,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7885,14 +7888,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7960,7 +7963,7 @@
       <c r="F3" s="2">
         <v>66.944999999999993</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="32">
         <v>66.756299999999996</v>
       </c>
       <c r="H3">
@@ -7997,10 +8000,10 @@
       <c r="F4" s="2">
         <v>-4604.09</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="32">
         <v>-5059.18</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="33">
         <v>-5117.78</v>
       </c>
       <c r="I4">
@@ -8034,7 +8037,7 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="32">
         <v>0</v>
       </c>
       <c r="H5">
@@ -8071,10 +8074,10 @@
       <c r="F6" s="2">
         <v>-8.2549100000000006</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="32">
         <v>-8.0893499999999996</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="33">
         <v>-7.4830500000000004</v>
       </c>
       <c r="I6">
@@ -8108,10 +8111,10 @@
       <c r="F7" s="2">
         <v>1.1570600000000001E-5</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <v>9.2539499999999997E-6</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="33">
         <v>7.7660600000000007E-6</v>
       </c>
       <c r="I7">
@@ -8145,10 +8148,10 @@
       <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="32">
         <v>2</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="33">
         <v>2</v>
       </c>
       <c r="I8">
@@ -8175,7 +8178,7 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="2"/>
@@ -8196,7 +8199,7 @@
         <v>10.461897492317805</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:J11" si="0">C3+C4/($A$11+C5)+C6*LN($A$11)+C7*$A$11^C8</f>
+        <f t="shared" ref="C11:I11" si="0">C3+C4/($A$11+C5)+C6*LN($A$11)+C7*$A$11^C8</f>
         <v>7.7810963009441956</v>
       </c>
       <c r="D11" s="2">
@@ -8408,7 +8411,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8497,7 +8500,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" ref="A21:A23" si="7">A20+50</f>
+        <f t="shared" ref="A21:A22" si="7">A20+50</f>
         <v>373.15</v>
       </c>
       <c r="B21">
@@ -8627,7 +8630,7 @@
         <v>31.35,</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" ref="C26:J26" si="8">CONCATENATE(C3,$K$3)</f>
+        <f t="shared" ref="C26:I26" si="8">CONCATENATE(C3,$K$3)</f>
         <v>44.0103,</v>
       </c>
       <c r="D26" t="str">
@@ -8661,7 +8664,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
-        <f t="shared" ref="B27:J27" si="9">CONCATENATE(B4,$K$3)</f>
+        <f t="shared" ref="B27:I27" si="9">CONCATENATE(B4,$K$3)</f>
         <v>-1307.52,</v>
       </c>
       <c r="C27" t="str">
@@ -8699,7 +8702,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
-        <f t="shared" ref="B28:J28" si="11">CONCATENATE(B5,$K$3)</f>
+        <f t="shared" ref="B28:I28" si="11">CONCATENATE(B5,$K$3)</f>
         <v>0,</v>
       </c>
       <c r="C28" t="str">
@@ -8737,7 +8740,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
-        <f t="shared" ref="B29:J29" si="12">CONCATENATE(B6,$K$3)</f>
+        <f t="shared" ref="B29:I29" si="12">CONCATENATE(B6,$K$3)</f>
         <v>-3.26134,</v>
       </c>
       <c r="C29" t="str">
@@ -8775,7 +8778,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
-        <f t="shared" ref="B30:J30" si="13">CONCATENATE(B7,$K$3)</f>
+        <f t="shared" ref="B30:I30" si="13">CONCATENATE(B7,$K$3)</f>
         <v>0.000029418,</v>
       </c>
       <c r="C30" t="str">
@@ -8813,7 +8816,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
-        <f t="shared" ref="B31:J31" si="14">CONCATENATE(B8,$K$3)</f>
+        <f t="shared" ref="B31:I31" si="14">CONCATENATE(B8,$K$3)</f>
         <v>2,</v>
       </c>
       <c r="C31" t="str">
@@ -8869,7 +8872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8939,23 +8942,23 @@
         <v>2.2222222222222197</v>
       </c>
       <c r="C2" s="4">
-        <f>Проверка_пример!C2</f>
+        <f>Проверка_пример!D2</f>
         <v>5.5089585124776503</v>
       </c>
       <c r="D2" s="4">
-        <f>Проверка_пример!D2</f>
+        <f>Проверка_пример!E2</f>
         <v>13.8</v>
       </c>
       <c r="E2" s="4">
-        <f>Проверка_пример!E2</f>
+        <f>Проверка_пример!F2</f>
         <v>4.5</v>
       </c>
       <c r="F2" s="4">
-        <f>Проверка_пример!F2</f>
+        <f>Проверка_пример!G2</f>
         <v>13.5</v>
       </c>
       <c r="G2" s="4">
-        <f>Проверка_пример!G2</f>
+        <f>Проверка_пример!H2</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="H2" s="22">
@@ -8984,7 +8987,7 @@
         <v>4.4444444444444393</v>
       </c>
       <c r="C3" s="4">
-        <f>Проверка_пример!C3</f>
+        <f>Проверка_пример!D3</f>
         <v>4.190319451963604</v>
       </c>
     </row>
@@ -8997,7 +9000,7 @@
         <v>6.6666666666666696</v>
       </c>
       <c r="C4" s="4">
-        <f>Проверка_пример!C4</f>
+        <f>Проверка_пример!D4</f>
         <v>3.4655700890093284</v>
       </c>
     </row>
@@ -9153,25 +9156,25 @@
       <c r="H15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="M15" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="33" t="s">
+      <c r="N15" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="33" t="s">
+      <c r="O15" s="31" t="s">
         <v>57</v>
       </c>
       <c r="P15" s="16" t="s">
@@ -9206,7 +9209,7 @@
         <f>F16*C16</f>
         <v>5.5264800239079469E-4</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="30">
         <f>G16+1</f>
         <v>1.0005526480023907</v>
       </c>
@@ -9267,7 +9270,7 @@
         <f t="shared" ref="G17:G18" si="3">F17*C17</f>
         <v>7.2655914473247687E-4</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="30">
         <f t="shared" ref="H17:H18" si="4">G17+1</f>
         <v>1.0007265591447325</v>
       </c>
@@ -9328,7 +9331,7 @@
         <f t="shared" si="3"/>
         <v>8.7850334547550464E-4</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="30">
         <f t="shared" si="4"/>
         <v>1.0008785033454755</v>
       </c>
@@ -10651,17 +10654,17 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
+      <c r="A96" s="36"/>
       <c r="B96" s="18" t="s">
         <v>61</v>
       </c>
@@ -10778,17 +10781,17 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
+      <c r="A104" s="36"/>
       <c r="B104" s="18" t="s">
         <v>61</v>
       </c>
@@ -10885,17 +10888,17 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="30"/>
+      <c r="A112" s="36"/>
       <c r="B112" s="18" t="s">
         <v>61</v>
       </c>
@@ -11004,11 +11007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11037,31 +11040,34 @@
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11072,40 +11078,39 @@
       <c r="B2" s="10">
         <v>2.2222222222222197</v>
       </c>
-      <c r="C2" s="10">
+      <c r="D2" s="10">
         <v>5.5089585124776503</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>13.8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>4.5</v>
       </c>
-      <c r="F2" s="5">
-        <f>E2*3</f>
+      <c r="G2" s="5">
+        <f>F2*3</f>
         <v>13.5</v>
       </c>
-      <c r="G2" s="5">
-        <f>D2-E2</f>
+      <c r="H2" s="5">
+        <f>E2-F2</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="H2" s="22">
+      <c r="I2" s="22">
         <f>R46</f>
         <v>1.354476349765084</v>
       </c>
-      <c r="I2" s="22">
+      <c r="J2" s="22">
         <f>S46</f>
         <v>0.48552365023491539</v>
       </c>
-      <c r="J2" s="5">
-        <f>SUM(H2:I2)</f>
+      <c r="K2" s="5">
+        <f>SUM(I2:J2)</f>
         <v>1.8399999999999994</v>
       </c>
-      <c r="K2" s="21">
-        <f>J2-D2</f>
+      <c r="L2" s="21">
+        <f>K2-E2</f>
         <v>-11.96</v>
       </c>
-      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -11114,10 +11119,9 @@
       <c r="B3" s="10">
         <v>4.4444444444444393</v>
       </c>
-      <c r="C3" s="10">
+      <c r="D3" s="10">
         <v>4.190319451963604</v>
       </c>
-      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -11126,10 +11130,9 @@
       <c r="B4" s="10">
         <v>6.6666666666666696</v>
       </c>
-      <c r="C4" s="10">
+      <c r="D4" s="10">
         <v>3.4655700890093284</v>
       </c>
-      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -11138,10 +11141,9 @@
       <c r="B5" s="10">
         <v>8.8888888888888911</v>
       </c>
-      <c r="C5" s="10">
+      <c r="D5" s="10">
         <v>2.9750119191022524</v>
       </c>
-      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -11150,10 +11152,9 @@
       <c r="B6" s="10">
         <v>11.1111111111111</v>
       </c>
-      <c r="C6" s="10">
+      <c r="D6" s="10">
         <v>2.803208735305406</v>
       </c>
-      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -11162,10 +11163,9 @@
       <c r="B7" s="10">
         <v>13.3333333333333</v>
       </c>
-      <c r="C7" s="10">
+      <c r="D7" s="10">
         <v>2.3285545044327418</v>
       </c>
-      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -11174,10 +11174,9 @@
       <c r="B8" s="10">
         <v>15.5555555555556</v>
       </c>
-      <c r="C8" s="10">
+      <c r="D8" s="10">
         <v>2.1845322840798302</v>
       </c>
-      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -11186,10 +11185,9 @@
       <c r="B9" s="10">
         <v>17.7777777777778</v>
       </c>
-      <c r="C9" s="10">
+      <c r="D9" s="10">
         <v>1.5783501169062975</v>
       </c>
-      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -11198,10 +11196,9 @@
       <c r="B10" s="10">
         <v>20</v>
       </c>
-      <c r="C10" s="10">
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="L10" s="35"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -11228,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4">
-        <f>E2</f>
+        <f>F2</f>
         <v>4.5</v>
       </c>
       <c r="D13" s="4">
@@ -11236,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f>H2</f>
+        <f>I2</f>
         <v>1.354476349765084</v>
       </c>
     </row>
@@ -11245,11 +11242,11 @@
         <v>1</v>
       </c>
       <c r="B14" s="4">
-        <f>$E$2+$F$2</f>
+        <f>$F$2+$G$2</f>
         <v>18</v>
       </c>
       <c r="C14" s="4">
-        <f>F2</f>
+        <f>G2</f>
         <v>13.5</v>
       </c>
       <c r="D14" s="4">
@@ -11266,11 +11263,11 @@
         <v>2</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ref="B15:B19" si="0">$E$2+$F$2</f>
+        <f>$F$2+$G$2</f>
         <v>18</v>
       </c>
       <c r="C15" s="4">
-        <f>$D$2+$F$2</f>
+        <f>$E$2+$G$2</f>
         <v>27.3</v>
       </c>
       <c r="D15" s="10">
@@ -11287,11 +11284,11 @@
         <v>3</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" si="0"/>
+        <f>$F$2+$G$2</f>
         <v>18</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ref="C16:C18" si="1">$D$2+$F$2</f>
+        <f>$E$2+$G$2</f>
         <v>27.3</v>
       </c>
       <c r="D16" s="10">
@@ -11308,11 +11305,11 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" si="0"/>
+        <f>$F$2+$G$2</f>
         <v>18</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="1"/>
+        <f>$E$2+$G$2</f>
         <v>27.3</v>
       </c>
     </row>
@@ -11321,26 +11318,26 @@
         <v>5</v>
       </c>
       <c r="B18" s="4">
-        <f>$E$2+$F$2</f>
+        <f>$F$2+$G$2</f>
         <v>18</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="1"/>
+        <f>$E$2+$G$2</f>
         <v>27.3</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>6</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" si="0"/>
+        <f>$F$2+$G$2</f>
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <f>$G$2</f>
+        <f>$H$2</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="D19" s="4">
@@ -11348,7 +11345,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="10">
-        <f>I2</f>
+        <f>J2</f>
         <v>0.48552365023491539</v>
       </c>
     </row>
@@ -11409,7 +11406,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="10">
-        <f>$F$2/$E$2</f>
+        <f>$G$2/$F$2</f>
         <v>3</v>
       </c>
       <c r="C24" s="10">
@@ -11421,7 +11418,7 @@
         <v>4.190319451963604</v>
       </c>
       <c r="E24" s="10">
-        <f>$D$24*C2</f>
+        <f>$D$24*D2</f>
         <v>23.084296014895578</v>
       </c>
       <c r="F24" s="10">
@@ -11470,27 +11467,27 @@
         <v>94</v>
       </c>
       <c r="B25" s="10">
-        <f>$F$2/$E$2</f>
+        <f>$G$2/$F$2</f>
         <v>3</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" ref="C25" si="2">B25+1</f>
+        <f t="shared" ref="C25" si="0">B25+1</f>
         <v>4</v>
       </c>
       <c r="E25" s="10">
-        <f>$D$24*C3</f>
+        <f>$D$24*D3</f>
         <v>17.558777109504558</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" ref="F25:F32" si="3">$C$14/(E25*$B$14)</f>
+        <f t="shared" ref="F25:F32" si="1">$C$14/(E25*$B$14)</f>
         <v>4.2713680760491313E-2</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" ref="G25:G26" si="4">F25*C25</f>
+        <f t="shared" ref="G25:G26" si="2">F25*C25</f>
         <v>0.17085472304196525</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" ref="H25:H26" si="5">G25+1</f>
+        <f t="shared" ref="H25:H26" si="3">G25+1</f>
         <v>1.1708547230419653</v>
       </c>
       <c r="I25" s="10">
@@ -11498,23 +11495,23 @@
         <v>1.9037570820732548</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" ref="J25:J32" si="6">G25*R38</f>
+        <f t="shared" ref="J25:J32" si="4">G25*R38</f>
         <v>8.1316472249201466E-2</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" ref="K25:K32" si="7">H25*R38</f>
+        <f t="shared" ref="K25:K32" si="5">H25*R38</f>
         <v>0.55725574276751511</v>
       </c>
       <c r="L25" s="10">
-        <f t="shared" ref="L25:L32" si="8">E38*S38</f>
+        <f t="shared" ref="L25:L32" si="6">E38*S38</f>
         <v>2.5716325399075197</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" ref="M25:M32" si="9">I38*S38</f>
+        <f t="shared" ref="M25:M32" si="7">I38*S38</f>
         <v>21.137548324773917</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" ref="N25:N32" si="10">J38*S38</f>
+        <f t="shared" ref="N25:N32" si="8">J38*S38</f>
         <v>21.274942387588936</v>
       </c>
       <c r="O25" s="10">
@@ -11527,7 +11524,7 @@
         <v>95</v>
       </c>
       <c r="B26" s="10">
-        <f>$F$2/$E$2</f>
+        <f>$G$2/$F$2</f>
         <v>3</v>
       </c>
       <c r="C26" s="10">
@@ -11535,47 +11532,47 @@
         <v>4</v>
       </c>
       <c r="E26" s="10">
-        <f>$D$24*C4</f>
+        <f>$D$24*D4</f>
         <v>14.521845756119028</v>
       </c>
       <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>5.1646327374326687E-2</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="2"/>
+        <v>0.20658530949730675</v>
+      </c>
+      <c r="H26" s="10">
         <f t="shared" si="3"/>
-        <v>5.1646327374326687E-2</v>
-      </c>
-      <c r="G26" s="10">
+        <v>1.2065853094973067</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" ref="I26:I32" si="9">C26*R39</f>
+        <v>2.4233186243338114</v>
+      </c>
+      <c r="J26" s="10">
         <f t="shared" si="4"/>
-        <v>0.20658530949730675</v>
-      </c>
-      <c r="H26" s="10">
+        <v>0.125155507004647</v>
+      </c>
+      <c r="K26" s="10">
         <f t="shared" si="5"/>
-        <v>1.2065853094973067</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" ref="I26:I32" si="11">C26*R39</f>
-        <v>2.4233186243338114</v>
-      </c>
-      <c r="J26" s="10">
+        <v>0.7309851630880998</v>
+      </c>
+      <c r="L26" s="10">
         <f t="shared" si="6"/>
-        <v>0.125155507004647</v>
-      </c>
-      <c r="K26" s="10">
+        <v>4.9176676984451877</v>
+      </c>
+      <c r="M26" s="10">
         <f t="shared" si="7"/>
-        <v>0.7309851630880998</v>
-      </c>
-      <c r="L26" s="10">
+        <v>33.42969648114385</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="8"/>
-        <v>4.9176676984451877</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="9"/>
-        <v>33.42969648114385</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="10"/>
         <v>33.743866825060401</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" ref="O26:O32" si="12">N39*S39</f>
+        <f t="shared" ref="O26:O32" si="10">N39*S39</f>
         <v>267.2108445502742</v>
       </c>
     </row>
@@ -11584,55 +11581,55 @@
         <v>96</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27:B32" si="13">$F$2/$E$2</f>
+        <f>$G$2/$F$2</f>
         <v>3</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" ref="C27:C32" si="14">B27+1</f>
+        <f t="shared" ref="C27:C32" si="11">B27+1</f>
         <v>4</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" ref="E27:E32" si="15">$D$24*C5</f>
+        <f>$D$24*D5</f>
         <v>12.46625031443774</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.016243706669281E-2</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" ref="G27:G32" si="16">F27*C27</f>
+        <f t="shared" ref="G27:G32" si="12">F27*C27</f>
         <v>0.24064974826677124</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" ref="H27:H32" si="17">G27+1</f>
+        <f t="shared" ref="H27:H32" si="13">G27+1</f>
         <v>1.2406497482667713</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.6791367858313815</v>
       </c>
       <c r="J27" s="10">
+        <f t="shared" si="4"/>
+        <v>0.16118339827064215</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="5"/>
+        <v>0.83096759472848758</v>
+      </c>
+      <c r="L27" s="10">
         <f t="shared" si="6"/>
-        <v>0.16118339827064215</v>
-      </c>
-      <c r="K27" s="10">
+        <v>7.5617557161077524</v>
+      </c>
+      <c r="M27" s="10">
         <f t="shared" si="7"/>
-        <v>0.83096759472848758</v>
-      </c>
-      <c r="L27" s="10">
+        <v>44.127560739903949</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="8"/>
-        <v>7.5617557161077524</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="9"/>
-        <v>44.127560739903949</v>
-      </c>
-      <c r="N27" s="10">
+        <v>44.684443210112768</v>
+      </c>
+      <c r="O27" s="10">
         <f t="shared" si="10"/>
-        <v>44.684443210112768</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="12"/>
         <v>303.75931550138449</v>
       </c>
     </row>
@@ -11641,55 +11638,55 @@
         <v>97</v>
       </c>
       <c r="B28" s="10">
+        <f>$G$2/$F$2</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E28" s="10">
+        <f>$D$24*D6</f>
+        <v>11.746340091464537</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="1"/>
+        <v>6.3849675231605674E-2</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="12"/>
+        <v>0.25539870092642269</v>
+      </c>
+      <c r="H28" s="10">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="C28" s="10">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="E28" s="10">
-        <f t="shared" si="15"/>
-        <v>11.746340091464537</v>
-      </c>
-      <c r="F28" s="10">
-        <f t="shared" si="3"/>
-        <v>6.3849675231605674E-2</v>
-      </c>
-      <c r="G28" s="10">
-        <f t="shared" si="16"/>
-        <v>0.25539870092642269</v>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" si="17"/>
         <v>1.2553987009264227</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3.0671987956989666</v>
       </c>
       <c r="J28" s="10">
+        <f t="shared" si="4"/>
+        <v>0.19583964697615105</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.96263934590089273</v>
+      </c>
+      <c r="L28" s="10">
         <f t="shared" si="6"/>
-        <v>0.19583964697615105</v>
-      </c>
-      <c r="K28" s="10">
+        <v>9.8517375105740115</v>
+      </c>
+      <c r="M28" s="10">
         <f t="shared" si="7"/>
-        <v>0.96263934590089273</v>
-      </c>
-      <c r="L28" s="10">
+        <v>54.170998147352037</v>
+      </c>
+      <c r="N28" s="10">
         <f t="shared" si="8"/>
-        <v>9.8517375105740115</v>
-      </c>
-      <c r="M28" s="10">
-        <f t="shared" si="9"/>
-        <v>54.170998147352037</v>
-      </c>
-      <c r="N28" s="10">
+        <v>54.937531781760626</v>
+      </c>
+      <c r="O28" s="10">
         <f t="shared" si="10"/>
-        <v>54.937531781760626</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="12"/>
         <v>351.89178331448488</v>
       </c>
     </row>
@@ -11698,55 +11695,55 @@
         <v>98</v>
       </c>
       <c r="B29" s="10">
+        <f>$G$2/$F$2</f>
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E29" s="10">
+        <f>$D$24*D7</f>
+        <v>9.757387234881989</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="1"/>
+        <v>7.6864839115824118E-2</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="12"/>
+        <v>0.30745935646329647</v>
+      </c>
+      <c r="H29" s="10">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="C29" s="10">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="E29" s="10">
-        <f t="shared" si="15"/>
-        <v>9.757387234881989</v>
-      </c>
-      <c r="F29" s="10">
-        <f t="shared" si="3"/>
-        <v>7.6864839115824118E-2</v>
-      </c>
-      <c r="G29" s="10">
-        <f t="shared" si="16"/>
-        <v>0.30745935646329647</v>
-      </c>
-      <c r="H29" s="10">
-        <f t="shared" si="17"/>
         <v>1.3074593564632964</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.6499356055097598</v>
       </c>
       <c r="J29" s="10">
+        <f t="shared" si="4"/>
+        <v>0.20368687398480165</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="5"/>
+        <v>0.86617077536224152</v>
+      </c>
+      <c r="L29" s="10">
         <f t="shared" si="6"/>
-        <v>0.20368687398480165</v>
-      </c>
-      <c r="K29" s="10">
+        <v>12.770661561897038</v>
+      </c>
+      <c r="M29" s="10">
         <f t="shared" si="7"/>
-        <v>0.86617077536224152</v>
-      </c>
-      <c r="L29" s="10">
+        <v>58.330858955945786</v>
+      </c>
+      <c r="N29" s="10">
         <f t="shared" si="8"/>
-        <v>12.770661561897038</v>
-      </c>
-      <c r="M29" s="10">
-        <f t="shared" si="9"/>
-        <v>58.330858955945786</v>
-      </c>
-      <c r="N29" s="10">
+        <v>59.508375054568347</v>
+      </c>
+      <c r="O29" s="10">
         <f t="shared" si="10"/>
-        <v>59.508375054568347</v>
-      </c>
-      <c r="O29" s="10">
-        <f t="shared" si="12"/>
         <v>316.62780053090557</v>
       </c>
     </row>
@@ -11755,55 +11752,55 @@
         <v>99</v>
       </c>
       <c r="B30" s="10">
+        <f>$G$2/$F$2</f>
+        <v>3</v>
+      </c>
+      <c r="C30" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="10">
+        <f>$D$24*D8</f>
+        <v>9.1538881234221936</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="1"/>
+        <v>8.1932397456438599E-2</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="12"/>
+        <v>0.3277295898257544</v>
+      </c>
+      <c r="H30" s="10">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="C30" s="10">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="E30" s="10">
-        <f t="shared" si="15"/>
-        <v>9.1538881234221936</v>
-      </c>
-      <c r="F30" s="10">
-        <f t="shared" si="3"/>
-        <v>8.1932397456438599E-2</v>
-      </c>
-      <c r="G30" s="10">
-        <f t="shared" si="16"/>
-        <v>0.3277295898257544</v>
-      </c>
-      <c r="H30" s="10">
-        <f t="shared" si="17"/>
         <v>1.3277295898257544</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.7110552688810521</v>
       </c>
       <c r="J30" s="10">
+        <f t="shared" si="4"/>
+        <v>0.22212325781633438</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="5"/>
+        <v>0.89988707503659737</v>
+      </c>
+      <c r="L30" s="10">
         <f t="shared" si="6"/>
-        <v>0.22212325781633438</v>
-      </c>
-      <c r="K30" s="10">
+        <v>15.03639454606502</v>
+      </c>
+      <c r="M30" s="10">
         <f t="shared" si="7"/>
-        <v>0.89988707503659737</v>
-      </c>
-      <c r="L30" s="10">
+        <v>64.431871810322448</v>
+      </c>
+      <c r="N30" s="10">
         <f t="shared" si="8"/>
-        <v>15.03639454606502</v>
-      </c>
-      <c r="M30" s="10">
-        <f t="shared" si="9"/>
-        <v>64.431871810322448</v>
-      </c>
-      <c r="N30" s="10">
+        <v>65.900774659768857</v>
+      </c>
+      <c r="O30" s="10">
         <f t="shared" si="10"/>
-        <v>65.900774659768857</v>
-      </c>
-      <c r="O30" s="10">
-        <f t="shared" si="12"/>
         <v>328.9527578159948</v>
       </c>
     </row>
@@ -11812,55 +11809,55 @@
         <v>100</v>
       </c>
       <c r="B31" s="10">
+        <f>$G$2/$F$2</f>
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E31" s="10">
+        <f>$D$24*D9</f>
+        <v>6.6137911968814862</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="1"/>
+        <v>0.11339940703807487</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="12"/>
+        <v>0.45359762815229948</v>
+      </c>
+      <c r="H31" s="10">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="C31" s="10">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="E31" s="10">
-        <f t="shared" si="15"/>
-        <v>6.6137911968814862</v>
-      </c>
-      <c r="F31" s="10">
-        <f t="shared" si="3"/>
-        <v>0.11339940703807487</v>
-      </c>
-      <c r="G31" s="10">
-        <f t="shared" si="16"/>
-        <v>0.45359762815229948</v>
-      </c>
-      <c r="H31" s="10">
-        <f t="shared" si="17"/>
         <v>1.4535976281522995</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.4117535450540002</v>
       </c>
       <c r="J31" s="10">
+        <f t="shared" si="4"/>
+        <v>0.16009201489302374</v>
+      </c>
+      <c r="K31" s="10">
+        <f t="shared" si="5"/>
+        <v>0.51303040115652376</v>
+      </c>
+      <c r="L31" s="10">
         <f t="shared" si="6"/>
-        <v>0.16009201489302374</v>
-      </c>
-      <c r="K31" s="10">
+        <v>16.117306581170091</v>
+      </c>
+      <c r="M31" s="10">
         <f t="shared" si="7"/>
-        <v>0.51303040115652376</v>
-      </c>
-      <c r="L31" s="10">
+        <v>49.899291803566911</v>
+      </c>
+      <c r="N31" s="10">
         <f t="shared" si="8"/>
-        <v>16.117306581170091</v>
-      </c>
-      <c r="M31" s="10">
-        <f t="shared" si="9"/>
-        <v>49.899291803566911</v>
-      </c>
-      <c r="N31" s="10">
+        <v>51.999686750636748</v>
+      </c>
+      <c r="O31" s="10">
         <f t="shared" si="10"/>
-        <v>51.999686750636748</v>
-      </c>
-      <c r="O31" s="10">
-        <f t="shared" si="12"/>
         <v>187.53771443713779</v>
       </c>
     </row>
@@ -11869,85 +11866,85 @@
         <v>101</v>
       </c>
       <c r="B32" s="10">
+        <f>$G$2/$F$2</f>
+        <v>3</v>
+      </c>
+      <c r="C32" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E32" s="10">
+        <f>$D$24*D10</f>
+        <v>4.190319451963604</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="1"/>
+        <v>0.17898396735565028</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="12"/>
+        <v>0.71593586942260112</v>
+      </c>
+      <c r="H32" s="10">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="C32" s="10">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="E32" s="10">
-        <f t="shared" si="15"/>
-        <v>4.190319451963604</v>
-      </c>
-      <c r="F32" s="10">
-        <f t="shared" si="3"/>
-        <v>0.17898396735565028</v>
-      </c>
-      <c r="G32" s="10">
-        <f t="shared" si="16"/>
-        <v>0.71593586942260112</v>
-      </c>
-      <c r="H32" s="10">
-        <f t="shared" si="17"/>
         <v>1.715935869422601</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.43482022692835792</v>
       </c>
       <c r="J32" s="10">
+        <f t="shared" si="4"/>
+        <v>7.7825849302121664E-2</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" si="5"/>
+        <v>0.18653090603421113</v>
+      </c>
+      <c r="L32" s="10">
         <f t="shared" si="6"/>
-        <v>7.7825849302121664E-2</v>
-      </c>
-      <c r="K32" s="10">
+        <v>13.861306681693108</v>
+      </c>
+      <c r="M32" s="10">
         <f t="shared" si="7"/>
-        <v>0.18653090603421113</v>
-      </c>
-      <c r="L32" s="10">
+        <v>27.189595115847485</v>
+      </c>
+      <c r="N32" s="10">
         <f t="shared" si="8"/>
-        <v>13.861306681693108</v>
-      </c>
-      <c r="M32" s="10">
-        <f t="shared" si="9"/>
-        <v>27.189595115847485</v>
-      </c>
-      <c r="N32" s="10">
+        <v>29.840890059115395</v>
+      </c>
+      <c r="O32" s="10">
         <f t="shared" si="10"/>
-        <v>29.840890059115395</v>
-      </c>
-      <c r="O32" s="10">
-        <f t="shared" si="12"/>
         <v>68.18617319886998</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I33" s="11">
-        <f>SUM(I24:I26)</f>
+        <f t="shared" ref="I33:O33" si="14">SUM(I24:I26)</f>
         <v>5.4179053990603361</v>
       </c>
       <c r="J33" s="13">
-        <f>SUM(J24:J26)</f>
+        <f t="shared" si="14"/>
         <v>0.24191262119337495</v>
       </c>
       <c r="K33" s="13">
-        <f>SUM(K24:K26)</f>
+        <f t="shared" si="14"/>
         <v>1.5963889709584587</v>
       </c>
       <c r="L33" s="13">
-        <f>SUM(L24:L26)</f>
+        <f t="shared" si="14"/>
         <v>8.3142577500898494</v>
       </c>
       <c r="M33" s="13">
-        <f>SUM(M24:M26)</f>
+        <f t="shared" si="14"/>
         <v>63.481799445946464</v>
       </c>
       <c r="N33" s="13">
-        <f>SUM(N24:N26)</f>
+        <f t="shared" si="14"/>
         <v>63.967323096181381</v>
       </c>
       <c r="O33" s="13">
-        <f>SUM(O24:O26)</f>
+        <f t="shared" si="14"/>
         <v>583.55828093482319</v>
       </c>
     </row>
@@ -12024,11 +12021,11 @@
         <v>2.1845322840798302</v>
       </c>
       <c r="C37" s="10">
-        <f>$B$37*C2</f>
+        <f>$B$37*D2</f>
         <v>12.034497722163826</v>
       </c>
       <c r="D37" s="10">
-        <f>C37*$B$17/$G$2</f>
+        <f>C37*$B$17/$H$2</f>
         <v>23.292576236446113</v>
       </c>
       <c r="E37" s="10">
@@ -12040,7 +12037,7 @@
         <v>2.9750119191022524</v>
       </c>
       <c r="G37" s="10">
-        <f>$F$37*C2</f>
+        <f>$F$37*D2</f>
         <v>16.389217236460823</v>
       </c>
       <c r="H37" s="10">
@@ -12060,7 +12057,7 @@
         <v>3.4655700890093284</v>
       </c>
       <c r="L37" s="10">
-        <f>$K$37*C2</f>
+        <f>$K$37*D2</f>
         <v>19.091681842435868</v>
       </c>
       <c r="M37" s="10">
@@ -12076,15 +12073,15 @@
         <v>3.4065559776355571E-4</v>
       </c>
       <c r="P37" s="10">
-        <f>$D$2*B2/100/(1+G24)</f>
+        <f>$E$2*B2/100/(1+G24)</f>
         <v>0.27139640292350731</v>
       </c>
       <c r="Q37" s="10">
-        <f>$D$2*B2/100-P37</f>
+        <f>$E$2*B2/100-P37</f>
         <v>3.5270263743159003E-2</v>
       </c>
       <c r="R37" s="10">
-        <f>$D$2*B2/100/(1+$B$148*O37)</f>
+        <f>$E$2*B2/100/(1+$B$148*O37)</f>
         <v>0.27270742316331736</v>
       </c>
       <c r="S37" s="10">
@@ -12097,43 +12094,43 @@
         <v>94</v>
       </c>
       <c r="C38" s="10">
-        <f>$B$37*C3</f>
+        <f>$B$37*D3</f>
         <v>9.1538881234221936</v>
       </c>
       <c r="D38" s="10">
-        <f>C38*$B$17/$G$2</f>
+        <f>C38*$B$17/$H$2</f>
         <v>17.717202819526825</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" ref="E38:E39" si="18">D38+1</f>
+        <f t="shared" ref="E38:E39" si="15">D38+1</f>
         <v>18.717202819526825</v>
       </c>
       <c r="G38" s="10">
-        <f>$F$37*C3</f>
+        <f>$F$37*D3</f>
         <v>12.46625031443774</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" ref="H38:H39" si="19">G38*$B$16/$C$16</f>
+        <f t="shared" ref="H38:H39" si="16">G38*$B$16/$C$16</f>
         <v>8.2195057018270816</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" ref="I38:I39" si="20">H38*E38</f>
+        <f t="shared" ref="I38:I39" si="17">H38*E38</f>
         <v>153.84615529735467</v>
       </c>
       <c r="J38" s="10">
-        <f t="shared" ref="J38:J39" si="21">I38+1</f>
+        <f t="shared" ref="J38:J39" si="18">I38+1</f>
         <v>154.84615529735467</v>
       </c>
       <c r="L38" s="10">
-        <f>$K$37*C3</f>
+        <f>$K$37*D3</f>
         <v>14.521845756119028</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" ref="M38:M39" si="22">L38*$B$15/$C$15</f>
+        <f t="shared" ref="M38:M39" si="19">L38*$B$15/$C$15</f>
         <v>9.5748433556828765</v>
       </c>
       <c r="N38" s="10">
-        <f t="shared" ref="N38:N39" si="23">M38*J38</f>
+        <f t="shared" ref="N38:N39" si="20">M38*J38</f>
         <v>1482.6276812019153</v>
       </c>
       <c r="O38" s="19">
@@ -12141,15 +12138,15 @@
         <v>7.8971594682003619E-4</v>
       </c>
       <c r="P38" s="12">
-        <f>$D$2*B3/100/(1+G25)</f>
+        <f>$E$2*B3/100/(1+G25)</f>
         <v>0.52383384655941623</v>
       </c>
       <c r="Q38" s="10">
-        <f>$D$2*B3/100-P38</f>
+        <f>$E$2*B3/100-P38</f>
         <v>8.9499486773916392E-2</v>
       </c>
       <c r="R38" s="10">
-        <f>$D$2*B3/100/(1+$B$148*O38)</f>
+        <f>$E$2*B3/100/(1+$B$148*O38)</f>
         <v>0.4759392705183137</v>
       </c>
       <c r="S38" s="10">
@@ -12162,43 +12159,43 @@
         <v>95</v>
       </c>
       <c r="C39" s="10">
-        <f>$B$37*C4</f>
+        <f>$B$37*D4</f>
         <v>7.5706497421822885</v>
       </c>
       <c r="D39" s="10">
-        <f>C39*$B$17/$G$2</f>
+        <f>C39*$B$17/$H$2</f>
         <v>14.652870468739911</v>
       </c>
       <c r="E39" s="10">
+        <f t="shared" si="15"/>
+        <v>15.652870468739911</v>
+      </c>
+      <c r="G39" s="10">
+        <f>$F$37*D4</f>
+        <v>10.310112321287006</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="16"/>
+        <v>6.7978762557936303</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" si="17"/>
+        <v>106.40627649446036</v>
+      </c>
+      <c r="J39" s="10">
         <f t="shared" si="18"/>
-        <v>15.652870468739911</v>
-      </c>
-      <c r="G39" s="10">
-        <f>$F$37*C4</f>
-        <v>10.310112321287006</v>
-      </c>
-      <c r="H39" s="10">
+        <v>107.40627649446036</v>
+      </c>
+      <c r="L39" s="10">
+        <f>$K$37*D4</f>
+        <v>12.010176041836125</v>
+      </c>
+      <c r="M39" s="10">
         <f t="shared" si="19"/>
-        <v>6.7978762557936303</v>
-      </c>
-      <c r="I39" s="10">
+        <v>7.9187973902216209</v>
+      </c>
+      <c r="N39" s="10">
         <f t="shared" si="20"/>
-        <v>106.40627649446036</v>
-      </c>
-      <c r="J39" s="10">
-        <f t="shared" si="21"/>
-        <v>107.40627649446036</v>
-      </c>
-      <c r="L39" s="10">
-        <f>$K$37*C4</f>
-        <v>12.010176041836125</v>
-      </c>
-      <c r="M39" s="10">
-        <f t="shared" si="22"/>
-        <v>7.9187973902216209</v>
-      </c>
-      <c r="N39" s="10">
-        <f t="shared" si="23"/>
         <v>850.52854199775447</v>
       </c>
       <c r="O39" s="20">
@@ -12206,15 +12203,15 @@
         <v>1.4186300046594936E-3</v>
       </c>
       <c r="P39" s="12">
-        <f>$D$2*B4/100/(1+G26)</f>
+        <f>$E$2*B4/100/(1+G26)</f>
         <v>0.76248234812613058</v>
       </c>
       <c r="Q39" s="10">
-        <f>$D$2*B4/100-P39</f>
+        <f>$E$2*B4/100-P39</f>
         <v>0.15751765187386979</v>
       </c>
       <c r="R39" s="10">
-        <f>$D$2*B4/100/(1+$B$148*O39)</f>
+        <f>$E$2*B4/100/(1+$B$148*O39)</f>
         <v>0.60582965608345285</v>
       </c>
       <c r="S39" s="10">
@@ -12227,63 +12224,63 @@
         <v>96</v>
       </c>
       <c r="C40" s="10">
-        <f t="shared" ref="C40:C45" si="24">$B$37*C5</f>
+        <f>$B$37*D5</f>
         <v>6.4990095828011629</v>
       </c>
       <c r="D40" s="10">
-        <f t="shared" ref="D40:D45" si="25">C40*$B$17/$G$2</f>
+        <f>C40*$B$17/$H$2</f>
         <v>12.578728224776444</v>
       </c>
       <c r="E40" s="10">
-        <f t="shared" ref="E40:E45" si="26">D40+1</f>
+        <f t="shared" ref="E40:E45" si="21">D40+1</f>
         <v>13.578728224776444</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" ref="G40:G45" si="27">$F$37*C5</f>
+        <f>$F$37*D5</f>
         <v>8.8506959188004668</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" ref="H40:H45" si="28">G40*$B$16/$C$16</f>
+        <f t="shared" ref="H40:H45" si="22">G40*$B$16/$C$16</f>
         <v>5.8356236827255827</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" ref="I40:I45" si="29">H40*E40</f>
+        <f t="shared" ref="I40:I45" si="23">H40*E40</f>
         <v>79.240348009799732</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" ref="J40:J45" si="30">I40+1</f>
+        <f t="shared" ref="J40:J45" si="24">I40+1</f>
         <v>80.240348009799732</v>
       </c>
       <c r="L40" s="10">
-        <f t="shared" ref="L40:L45" si="31">$K$37*C5</f>
+        <f>$K$37*D5</f>
         <v>10.310112321287006</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" ref="M40:M45" si="32">L40*$B$15/$C$15</f>
+        <f t="shared" ref="M40:M45" si="25">L40*$B$15/$C$15</f>
         <v>6.7978762557936303</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" ref="N40:N45" si="33">M40*J40</f>
+        <f t="shared" ref="N40:N45" si="26">M40*J40</f>
         <v>545.46395649243527</v>
       </c>
       <c r="O40" s="20">
-        <f t="shared" ref="O40:O45" si="34">H27/N40</f>
+        <f t="shared" ref="O40:O45" si="27">H27/N40</f>
         <v>2.2744852954990386E-3</v>
       </c>
       <c r="P40" s="12">
-        <f t="shared" ref="P40:P45" si="35">$D$2*B5/100/(1+G27)</f>
+        <f>$E$2*B5/100/(1+G27)</f>
         <v>0.98872922706860733</v>
       </c>
       <c r="Q40" s="10">
-        <f t="shared" ref="Q40:Q45" si="36">$D$2*B5/100-P40</f>
+        <f>$E$2*B5/100-P40</f>
         <v>0.23793743959805969</v>
       </c>
       <c r="R40" s="10">
-        <f>$D$2*B5/100/(1+$B$148*O40)</f>
+        <f>$E$2*B5/100/(1+$B$148*O40)</f>
         <v>0.66978419645784537</v>
       </c>
       <c r="S40" s="10">
-        <f t="shared" ref="S40:S45" si="37">$B$148*O40*R40</f>
+        <f t="shared" ref="S40:S45" si="28">$B$148*O40*R40</f>
         <v>0.55688247020882153</v>
       </c>
     </row>
@@ -12292,63 +12289,63 @@
         <v>97</v>
       </c>
       <c r="C41" s="10">
+        <f>$B$37*D6</f>
+        <v>6.123699981289251</v>
+      </c>
+      <c r="D41" s="10">
+        <f>C41*$B$17/$H$2</f>
+        <v>11.852322544430807</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="21"/>
+        <v>12.852322544430807</v>
+      </c>
+      <c r="G41" s="10">
+        <f>$F$37*D6</f>
+        <v>8.3395793992651335</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="22"/>
+        <v>5.4986237797352526</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" si="23"/>
+        <v>70.670086367634724</v>
+      </c>
+      <c r="J41" s="10">
         <f t="shared" si="24"/>
-        <v>6.123699981289251</v>
-      </c>
-      <c r="D41" s="10">
+        <v>71.670086367634724</v>
+      </c>
+      <c r="L41" s="10">
+        <f>$K$37*D6</f>
+        <v>9.7147163463240833</v>
+      </c>
+      <c r="M41" s="10">
         <f t="shared" si="25"/>
-        <v>11.852322544430807</v>
-      </c>
-      <c r="E41" s="10">
+        <v>6.4053074810928017</v>
+      </c>
+      <c r="N41" s="10">
         <f t="shared" si="26"/>
-        <v>12.852322544430807</v>
-      </c>
-      <c r="G41" s="10">
+        <v>459.06894038117792</v>
+      </c>
+      <c r="O41" s="20">
         <f t="shared" si="27"/>
-        <v>8.3395793992651335</v>
-      </c>
-      <c r="H41" s="10">
+        <v>2.7346626846155822E-3</v>
+      </c>
+      <c r="P41" s="12">
+        <f>$E$2*B6/100/(1+G28)</f>
+        <v>1.2213915246222633</v>
+      </c>
+      <c r="Q41" s="10">
+        <f>$E$2*B6/100-P41</f>
+        <v>0.3119418087110688</v>
+      </c>
+      <c r="R41" s="10">
+        <f>$E$2*B6/100/(1+$B$148*O41)</f>
+        <v>0.76679969892474165</v>
+      </c>
+      <c r="S41" s="10">
         <f t="shared" si="28"/>
-        <v>5.4986237797352526</v>
-      </c>
-      <c r="I41" s="10">
-        <f t="shared" si="29"/>
-        <v>70.670086367634724</v>
-      </c>
-      <c r="J41" s="10">
-        <f t="shared" si="30"/>
-        <v>71.670086367634724</v>
-      </c>
-      <c r="L41" s="10">
-        <f t="shared" si="31"/>
-        <v>9.7147163463240833</v>
-      </c>
-      <c r="M41" s="10">
-        <f t="shared" si="32"/>
-        <v>6.4053074810928017</v>
-      </c>
-      <c r="N41" s="10">
-        <f t="shared" si="33"/>
-        <v>459.06894038117792</v>
-      </c>
-      <c r="O41" s="20">
-        <f t="shared" si="34"/>
-        <v>2.7346626846155822E-3</v>
-      </c>
-      <c r="P41" s="12">
-        <f t="shared" si="35"/>
-        <v>1.2213915246222633</v>
-      </c>
-      <c r="Q41" s="10">
-        <f t="shared" si="36"/>
-        <v>0.3119418087110688</v>
-      </c>
-      <c r="R41" s="10">
-        <f>$D$2*B6/100/(1+$B$148*O41)</f>
-        <v>0.76679969892474165</v>
-      </c>
-      <c r="S41" s="10">
-        <f t="shared" si="37"/>
         <v>0.76653363440859057</v>
       </c>
     </row>
@@ -12357,63 +12354,63 @@
         <v>98</v>
       </c>
       <c r="C42" s="10">
+        <f>$B$37*D7</f>
+        <v>5.0868024901728344</v>
+      </c>
+      <c r="D42" s="10">
+        <f>C42*$B$17/$H$2</f>
+        <v>9.8454241745280662</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="21"/>
+        <v>10.845424174528066</v>
+      </c>
+      <c r="G42" s="10">
+        <f>$F$37*D7</f>
+        <v>6.9274774049666457</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" si="22"/>
+        <v>4.5675675197582279</v>
+      </c>
+      <c r="I42" s="10">
+        <f t="shared" si="23"/>
+        <v>49.537207197575086</v>
+      </c>
+      <c r="J42" s="10">
         <f t="shared" si="24"/>
-        <v>5.0868024901728344</v>
-      </c>
-      <c r="D42" s="10">
+        <v>50.537207197575086</v>
+      </c>
+      <c r="L42" s="10">
+        <f>$K$37*D7</f>
+        <v>8.069768841190049</v>
+      </c>
+      <c r="M42" s="10">
         <f t="shared" si="25"/>
-        <v>9.8454241745280662</v>
-      </c>
-      <c r="E42" s="10">
+        <v>5.3207267084769558</v>
+      </c>
+      <c r="N42" s="10">
         <f t="shared" si="26"/>
-        <v>10.845424174528066</v>
-      </c>
-      <c r="G42" s="10">
+        <v>268.8946681079716</v>
+      </c>
+      <c r="O42" s="20">
         <f t="shared" si="27"/>
-        <v>6.9274774049666457</v>
-      </c>
-      <c r="H42" s="10">
+        <v>4.8623476458755999E-3</v>
+      </c>
+      <c r="P42" s="12">
+        <f>$E$2*B7/100/(1+G29)</f>
+        <v>1.4073095204865351</v>
+      </c>
+      <c r="Q42" s="10">
+        <f>$E$2*B7/100-P42</f>
+        <v>0.43269047951346029</v>
+      </c>
+      <c r="R42" s="10">
+        <f>$E$2*B7/100/(1+$B$148*O42)</f>
+        <v>0.66248390137743995</v>
+      </c>
+      <c r="S42" s="10">
         <f t="shared" si="28"/>
-        <v>4.5675675197582279</v>
-      </c>
-      <c r="I42" s="10">
-        <f t="shared" si="29"/>
-        <v>49.537207197575086</v>
-      </c>
-      <c r="J42" s="10">
-        <f t="shared" si="30"/>
-        <v>50.537207197575086</v>
-      </c>
-      <c r="L42" s="10">
-        <f t="shared" si="31"/>
-        <v>8.069768841190049</v>
-      </c>
-      <c r="M42" s="10">
-        <f t="shared" si="32"/>
-        <v>5.3207267084769558</v>
-      </c>
-      <c r="N42" s="10">
-        <f t="shared" si="33"/>
-        <v>268.8946681079716</v>
-      </c>
-      <c r="O42" s="20">
-        <f t="shared" si="34"/>
-        <v>4.8623476458755999E-3</v>
-      </c>
-      <c r="P42" s="12">
-        <f t="shared" si="35"/>
-        <v>1.4073095204865351</v>
-      </c>
-      <c r="Q42" s="10">
-        <f t="shared" si="36"/>
-        <v>0.43269047951346029</v>
-      </c>
-      <c r="R42" s="10">
-        <f>$D$2*B7/100/(1+$B$148*O42)</f>
-        <v>0.66248390137743995</v>
-      </c>
-      <c r="S42" s="10">
-        <f t="shared" si="37"/>
         <v>1.1775160986225555</v>
       </c>
     </row>
@@ -12422,63 +12419,63 @@
         <v>99</v>
       </c>
       <c r="C43" s="10">
+        <f>$B$37*D8</f>
+        <v>4.7721813001870403</v>
+      </c>
+      <c r="D43" s="10">
+        <f>C43*$B$17/$H$2</f>
+        <v>9.2364799358458836</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" si="21"/>
+        <v>10.236479935845884</v>
+      </c>
+      <c r="G43" s="10">
+        <f>$F$37*D8</f>
+        <v>6.4990095828011629</v>
+      </c>
+      <c r="H43" s="10">
+        <f t="shared" si="22"/>
+        <v>4.2850612633853817</v>
+      </c>
+      <c r="I43" s="10">
+        <f t="shared" si="23"/>
+        <v>43.863943646514876</v>
+      </c>
+      <c r="J43" s="10">
         <f t="shared" si="24"/>
-        <v>4.7721813001870403</v>
-      </c>
-      <c r="D43" s="10">
+        <v>44.863943646514876</v>
+      </c>
+      <c r="L43" s="10">
+        <f>$K$37*D8</f>
+        <v>7.5706497421822885</v>
+      </c>
+      <c r="M43" s="10">
         <f t="shared" si="25"/>
-        <v>9.2364799358458836</v>
-      </c>
-      <c r="E43" s="10">
+        <v>4.9916371926476621</v>
+      </c>
+      <c r="N43" s="10">
         <f t="shared" si="26"/>
-        <v>10.236479935845884</v>
-      </c>
-      <c r="G43" s="10">
+        <v>223.94452971479242</v>
+      </c>
+      <c r="O43" s="20">
         <f t="shared" si="27"/>
-        <v>6.4990095828011629</v>
-      </c>
-      <c r="H43" s="10">
+        <v>5.928832427908386E-3</v>
+      </c>
+      <c r="P43" s="12">
+        <f>$E$2*B8/100/(1+G30)</f>
+        <v>1.6167950786939924</v>
+      </c>
+      <c r="Q43" s="10">
+        <f>$E$2*B8/100-P43</f>
+        <v>0.5298715879726803</v>
+      </c>
+      <c r="R43" s="10">
+        <f>$E$2*B8/100/(1+$B$148*O43)</f>
+        <v>0.67776381722026302</v>
+      </c>
+      <c r="S43" s="10">
         <f t="shared" si="28"/>
-        <v>4.2850612633853817</v>
-      </c>
-      <c r="I43" s="10">
-        <f t="shared" si="29"/>
-        <v>43.863943646514876</v>
-      </c>
-      <c r="J43" s="10">
-        <f t="shared" si="30"/>
-        <v>44.863943646514876</v>
-      </c>
-      <c r="L43" s="10">
-        <f t="shared" si="31"/>
-        <v>7.5706497421822885</v>
-      </c>
-      <c r="M43" s="10">
-        <f t="shared" si="32"/>
-        <v>4.9916371926476621</v>
-      </c>
-      <c r="N43" s="10">
-        <f t="shared" si="33"/>
-        <v>223.94452971479242</v>
-      </c>
-      <c r="O43" s="20">
-        <f t="shared" si="34"/>
-        <v>5.928832427908386E-3</v>
-      </c>
-      <c r="P43" s="12">
-        <f t="shared" si="35"/>
-        <v>1.6167950786939924</v>
-      </c>
-      <c r="Q43" s="10">
-        <f t="shared" si="36"/>
-        <v>0.5298715879726803</v>
-      </c>
-      <c r="R43" s="10">
-        <f>$D$2*B8/100/(1+$B$148*O43)</f>
-        <v>0.67776381722026302</v>
-      </c>
-      <c r="S43" s="10">
-        <f t="shared" si="37"/>
         <v>1.4689028494464098</v>
       </c>
     </row>
@@ -12487,63 +12484,63 @@
         <v>100</v>
       </c>
       <c r="C44" s="10">
+        <f>$B$37*D9</f>
+        <v>3.4479567859629809</v>
+      </c>
+      <c r="D44" s="10">
+        <f>C44*$B$17/$H$2</f>
+        <v>6.6734647470251236</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="21"/>
+        <v>7.6734647470251236</v>
+      </c>
+      <c r="G44" s="10">
+        <f>$F$37*D9</f>
+        <v>4.6956104103126686</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="22"/>
+        <v>3.0960068639424185</v>
+      </c>
+      <c r="I44" s="10">
+        <f t="shared" si="23"/>
+        <v>23.757099527009956</v>
+      </c>
+      <c r="J44" s="10">
         <f t="shared" si="24"/>
-        <v>3.4479567859629809</v>
-      </c>
-      <c r="D44" s="10">
+        <v>24.757099527009956</v>
+      </c>
+      <c r="L44" s="10">
+        <f>$K$37*D9</f>
+        <v>5.4698829551348416</v>
+      </c>
+      <c r="M44" s="10">
         <f t="shared" si="25"/>
-        <v>6.6734647470251236</v>
-      </c>
-      <c r="E44" s="10">
+        <v>3.6065162341548405</v>
+      </c>
+      <c r="N44" s="10">
         <f t="shared" si="26"/>
-        <v>7.6734647470251236</v>
-      </c>
-      <c r="G44" s="10">
+        <v>89.28688135474853</v>
+      </c>
+      <c r="O44" s="20">
         <f t="shared" si="27"/>
-        <v>4.6956104103126686</v>
-      </c>
-      <c r="H44" s="10">
+        <v>1.6280080635552325E-2</v>
+      </c>
+      <c r="P44" s="12">
+        <f>$E$2*B9/100/(1+G31)</f>
+        <v>1.6877664670186781</v>
+      </c>
+      <c r="Q44" s="10">
+        <f>$E$2*B9/100-P44</f>
+        <v>0.76556686631465865</v>
+      </c>
+      <c r="R44" s="10">
+        <f>$E$2*B9/100/(1+$B$148*O44)</f>
+        <v>0.35293838626350005</v>
+      </c>
+      <c r="S44" s="10">
         <f t="shared" si="28"/>
-        <v>3.0960068639424185</v>
-      </c>
-      <c r="I44" s="10">
-        <f t="shared" si="29"/>
-        <v>23.757099527009956</v>
-      </c>
-      <c r="J44" s="10">
-        <f t="shared" si="30"/>
-        <v>24.757099527009956</v>
-      </c>
-      <c r="L44" s="10">
-        <f t="shared" si="31"/>
-        <v>5.4698829551348416</v>
-      </c>
-      <c r="M44" s="10">
-        <f t="shared" si="32"/>
-        <v>3.6065162341548405</v>
-      </c>
-      <c r="N44" s="10">
-        <f t="shared" si="33"/>
-        <v>89.28688135474853</v>
-      </c>
-      <c r="O44" s="20">
-        <f t="shared" si="34"/>
-        <v>1.6280080635552325E-2</v>
-      </c>
-      <c r="P44" s="12">
-        <f t="shared" si="35"/>
-        <v>1.6877664670186781</v>
-      </c>
-      <c r="Q44" s="10">
-        <f t="shared" si="36"/>
-        <v>0.76556686631465865</v>
-      </c>
-      <c r="R44" s="10">
-        <f>$D$2*B9/100/(1+$B$148*O44)</f>
-        <v>0.35293838626350005</v>
-      </c>
-      <c r="S44" s="10">
-        <f t="shared" si="37"/>
         <v>2.1003949470698364</v>
       </c>
     </row>
@@ -12552,63 +12549,63 @@
         <v>101</v>
       </c>
       <c r="C45" s="10">
+        <f>$B$37*D10</f>
+        <v>2.1845322840798302</v>
+      </c>
+      <c r="D45" s="10">
+        <f>C45*$B$17/$H$2</f>
+        <v>4.2281270014448324</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" si="21"/>
+        <v>5.2281270014448324</v>
+      </c>
+      <c r="G45" s="10">
+        <f>$F$37*D10</f>
+        <v>2.9750119191022524</v>
+      </c>
+      <c r="H45" s="10">
+        <f t="shared" si="22"/>
+        <v>1.9615463202871992</v>
+      </c>
+      <c r="I45" s="10">
+        <f t="shared" si="23"/>
+        <v>10.255213281678261</v>
+      </c>
+      <c r="J45" s="10">
         <f t="shared" si="24"/>
-        <v>2.1845322840798302</v>
-      </c>
-      <c r="D45" s="10">
+        <v>11.255213281678261</v>
+      </c>
+      <c r="L45" s="10">
+        <f>$K$37*D10</f>
+        <v>3.4655700890093284</v>
+      </c>
+      <c r="M45" s="10">
         <f t="shared" si="25"/>
-        <v>4.2281270014448324</v>
-      </c>
-      <c r="E45" s="10">
+        <v>2.2849912674786781</v>
+      </c>
+      <c r="N45" s="10">
         <f t="shared" si="26"/>
-        <v>5.2281270014448324</v>
-      </c>
-      <c r="G45" s="10">
+        <v>25.71806406224486</v>
+      </c>
+      <c r="O45" s="20">
         <f t="shared" si="27"/>
-        <v>2.9750119191022524</v>
-      </c>
-      <c r="H45" s="10">
+        <v>6.6721035660754227E-2</v>
+      </c>
+      <c r="P45" s="12">
+        <f>$E$2*B10/100/(1+G32)</f>
+        <v>1.6084517196605479</v>
+      </c>
+      <c r="Q45" s="10">
+        <f>$E$2*B10/100-P45</f>
+        <v>1.1515482803394519</v>
+      </c>
+      <c r="R45" s="10">
+        <f>$E$2*B10/100/(1+$B$148*O45)</f>
+        <v>0.10870505673208948</v>
+      </c>
+      <c r="S45" s="10">
         <f t="shared" si="28"/>
-        <v>1.9615463202871992</v>
-      </c>
-      <c r="I45" s="10">
-        <f t="shared" si="29"/>
-        <v>10.255213281678261</v>
-      </c>
-      <c r="J45" s="10">
-        <f t="shared" si="30"/>
-        <v>11.255213281678261</v>
-      </c>
-      <c r="L45" s="10">
-        <f t="shared" si="31"/>
-        <v>3.4655700890093284</v>
-      </c>
-      <c r="M45" s="10">
-        <f t="shared" si="32"/>
-        <v>2.2849912674786781</v>
-      </c>
-      <c r="N45" s="10">
-        <f t="shared" si="33"/>
-        <v>25.71806406224486</v>
-      </c>
-      <c r="O45" s="20">
-        <f t="shared" si="34"/>
-        <v>6.6721035660754227E-2</v>
-      </c>
-      <c r="P45" s="12">
-        <f t="shared" si="35"/>
-        <v>1.6084517196605479</v>
-      </c>
-      <c r="Q45" s="10">
-        <f t="shared" si="36"/>
-        <v>1.1515482803394519</v>
-      </c>
-      <c r="R45" s="10">
-        <f>$D$2*B10/100/(1+$B$148*O45)</f>
-        <v>0.10870505673208948</v>
-      </c>
-      <c r="S45" s="10">
-        <f t="shared" si="37"/>
         <v>2.6512949432679105</v>
       </c>
     </row>
@@ -12688,7 +12685,7 @@
         <v>0.20133789948463468</v>
       </c>
       <c r="C50" s="4">
-        <f>B50*C2</f>
+        <f>B50*D2</f>
         <v>1.1091621352502476</v>
       </c>
       <c r="D50" s="4">
@@ -12696,7 +12693,7 @@
         <v>6.9943541343286009E-2</v>
       </c>
       <c r="E50" s="4">
-        <f>D50*C2</f>
+        <f>D50*D2</f>
         <v>0.38531606747592795</v>
       </c>
       <c r="F50" s="4">
@@ -12708,7 +12705,7 @@
         <v>2.8068157019059077E-2</v>
       </c>
       <c r="H50" s="4">
-        <f>C2*G50</f>
+        <f>D2*G50</f>
         <v>0.15462631253970482</v>
       </c>
       <c r="I50" s="4">
@@ -12720,7 +12717,7 @@
         <v>2.4130453619036412E-2</v>
       </c>
       <c r="K50" s="4">
-        <f>C2*J50</f>
+        <f>D2*J50</f>
         <v>0.13293366787453775</v>
       </c>
       <c r="L50" s="4">
@@ -12732,7 +12729,7 @@
         <v>9.8781430374127888E-3</v>
       </c>
       <c r="N50" s="4">
-        <f>C2*M50</f>
+        <f>D2*M50</f>
         <v>5.4418280173427015E-2</v>
       </c>
     </row>
@@ -12741,55 +12738,55 @@
         <v>94</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B58" si="38">R38/$R$46</f>
+        <f t="shared" ref="B51:B58" si="29">R38/$R$46</f>
         <v>0.35138248859115118</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" ref="C51:C58" si="39">B51*C3</f>
+        <f>B51*D3</f>
         <v>1.4724048770228799</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" ref="D51:D58" si="40">S38/$S$46</f>
+        <f t="shared" ref="D51:D58" si="30">S38/$S$46</f>
         <v>0.28298119514578202</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" ref="E51:E58" si="41">D51*C3</f>
+        <f>D51*D3</f>
         <v>1.185781606559279</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" ref="F51:F58" si="42">G25*R38</f>
+        <f t="shared" ref="F51:F58" si="31">G25*R38</f>
         <v>8.1316472249201466E-2</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" ref="G51:G58" si="43">F51/$F$59</f>
+        <f t="shared" ref="G51:G58" si="32">F51/$F$59</f>
         <v>6.4400738429656171E-2</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" ref="H51:H58" si="44">C3*G51</f>
+        <f>D3*G51</f>
         <v>0.26985966696260827</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" ref="I51:I58" si="45">J38*S38</f>
+        <f t="shared" ref="I51:I58" si="33">J38*S38</f>
         <v>21.274942387588936</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" ref="J51:J58" si="46">I51/$I$59</f>
+        <f t="shared" ref="J51:J58" si="34">I51/$I$59</f>
         <v>5.7369750688563946E-2</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" ref="K51:K58" si="47">C3*J51</f>
+        <f>D3*J51</f>
         <v>0.24039758226459187</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" ref="L51:L58" si="48">E38*S38</f>
+        <f t="shared" ref="L51:L58" si="35">E38*S38</f>
         <v>2.5716325399075197</v>
       </c>
       <c r="M51" s="4">
-        <f t="shared" ref="M51:M58" si="49">L51/$L$59</f>
+        <f t="shared" ref="M51:M58" si="36">L51/$L$59</f>
         <v>3.0793045347729187E-2</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" ref="N51:N58" si="50">C3*M51</f>
+        <f>D3*M51</f>
         <v>0.12903269690578698</v>
       </c>
     </row>
@@ -12798,55 +12795,55 @@
         <v>95</v>
       </c>
       <c r="B52" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0.44727961192421412</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" si="39"/>
+        <f>B52*D4</f>
         <v>1.5500788445082565</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0.64707526351093203</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="41"/>
+        <f>D52*D4</f>
         <v>2.2424846785613153</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0.125155507004647</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>9.9120225542204621E-2</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="44"/>
+        <f>D4*G52</f>
         <v>0.34350808885492279</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="33"/>
         <v>33.743866825060401</v>
       </c>
       <c r="J52" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="34"/>
         <v>9.0993300557708809E-2</v>
       </c>
       <c r="K52" s="4">
-        <f t="shared" si="47"/>
+        <f>D4*J52</f>
         <v>0.31534366071303149</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>4.9176676984451877</v>
       </c>
       <c r="M52" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>5.8884759814375104E-2</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="50"/>
+        <f>D4*M52</f>
         <v>0.20406926231119685</v>
       </c>
     </row>
@@ -12855,55 +12852,55 @@
         <v>96</v>
       </c>
       <c r="B53" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0.49449678215054149</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" si="39"/>
+        <f>B53*D5</f>
         <v>1.4711338208555709</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>1.1469729022250099</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="41"/>
+        <f>D53*D5</f>
         <v>3.4122580550067068</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0.16118339827064215</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>0.12765347025162735</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="44"/>
+        <f>D5*G53</f>
         <v>0.37977059551335618</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="33"/>
         <v>44.684443210112768</v>
       </c>
       <c r="J53" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="34"/>
         <v>0.12049552567140868</v>
       </c>
       <c r="K53" s="4">
-        <f t="shared" si="47"/>
+        <f>D5*J53</f>
         <v>0.35847562507093228</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>7.5617557161077524</v>
       </c>
       <c r="M53" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>9.0545395993056652E-2</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" si="50"/>
+        <f>D5*M53</f>
         <v>0.26937363229917688</v>
       </c>
     </row>
@@ -12912,55 +12909,55 @@
         <v>97</v>
       </c>
       <c r="B54" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0.56612261931168673</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" si="39"/>
+        <f>B54*D6</f>
         <v>1.5869598717084972</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>1.578777128648031</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="41"/>
+        <f>D54*D6</f>
         <v>4.4256418381265474</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0.19583964697615105</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>0.15510040623031532</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="44"/>
+        <f>D6*G54</f>
         <v>0.43477881359423692</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="33"/>
         <v>54.937531781760626</v>
       </c>
       <c r="J54" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="34"/>
         <v>0.14814387951542884</v>
       </c>
       <c r="K54" s="4">
-        <f t="shared" si="47"/>
+        <f>D6*J54</f>
         <v>0.41527821713968172</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>9.8517375105740115</v>
       </c>
       <c r="M54" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>0.11796592056186213</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="50"/>
+        <f>D6*M54</f>
         <v>0.33068309898735554</v>
       </c>
     </row>
@@ -12969,55 +12966,55 @@
         <v>98</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0.48910702759213109</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="39"/>
+        <f>B55*D7</f>
         <v>1.1389123722493661</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>2.4252497237834385</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="41"/>
+        <f>D55*D7</f>
         <v>5.6473261686901886</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0.20368687398480165</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>0.16131522593416939</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="44"/>
+        <f>D7*G55</f>
         <v>0.37563129598259559</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="33"/>
         <v>59.508375054568347</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="34"/>
         <v>0.16046955984960701</v>
       </c>
       <c r="K55" s="4">
-        <f t="shared" si="47"/>
+        <f>D7*J55</f>
         <v>0.37366211641214186</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>12.770661561897038</v>
       </c>
       <c r="M55" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>0.15291747731973379</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="50"/>
+        <f>D7*M55</f>
         <v>0.35607668061935777</v>
       </c>
     </row>
@@ -13026,55 +13023,55 @@
         <v>99</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0.50038807790022477</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="39"/>
+        <f>B56*D8</f>
         <v>1.0931139107416941</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>3.0253991720809008</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="41"/>
+        <f>D56*D8</f>
         <v>6.6090821636391173</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0.22212325781633438</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>0.17591640943220219</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="44"/>
+        <f>D8*G56</f>
         <v>0.38429507570405125</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="33"/>
         <v>65.900774659768857</v>
       </c>
       <c r="J56" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="34"/>
         <v>0.17770722681814205</v>
       </c>
       <c r="K56" s="4">
-        <f t="shared" si="47"/>
+        <f>D8*J56</f>
         <v>0.38820717409852834</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>15.03639454606502</v>
       </c>
       <c r="M56" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>0.18004764364195627</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="50"/>
+        <f>D8*M56</f>
         <v>0.39331989020835406</v>
       </c>
     </row>
@@ -13083,55 +13080,55 @@
         <v>100</v>
       </c>
       <c r="B57" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0.26057183377525384</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="39"/>
+        <f>B57*D9</f>
         <v>0.41127358430166022</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>4.3260404432484041</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="41"/>
+        <f>D57*D9</f>
         <v>6.8280064393424897</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0.16009201489302374</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>0.12678912021916308</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="44"/>
+        <f>D9*G57</f>
         <v>0.20011762272036265</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="33"/>
         <v>51.999686750636748</v>
       </c>
       <c r="J57" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="34"/>
         <v>0.14022172236328842</v>
       </c>
       <c r="K57" s="4">
-        <f t="shared" si="47"/>
+        <f>D9*J57</f>
         <v>0.22131897188489866</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>16.117306581170091</v>
       </c>
       <c r="M57" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>0.1929906177245185</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="50"/>
+        <f>D9*M57</f>
         <v>0.30460676404731235</v>
       </c>
     </row>
@@ -13140,55 +13137,55 @@
         <v>101</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>8.0256149729703977E-2</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="39"/>
+        <f>B58*D10</f>
         <v>8.0256149729703977E-2</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>5.4606916511381272</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="41"/>
+        <f>D58*D10</f>
         <v>5.4606916511381272</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>7.7825849302121664E-2</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>6.163624694160285E-2</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="44"/>
+        <f>D10*G58</f>
         <v>6.163624694160285E-2</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="33"/>
         <v>29.840890059115395</v>
       </c>
       <c r="J58" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="34"/>
         <v>8.0468580916815885E-2</v>
       </c>
       <c r="K58" s="4">
-        <f t="shared" si="47"/>
+        <f>D10*J58</f>
         <v>8.0468580916815885E-2</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>13.861306681693108</v>
       </c>
       <c r="M58" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>0.16597699655935566</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" si="50"/>
+        <f>D10*M58</f>
         <v>0.16597699655935566</v>
       </c>
     </row>
@@ -13254,7 +13251,7 @@
         <v>-162.80000000000001</v>
       </c>
       <c r="C62" s="2">
-        <f>C2</f>
+        <f>D2</f>
         <v>5.5089585124776503</v>
       </c>
       <c r="D62" s="1">
@@ -13282,7 +13279,7 @@
         <v>-123.80666666666667</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" ref="C63:C68" si="51">C3</f>
+        <f>D3</f>
         <v>4.190319451963604</v>
       </c>
       <c r="D63" s="1">
@@ -13290,7 +13287,7 @@
         <v>0.38399158750294643</v>
       </c>
       <c r="E63">
-        <f t="shared" ref="E63:E68" si="52">ABS(D63-C63)/C63*100</f>
+        <f t="shared" ref="E63:E68" si="37">ABS(D63-C63)/C63*100</f>
         <v>90.836221631670441</v>
       </c>
       <c r="F63">
@@ -13310,7 +13307,7 @@
         <v>-84.813333333333333</v>
       </c>
       <c r="C64" s="2">
-        <f t="shared" si="51"/>
+        <f>D4</f>
         <v>3.4655700890093284</v>
       </c>
       <c r="D64" s="1">
@@ -13318,7 +13315,7 @@
         <v>0.39586940420188593</v>
       </c>
       <c r="E64">
-        <f t="shared" si="52"/>
+        <f t="shared" si="37"/>
         <v>88.577076958929737</v>
       </c>
       <c r="F64">
@@ -13338,7 +13335,7 @@
         <v>-45.82</v>
       </c>
       <c r="C65" s="2">
-        <f t="shared" si="51"/>
+        <f>D5</f>
         <v>2.9750119191022524</v>
       </c>
       <c r="D65" s="1">
@@ -13346,7 +13343,7 @@
         <v>0.45298937384030441</v>
       </c>
       <c r="E65">
-        <f t="shared" si="52"/>
+        <f t="shared" si="37"/>
         <v>84.773527429194303</v>
       </c>
       <c r="F65">
@@ -13366,7 +13363,7 @@
         <v>-6.826666666666668</v>
       </c>
       <c r="C66" s="2">
-        <f t="shared" si="51"/>
+        <f>D6</f>
         <v>2.803208735305406</v>
       </c>
       <c r="D66" s="1"/>
@@ -13380,7 +13377,7 @@
         <v>32.166666666666664</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" si="51"/>
+        <f>D7</f>
         <v>2.3285545044327418</v>
       </c>
       <c r="D67" s="1"/>
@@ -13393,7 +13390,7 @@
         <v>71.16</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" si="51"/>
+        <f>D8</f>
         <v>2.1845322840798302</v>
       </c>
       <c r="D68" s="1">
@@ -13401,7 +13398,7 @@
         <v>2.7626912833063493E-2</v>
       </c>
       <c r="E68">
-        <f t="shared" si="52"/>
+        <f t="shared" si="37"/>
         <v>98.735339686467455</v>
       </c>
       <c r="F68">
@@ -13464,15 +13461,15 @@
         <v>0</v>
       </c>
       <c r="C76" s="4">
-        <f>$D$2*B2/100/(1+$B$76*O37)</f>
+        <f>$E$2*B2/100/(1+$B$76*O37)</f>
         <v>0.30666666666666631</v>
       </c>
       <c r="D76" s="27">
-        <f>C85-$E$2</f>
+        <f>C85-$F$2</f>
         <v>9.3000000000000025</v>
       </c>
       <c r="E76" s="4">
-        <f>-O37*$D$2*B2/100/((1+$B$76*O37)^2)</f>
+        <f>-O37*$E$2*B2/100/((1+$B$76*O37)^2)</f>
         <v>-1.0446771664749031E-4</v>
       </c>
     </row>
@@ -13481,11 +13478,11 @@
         <v>94</v>
       </c>
       <c r="C77" s="4">
-        <f>$D$2*B3/100/(1+$B$76*O38)</f>
+        <f>$E$2*B3/100/(1+$B$76*O38)</f>
         <v>0.61333333333333262</v>
       </c>
       <c r="E77" s="4">
-        <f>-O38*$D$2*B3/100/((1+$B$76*O38)^2)</f>
+        <f>-O38*$E$2*B3/100/((1+$B$76*O38)^2)</f>
         <v>-4.8435911404962165E-4</v>
       </c>
     </row>
@@ -13494,11 +13491,11 @@
         <v>95</v>
       </c>
       <c r="C78" s="4">
-        <f>$D$2*B4/100/(1+$B$76*O39)</f>
+        <f>$E$2*B4/100/(1+$B$76*O39)</f>
         <v>0.92000000000000037</v>
       </c>
       <c r="E78" s="4">
-        <f>-O39*$D$2*B4/100/((1+$B$76*O39)^2)</f>
+        <f>-O39*$E$2*B4/100/((1+$B$76*O39)^2)</f>
         <v>-1.3051396042867347E-3</v>
       </c>
     </row>
@@ -13507,11 +13504,11 @@
         <v>96</v>
       </c>
       <c r="C79" s="4">
-        <f>$D$2*B5/100/(1+$B$76*O40)</f>
+        <f>$E$2*B5/100/(1+$B$76*O40)</f>
         <v>1.226666666666667</v>
       </c>
       <c r="E79" s="4">
-        <f>-O40*$D$2*B5/100/((1+$B$76*O40)^2)</f>
+        <f>-O40*$E$2*B5/100/((1+$B$76*O40)^2)</f>
         <v>-2.7900352958121549E-3</v>
       </c>
     </row>
@@ -13520,11 +13517,11 @@
         <v>97</v>
       </c>
       <c r="C80" s="4">
-        <f>$D$2*B6/100/(1+$B$76*O41)</f>
+        <f>$E$2*B6/100/(1+$B$76*O41)</f>
         <v>1.5333333333333321</v>
       </c>
       <c r="E80" s="4">
-        <f>-O41*$D$2*B6/100/((1+$B$76*O41)^2)</f>
+        <f>-O41*$E$2*B6/100/((1+$B$76*O41)^2)</f>
         <v>-4.193149449743889E-3</v>
       </c>
     </row>
@@ -13533,11 +13530,11 @@
         <v>98</v>
       </c>
       <c r="C81" s="4">
-        <f>$D$2*B7/100/(1+$B$76*O42)</f>
+        <f>$E$2*B7/100/(1+$B$76*O42)</f>
         <v>1.8399999999999954</v>
       </c>
       <c r="E81" s="4">
-        <f>-O42*$D$2*B7/100/((1+$B$76*O42)^2)</f>
+        <f>-O42*$E$2*B7/100/((1+$B$76*O42)^2)</f>
         <v>-8.9467196684110822E-3</v>
       </c>
     </row>
@@ -13546,11 +13543,11 @@
         <v>99</v>
       </c>
       <c r="C82" s="4">
-        <f>$D$2*B8/100/(1+$B$76*O43)</f>
+        <f>$E$2*B8/100/(1+$B$76*O43)</f>
         <v>2.1466666666666727</v>
       </c>
       <c r="E82" s="4">
-        <f>-O43*$D$2*B8/100/((1+$B$76*O43)^2)</f>
+        <f>-O43*$E$2*B8/100/((1+$B$76*O43)^2)</f>
         <v>-1.2727226945243373E-2</v>
       </c>
     </row>
@@ -13559,11 +13556,11 @@
         <v>100</v>
       </c>
       <c r="C83" s="4">
-        <f>$D$2*B9/100/(1+$B$76*O44)</f>
+        <f>$E$2*B9/100/(1+$B$76*O44)</f>
         <v>2.4533333333333367</v>
       </c>
       <c r="E83" s="4">
-        <f>-O44*$D$2*B9/100/((1+$B$76*O44)^2)</f>
+        <f>-O44*$E$2*B9/100/((1+$B$76*O44)^2)</f>
         <v>-3.9940464492555089E-2</v>
       </c>
     </row>
@@ -13572,11 +13569,11 @@
         <v>101</v>
       </c>
       <c r="C84" s="4">
-        <f>$D$2*B10/100/(1+$B$76*O45)</f>
+        <f>$E$2*B10/100/(1+$B$76*O45)</f>
         <v>2.76</v>
       </c>
       <c r="E84" s="4">
-        <f>-O45*$D$2*B10/100/((1+$B$76*O45)^2)</f>
+        <f>-O45*$E$2*B10/100/((1+$B$76*O45)^2)</f>
         <v>-0.18415005842368168</v>
       </c>
     </row>
@@ -13616,15 +13613,15 @@
         <v>36.521916464612879</v>
       </c>
       <c r="C88" s="4">
-        <f>$D$2*B2/100/(1+$B$88*O37)</f>
+        <f>$E$2*B2/100/(1+$B$88*O37)</f>
         <v>0.30289819054704309</v>
       </c>
       <c r="D88" s="27">
-        <f>C97-$E$2</f>
+        <f>C97-$F$2</f>
         <v>5.4691262812124268</v>
       </c>
       <c r="E88" s="4">
-        <f>-O37*$D$2*B2/100/((1+$B$88*O37)^2)</f>
+        <f>-O37*$E$2*B2/100/((1+$B$88*O37)^2)</f>
         <v>-1.0191598708119252E-4</v>
       </c>
     </row>
@@ -13633,11 +13630,11 @@
         <v>94</v>
       </c>
       <c r="C89" s="4">
-        <f>$D$2*B3/100/(1+$B$88*O38)</f>
+        <f>$E$2*B3/100/(1+$B$88*O38)</f>
         <v>0.59613951335265025</v>
       </c>
       <c r="E89" s="4">
-        <f>-O38*$D$2*B3/100/((1+$B$88*O38)^2)</f>
+        <f>-O38*$E$2*B3/100/((1+$B$88*O38)^2)</f>
         <v>-4.5758329048784001E-4</v>
       </c>
     </row>
@@ -13646,11 +13643,11 @@
         <v>95</v>
       </c>
       <c r="C90" s="4">
-        <f>$D$2*B4/100/(1+$B$88*O39)</f>
+        <f>$E$2*B4/100/(1+$B$88*O39)</f>
         <v>0.87468178628927828</v>
       </c>
       <c r="E90" s="4">
-        <f>-O39*$D$2*B4/100/((1+$B$88*O39)^2)</f>
+        <f>-O39*$E$2*B4/100/((1+$B$88*O39)^2)</f>
         <v>-1.1797268943603077E-3</v>
       </c>
     </row>
@@ -13659,11 +13656,11 @@
         <v>96</v>
       </c>
       <c r="C91" s="4">
-        <f>$D$2*B5/100/(1+$B$88*O40)</f>
+        <f>$E$2*B5/100/(1+$B$88*O40)</f>
         <v>1.1325845008780446</v>
       </c>
       <c r="E91" s="4">
-        <f>-O40*$D$2*B5/100/((1+$B$88*O40)^2)</f>
+        <f>-O40*$E$2*B5/100/((1+$B$88*O40)^2)</f>
         <v>-2.3784706560867953E-3</v>
       </c>
     </row>
@@ -13672,11 +13669,11 @@
         <v>97</v>
       </c>
       <c r="C92" s="4">
-        <f>$D$2*B6/100/(1+$B$88*O41)</f>
+        <f>$E$2*B6/100/(1+$B$88*O41)</f>
         <v>1.3940976593496259</v>
       </c>
       <c r="E92" s="4">
-        <f>-O41*$D$2*B6/100/((1+$B$88*O41)^2)</f>
+        <f>-O41*$E$2*B6/100/((1+$B$88*O41)^2)</f>
         <v>-3.4661997267132799E-3</v>
       </c>
     </row>
@@ -13685,11 +13682,11 @@
         <v>98</v>
       </c>
       <c r="C93" s="4">
-        <f>$D$2*B7/100/(1+$B$88*O42)</f>
+        <f>$E$2*B7/100/(1+$B$88*O42)</f>
         <v>1.562523545934043</v>
       </c>
       <c r="E93" s="4">
-        <f>-O42*$D$2*B7/100/((1+$B$88*O42)^2)</f>
+        <f>-O42*$E$2*B7/100/((1+$B$88*O42)^2)</f>
         <v>-6.4518063650134561E-3</v>
       </c>
     </row>
@@ -13698,11 +13695,11 @@
         <v>99</v>
       </c>
       <c r="C94" s="4">
-        <f>$D$2*B8/100/(1+$B$88*O43)</f>
+        <f>$E$2*B8/100/(1+$B$88*O43)</f>
         <v>1.7645784059107434</v>
       </c>
       <c r="E94" s="4">
-        <f>-O43*$D$2*B8/100/((1+$B$88*O43)^2)</f>
+        <f>-O43*$E$2*B8/100/((1+$B$88*O43)^2)</f>
         <v>-8.5997630146268673E-3</v>
       </c>
     </row>
@@ -13711,11 +13708,11 @@
         <v>100</v>
       </c>
       <c r="C95" s="4">
-        <f>$D$2*B9/100/(1+$B$88*O44)</f>
+        <f>$E$2*B9/100/(1+$B$88*O44)</f>
         <v>1.5385454010766904</v>
       </c>
       <c r="E95" s="4">
-        <f>-O44*$D$2*B9/100/((1+$B$88*O44)^2)</f>
+        <f>-O44*$E$2*B9/100/((1+$B$88*O44)^2)</f>
         <v>-1.5707990314933057E-2</v>
       </c>
     </row>
@@ -13724,11 +13721,11 @@
         <v>101</v>
       </c>
       <c r="C96" s="4">
-        <f>$D$2*B10/100/(1+$B$88*O45)</f>
+        <f>$E$2*B10/100/(1+$B$88*O45)</f>
         <v>0.80307727787430638</v>
       </c>
       <c r="E96" s="4">
-        <f>-O45*$D$2*B10/100/((1+$B$88*O45)^2)</f>
+        <f>-O45*$E$2*B10/100/((1+$B$88*O45)^2)</f>
         <v>-1.5590799026766406E-2</v>
       </c>
     </row>
@@ -13768,15 +13765,15 @@
         <v>137.92549111708601</v>
       </c>
       <c r="C100" s="4">
-        <f>$D$2*B2/100/(1+$B$100*O37)</f>
+        <f>$E$2*B2/100/(1+$B$100*O37)</f>
         <v>0.29290452119436794</v>
       </c>
       <c r="D100" s="27">
-        <f>C109-$E$2</f>
+        <f>C109-$F$2</f>
         <v>2.4713522978101601</v>
       </c>
       <c r="E100" s="4">
-        <f>-O37*$D$2*B2/100/((1+$B$100*O37)^2)</f>
+        <f>-O37*$E$2*B2/100/((1+$B$100*O37)^2)</f>
         <v>-9.5301800998629025E-5</v>
       </c>
     </row>
@@ -13785,11 +13782,11 @@
         <v>94</v>
       </c>
       <c r="C101" s="4">
-        <f>$D$2*B3/100/(1+$B$100*O38)</f>
+        <f>$E$2*B3/100/(1+$B$100*O38)</f>
         <v>0.55308971736788759</v>
       </c>
       <c r="E101" s="4">
-        <f>-O38*$D$2*B3/100/((1+$B$100*O38)^2)</f>
+        <f>-O38*$E$2*B3/100/((1+$B$100*O38)^2)</f>
         <v>-3.9388143229048727E-4</v>
       </c>
     </row>
@@ -13798,11 +13795,11 @@
         <v>95</v>
       </c>
       <c r="C102" s="4">
-        <f>$D$2*B4/100/(1+$B$100*O39)</f>
+        <f>$E$2*B4/100/(1+$B$100*O39)</f>
         <v>0.76944613687888608</v>
       </c>
       <c r="E102" s="4">
-        <f>-O39*$D$2*B4/100/((1+$B$100*O39)^2)</f>
+        <f>-O39*$E$2*B4/100/((1+$B$100*O39)^2)</f>
         <v>-9.1293059305534924E-4</v>
       </c>
     </row>
@@ -13811,11 +13808,11 @@
         <v>96</v>
       </c>
       <c r="C103" s="4">
-        <f>$D$2*B5/100/(1+$B$100*O40)</f>
+        <f>$E$2*B5/100/(1+$B$100*O40)</f>
         <v>0.9337427074558543</v>
       </c>
       <c r="E103" s="4">
-        <f>-O40*$D$2*B5/100/((1+$B$100*O40)^2)</f>
+        <f>-O40*$E$2*B5/100/((1+$B$100*O40)^2)</f>
         <v>-1.6166314208671758E-3</v>
       </c>
     </row>
@@ -13824,11 +13821,11 @@
         <v>97</v>
       </c>
       <c r="C104" s="4">
-        <f>$D$2*B6/100/(1+$B$100*O41)</f>
+        <f>$E$2*B6/100/(1+$B$100*O41)</f>
         <v>1.113386539330659</v>
       </c>
       <c r="E104" s="4">
-        <f>-O41*$D$2*B6/100/((1+$B$100*O41)^2)</f>
+        <f>-O41*$E$2*B6/100/((1+$B$100*O41)^2)</f>
         <v>-2.2108491987897819E-3</v>
       </c>
     </row>
@@ -13837,11 +13834,11 @@
         <v>98</v>
       </c>
       <c r="C105" s="4">
-        <f>$D$2*B7/100/(1+$B$100*O42)</f>
+        <f>$E$2*B7/100/(1+$B$100*O42)</f>
         <v>1.1013732114279526</v>
       </c>
       <c r="E105" s="4">
-        <f>-O42*$D$2*B7/100/((1+$B$100*O42)^2)</f>
+        <f>-O42*$E$2*B7/100/((1+$B$100*O42)^2)</f>
         <v>-3.2055104834043694E-3</v>
       </c>
     </row>
@@ -13850,11 +13847,11 @@
         <v>99</v>
       </c>
       <c r="C106" s="4">
-        <f>$D$2*B8/100/(1+$B$100*O43)</f>
+        <f>$E$2*B8/100/(1+$B$100*O43)</f>
         <v>1.1809555066497719</v>
       </c>
       <c r="E106" s="4">
-        <f>-O43*$D$2*B8/100/((1+$B$100*O43)^2)</f>
+        <f>-O43*$E$2*B8/100/((1+$B$100*O43)^2)</f>
         <v>-3.8518701135997159E-3</v>
       </c>
     </row>
@@ -13863,11 +13860,11 @@
         <v>100</v>
       </c>
       <c r="C107" s="4">
-        <f>$D$2*B9/100/(1+$B$100*O44)</f>
+        <f>$E$2*B9/100/(1+$B$100*O44)</f>
         <v>0.75593286478603328</v>
       </c>
       <c r="E107" s="4">
-        <f>-O44*$D$2*B9/100/((1+$B$100*O44)^2)</f>
+        <f>-O44*$E$2*B9/100/((1+$B$100*O44)^2)</f>
         <v>-3.7919835627113789E-3</v>
       </c>
     </row>
@@ -13876,11 +13873,11 @@
         <v>101</v>
       </c>
       <c r="C108" s="4">
-        <f>$D$2*B10/100/(1+$B$100*O45)</f>
+        <f>$E$2*B10/100/(1+$B$100*O45)</f>
         <v>0.27052109271874725</v>
       </c>
       <c r="E108" s="4">
-        <f>-O45*$D$2*B10/100/((1+$B$100*O45)^2)</f>
+        <f>-O45*$E$2*B10/100/((1+$B$100*O45)^2)</f>
         <v>-1.7691145846775959E-3</v>
       </c>
     </row>
@@ -13920,15 +13917,15 @@
         <v>276.39154688943665</v>
       </c>
       <c r="C112" s="4">
-        <f>$D$2*B2/100/(1+$B$112*O37)</f>
+        <f>$E$2*B2/100/(1+$B$112*O37)</f>
         <v>0.28027734198433374</v>
       </c>
       <c r="D112" s="27">
-        <f>C121-$E$2</f>
+        <f>C121-$F$2</f>
         <v>0.75765930149332839</v>
       </c>
       <c r="E112" s="4">
-        <f>-O37*$D$2*B2/100/((1+$B$112*O37)^2)</f>
+        <f>-O37*$E$2*B2/100/((1+$B$112*O37)^2)</f>
         <v>-8.7261954792726995E-5</v>
       </c>
     </row>
@@ -13937,11 +13934,11 @@
         <v>94</v>
       </c>
       <c r="C113" s="4">
-        <f>$D$2*B3/100/(1+$B$112*O38)</f>
+        <f>$E$2*B3/100/(1+$B$112*O38)</f>
         <v>0.50344580795916705</v>
       </c>
       <c r="E113" s="4">
-        <f>-O38*$D$2*B3/100/((1+$B$112*O38)^2)</f>
+        <f>-O38*$E$2*B3/100/((1+$B$112*O38)^2)</f>
         <v>-3.2634712983485781E-4</v>
       </c>
     </row>
@@ -13950,11 +13947,11 @@
         <v>95</v>
       </c>
       <c r="C114" s="4">
-        <f>$D$2*B4/100/(1+$B$112*O39)</f>
+        <f>$E$2*B4/100/(1+$B$112*O39)</f>
         <v>0.66087332588443315</v>
       </c>
       <c r="E114" s="4">
-        <f>-O39*$D$2*B4/100/((1+$B$112*O39)^2)</f>
+        <f>-O39*$E$2*B4/100/((1+$B$112*O39)^2)</f>
         <v>-6.7346923340946569E-4</v>
       </c>
     </row>
@@ -13963,11 +13960,11 @@
         <v>96</v>
       </c>
       <c r="C115" s="4">
-        <f>$D$2*B5/100/(1+$B$112*O40)</f>
+        <f>$E$2*B5/100/(1+$B$112*O40)</f>
         <v>0.75318072606655828</v>
       </c>
       <c r="E115" s="4">
-        <f>-O40*$D$2*B5/100/((1+$B$112*O40)^2)</f>
+        <f>-O40*$E$2*B5/100/((1+$B$112*O40)^2)</f>
         <v>-1.0518527948875159E-3</v>
       </c>
     </row>
@@ -13976,11 +13973,11 @@
         <v>97</v>
       </c>
       <c r="C116" s="4">
-        <f>$D$2*B6/100/(1+$B$112*O41)</f>
+        <f>$E$2*B6/100/(1+$B$112*O41)</f>
         <v>0.87327739763620804</v>
       </c>
       <c r="E116" s="4">
-        <f>-O41*$D$2*B6/100/((1+$B$112*O41)^2)</f>
+        <f>-O41*$E$2*B6/100/((1+$B$112*O41)^2)</f>
         <v>-1.3601024634301699E-3</v>
       </c>
     </row>
@@ -13989,11 +13986,11 @@
         <v>98</v>
       </c>
       <c r="C117" s="4">
-        <f>$D$2*B7/100/(1+$B$112*O42)</f>
+        <f>$E$2*B7/100/(1+$B$112*O42)</f>
         <v>0.78501247782630112</v>
       </c>
       <c r="E117" s="4">
-        <f>-O42*$D$2*B7/100/((1+$B$112*O42)^2)</f>
+        <f>-O42*$E$2*B7/100/((1+$B$112*O42)^2)</f>
         <v>-1.6284757788792464E-3</v>
       </c>
     </row>
@@ -14002,11 +13999,11 @@
         <v>99</v>
       </c>
       <c r="C118" s="4">
-        <f>$D$2*B8/100/(1+$B$112*O43)</f>
+        <f>$E$2*B8/100/(1+$B$112*O43)</f>
         <v>0.81353833930578701</v>
       </c>
       <c r="E118" s="4">
-        <f>-O43*$D$2*B8/100/((1+$B$112*O43)^2)</f>
+        <f>-O43*$E$2*B8/100/((1+$B$112*O43)^2)</f>
         <v>-1.8279344262753048E-3</v>
       </c>
     </row>
@@ -14015,11 +14012,11 @@
         <v>100</v>
       </c>
       <c r="C119" s="4">
-        <f>$D$2*B9/100/(1+$B$112*O44)</f>
+        <f>$E$2*B9/100/(1+$B$112*O44)</f>
         <v>0.44608683026076978</v>
       </c>
       <c r="E119" s="4">
-        <f>-O44*$D$2*B9/100/((1+$B$112*O44)^2)</f>
+        <f>-O44*$E$2*B9/100/((1+$B$112*O44)^2)</f>
         <v>-1.3205011862356644E-3</v>
       </c>
     </row>
@@ -14028,11 +14025,11 @@
         <v>101</v>
       </c>
       <c r="C120" s="4">
-        <f>$D$2*B10/100/(1+$B$112*O45)</f>
+        <f>$E$2*B10/100/(1+$B$112*O45)</f>
         <v>0.14196705456977066</v>
       </c>
       <c r="E120" s="4">
-        <f>-O45*$D$2*B10/100/((1+$B$112*O45)^2)</f>
+        <f>-O45*$E$2*B10/100/((1+$B$112*O45)^2)</f>
         <v>-4.8722418839369493E-4</v>
       </c>
     </row>
@@ -14072,15 +14069,15 @@
         <v>362.85105577185777</v>
       </c>
       <c r="C124" s="4">
-        <f>$D$2*B2/100/(1+$B$124*O37)</f>
+        <f>$E$2*B2/100/(1+$B$124*O37)</f>
         <v>0.2729304821541999</v>
       </c>
       <c r="D124" s="27">
-        <f>C133-$E$2</f>
+        <f>C133-$F$2</f>
         <v>0.11018908757720425</v>
       </c>
       <c r="E124" s="4">
-        <f>-O37*$D$2*B2/100/((1+$B$124*O37)^2)</f>
+        <f>-O37*$E$2*B2/100/((1+$B$124*O37)^2)</f>
         <v>-8.2747149504672449E-5</v>
       </c>
     </row>
@@ -14089,11 +14086,11 @@
         <v>94</v>
       </c>
       <c r="C125" s="4">
-        <f>$D$2*B3/100/(1+$B$124*O38)</f>
+        <f>$E$2*B3/100/(1+$B$124*O38)</f>
         <v>0.47672743670880707</v>
       </c>
       <c r="E125" s="4">
-        <f>-O38*$D$2*B3/100/((1+$B$124*O38)^2)</f>
+        <f>-O38*$E$2*B3/100/((1+$B$124*O38)^2)</f>
         <v>-2.9262716110369554E-4</v>
       </c>
     </row>
@@ -14102,11 +14099,11 @@
         <v>95</v>
       </c>
       <c r="C126" s="4">
-        <f>$D$2*B4/100/(1+$B$124*O39)</f>
+        <f>$E$2*B4/100/(1+$B$124*O39)</f>
         <v>0.60736039133090869</v>
       </c>
       <c r="E126" s="4">
-        <f>-O39*$D$2*B4/100/((1+$B$124*O39)^2)</f>
+        <f>-O39*$E$2*B4/100/((1+$B$124*O39)^2)</f>
         <v>-5.6881919875551501E-4</v>
       </c>
     </row>
@@ -14115,11 +14112,11 @@
         <v>96</v>
       </c>
       <c r="C127" s="4">
-        <f>$D$2*B5/100/(1+$B$124*O40)</f>
+        <f>$E$2*B5/100/(1+$B$124*O40)</f>
         <v>0.67203587139900733</v>
       </c>
       <c r="E127" s="4">
-        <f>-O40*$D$2*B5/100/((1+$B$124*O40)^2)</f>
+        <f>-O40*$E$2*B5/100/((1+$B$124*O40)^2)</f>
         <v>-8.3741643438949845E-4</v>
       </c>
     </row>
@@ -14128,11 +14125,11 @@
         <v>97</v>
       </c>
       <c r="C128" s="4">
-        <f>$D$2*B6/100/(1+$B$124*O41)</f>
+        <f>$E$2*B6/100/(1+$B$124*O41)</f>
         <v>0.76963930524419177</v>
       </c>
       <c r="E128" s="4">
-        <f>-O41*$D$2*B6/100/((1+$B$124*O41)^2)</f>
+        <f>-O41*$E$2*B6/100/((1+$B$124*O41)^2)</f>
         <v>-1.0564322860543633E-3</v>
       </c>
     </row>
@@ -14141,11 +14138,11 @@
         <v>98</v>
       </c>
       <c r="C129" s="4">
-        <f>$D$2*B7/100/(1+$B$124*O42)</f>
+        <f>$E$2*B7/100/(1+$B$124*O42)</f>
         <v>0.66562771421229106</v>
       </c>
       <c r="E129" s="4">
-        <f>-O42*$D$2*B7/100/((1+$B$124*O42)^2)</f>
+        <f>-O42*$E$2*B7/100/((1+$B$124*O42)^2)</f>
         <v>-1.1708222731876797E-3</v>
       </c>
     </row>
@@ -14154,11 +14151,11 @@
         <v>99</v>
       </c>
       <c r="C130" s="4">
-        <f>$D$2*B8/100/(1+$B$124*O43)</f>
+        <f>$E$2*B8/100/(1+$B$124*O43)</f>
         <v>0.68120400309512852</v>
       </c>
       <c r="E130" s="4">
-        <f>-O43*$D$2*B8/100/((1+$B$124*O43)^2)</f>
+        <f>-O43*$E$2*B8/100/((1+$B$124*O43)^2)</f>
         <v>-1.2816190255745957E-3</v>
       </c>
     </row>
@@ -14167,11 +14164,11 @@
         <v>100</v>
       </c>
       <c r="C131" s="4">
-        <f>$D$2*B9/100/(1+$B$124*O44)</f>
+        <f>$E$2*B9/100/(1+$B$124*O44)</f>
         <v>0.35518264226470836</v>
       </c>
       <c r="E131" s="4">
-        <f>-O44*$D$2*B9/100/((1+$B$124*O44)^2)</f>
+        <f>-O44*$E$2*B9/100/((1+$B$124*O44)^2)</f>
         <v>-8.3715034281335089E-4</v>
       </c>
     </row>
@@ -14180,11 +14177,11 @@
         <v>101</v>
       </c>
       <c r="C132" s="4">
-        <f>$D$2*B10/100/(1+$B$124*O45)</f>
+        <f>$E$2*B10/100/(1+$B$124*O45)</f>
         <v>0.10948124116796119</v>
       </c>
       <c r="E132" s="4">
-        <f>-O45*$D$2*B10/100/((1+$B$124*O45)^2)</f>
+        <f>-O45*$E$2*B10/100/((1+$B$124*O45)^2)</f>
         <v>-2.8975645616103837E-4</v>
       </c>
     </row>
@@ -14224,15 +14221,15 @@
         <v>479.55286158223691</v>
       </c>
       <c r="C136" s="4">
-        <f>$D$2*B2/100/(1+$B$136*O37)</f>
+        <f>$E$2*B2/100/(1+$B$136*O37)</f>
         <v>0.26360373641007984</v>
       </c>
       <c r="D136" s="27">
-        <f>C145-$E$2</f>
+        <f>C145-$F$2</f>
         <v>-0.52089509266219158</v>
       </c>
       <c r="E136" s="4">
-        <f>-O37*$D$2*B2/100/((1+$B$136*O37)^2)</f>
+        <f>-O37*$E$2*B2/100/((1+$B$136*O37)^2)</f>
         <v>-7.7188407471476963E-5</v>
       </c>
     </row>
@@ -14241,11 +14238,11 @@
         <v>94</v>
       </c>
       <c r="C137" s="4">
-        <f>$D$2*B3/100/(1+$B$136*O38)</f>
+        <f>$E$2*B3/100/(1+$B$136*O38)</f>
         <v>0.4448601171814508</v>
       </c>
       <c r="E137" s="4">
-        <f>-O38*$D$2*B3/100/((1+$B$136*O38)^2)</f>
+        <f>-O38*$E$2*B3/100/((1+$B$136*O38)^2)</f>
         <v>-2.5481282539442933E-4</v>
       </c>
     </row>
@@ -14254,11 +14251,11 @@
         <v>95</v>
       </c>
       <c r="C138" s="4">
-        <f>$D$2*B4/100/(1+$B$136*O39)</f>
+        <f>$E$2*B4/100/(1+$B$136*O39)</f>
         <v>0.54751864369550596</v>
       </c>
       <c r="E138" s="4">
-        <f>-O39*$D$2*B4/100/((1+$B$136*O39)^2)</f>
+        <f>-O39*$E$2*B4/100/((1+$B$136*O39)^2)</f>
         <v>-4.6225236080566038E-4</v>
       </c>
     </row>
@@ -14267,11 +14264,11 @@
         <v>96</v>
       </c>
       <c r="C139" s="4">
-        <f>$D$2*B5/100/(1+$B$136*O40)</f>
+        <f>$E$2*B5/100/(1+$B$136*O40)</f>
         <v>0.58671525554371307</v>
       </c>
       <c r="E139" s="4">
-        <f>-O40*$D$2*B5/100/((1+$B$136*O40)^2)</f>
+        <f>-O40*$E$2*B5/100/((1+$B$136*O40)^2)</f>
         <v>-6.3828013901756479E-4</v>
       </c>
     </row>
@@ -14280,11 +14277,11 @@
         <v>97</v>
       </c>
       <c r="C140" s="4">
-        <f>$D$2*B6/100/(1+$B$136*O41)</f>
+        <f>$E$2*B6/100/(1+$B$136*O41)</f>
         <v>0.66337422046391759</v>
       </c>
       <c r="E140" s="4">
-        <f>-O41*$D$2*B6/100/((1+$B$136*O41)^2)</f>
+        <f>-O41*$E$2*B6/100/((1+$B$136*O41)^2)</f>
         <v>-7.8484585361335269E-4</v>
       </c>
     </row>
@@ -14293,11 +14290,11 @@
         <v>98</v>
       </c>
       <c r="C141" s="4">
-        <f>$D$2*B7/100/(1+$B$136*O42)</f>
+        <f>$E$2*B7/100/(1+$B$136*O42)</f>
         <v>0.55226187248668945</v>
       </c>
       <c r="E141" s="4">
-        <f>-O42*$D$2*B7/100/((1+$B$136*O42)^2)</f>
+        <f>-O42*$E$2*B7/100/((1+$B$136*O42)^2)</f>
         <v>-8.0596894041925755E-4</v>
       </c>
     </row>
@@ -14306,11 +14303,11 @@
         <v>99</v>
       </c>
       <c r="C142" s="4">
-        <f>$D$2*B8/100/(1+$B$136*O43)</f>
+        <f>$E$2*B8/100/(1+$B$136*O43)</f>
         <v>0.55856397234400579</v>
       </c>
       <c r="E142" s="4">
-        <f>-O43*$D$2*B8/100/((1+$B$136*O43)^2)</f>
+        <f>-O43*$E$2*B8/100/((1+$B$136*O43)^2)</f>
         <v>-8.6168871068491261E-4</v>
       </c>
     </row>
@@ -14319,11 +14316,11 @@
         <v>100</v>
       </c>
       <c r="C143" s="4">
-        <f>$D$2*B9/100/(1+$B$136*O44)</f>
+        <f>$E$2*B9/100/(1+$B$136*O44)</f>
         <v>0.27856125478622612</v>
       </c>
       <c r="E143" s="4">
-        <f>-O44*$D$2*B9/100/((1+$B$136*O44)^2)</f>
+        <f>-O44*$E$2*B9/100/((1+$B$136*O44)^2)</f>
         <v>-5.1492195817771349E-4</v>
       </c>
     </row>
@@ -14332,11 +14329,11 @@
         <v>101</v>
       </c>
       <c r="C144" s="4">
-        <f>$D$2*B10/100/(1+$B$136*O45)</f>
+        <f>$E$2*B10/100/(1+$B$136*O45)</f>
         <v>8.3645834426220103E-2</v>
       </c>
       <c r="E144" s="4">
-        <f>-O45*$D$2*B10/100/((1+$B$136*O45)^2)</f>
+        <f>-O45*$E$2*B10/100/((1+$B$136*O45)^2)</f>
         <v>-1.691384446693374E-4</v>
       </c>
     </row>
@@ -14376,15 +14373,15 @@
         <v>365.54893046176556</v>
       </c>
       <c r="C148" s="4">
-        <f>$D$2*B2/100/(1+$B$148*O37)</f>
+        <f>$E$2*B2/100/(1+$B$148*O37)</f>
         <v>0.27270742316331736</v>
       </c>
       <c r="D148" s="29">
-        <f>C157-$E$2</f>
+        <f>C157-$F$2</f>
         <v>9.2951406740963805E-2</v>
       </c>
       <c r="E148" s="4">
-        <f>-O37*$D$2*B2/100/((1+$B$148*O37)^2)</f>
+        <f>-O37*$E$2*B2/100/((1+$B$148*O37)^2)</f>
         <v>-8.2611950584379615E-5</v>
       </c>
     </row>
@@ -14393,11 +14390,11 @@
         <v>94</v>
       </c>
       <c r="C149" s="4">
-        <f>$D$2*B3/100/(1+$B$148*O38)</f>
+        <f>$E$2*B3/100/(1+$B$148*O38)</f>
         <v>0.4759392705183137</v>
       </c>
       <c r="E149" s="4">
-        <f>-O38*$D$2*B3/100/((1+$B$148*O38)^2)</f>
+        <f>-O38*$E$2*B3/100/((1+$B$148*O38)^2)</f>
         <v>-2.916603689234035E-4</v>
       </c>
     </row>
@@ -14406,11 +14403,11 @@
         <v>95</v>
       </c>
       <c r="C150" s="4">
-        <f>$D$2*B4/100/(1+$B$148*O39)</f>
+        <f>$E$2*B4/100/(1+$B$148*O39)</f>
         <v>0.60582965608345285</v>
       </c>
       <c r="E150" s="4">
-        <f>-O39*$D$2*B4/100/((1+$B$148*O39)^2)</f>
+        <f>-O39*$E$2*B4/100/((1+$B$148*O39)^2)</f>
         <v>-5.6595561272429116E-4</v>
       </c>
     </row>
@@ -14419,11 +14416,11 @@
         <v>96</v>
       </c>
       <c r="C151" s="4">
-        <f>$D$2*B5/100/(1+$B$148*O40)</f>
+        <f>$E$2*B5/100/(1+$B$148*O40)</f>
         <v>0.66978419645784537</v>
       </c>
       <c r="E151" s="4">
-        <f>-O40*$D$2*B5/100/((1+$B$148*O40)^2)</f>
+        <f>-O40*$E$2*B5/100/((1+$B$148*O40)^2)</f>
         <v>-8.3181426099234097E-4</v>
       </c>
     </row>
@@ -14432,11 +14429,11 @@
         <v>97</v>
       </c>
       <c r="C152" s="4">
-        <f>$D$2*B6/100/(1+$B$148*O41)</f>
+        <f>$E$2*B6/100/(1+$B$148*O41)</f>
         <v>0.76679969892474165</v>
       </c>
       <c r="E152" s="4">
-        <f>-O41*$D$2*B6/100/((1+$B$148*O41)^2)</f>
+        <f>-O41*$E$2*B6/100/((1+$B$148*O41)^2)</f>
         <v>-1.048651192351188E-3</v>
       </c>
     </row>
@@ -14445,11 +14442,11 @@
         <v>98</v>
       </c>
       <c r="C153" s="4">
-        <f>$D$2*B7/100/(1+$B$148*O42)</f>
+        <f>$E$2*B7/100/(1+$B$148*O42)</f>
         <v>0.66248390137743995</v>
       </c>
       <c r="E153" s="4">
-        <f>-O42*$D$2*B7/100/((1+$B$148*O42)^2)</f>
+        <f>-O42*$E$2*B7/100/((1+$B$148*O42)^2)</f>
         <v>-1.1597886171472284E-3</v>
       </c>
     </row>
@@ -14458,11 +14455,11 @@
         <v>99</v>
       </c>
       <c r="C154" s="4">
-        <f>$D$2*B8/100/(1+$B$148*O43)</f>
+        <f>$E$2*B8/100/(1+$B$148*O43)</f>
         <v>0.67776381722026302</v>
       </c>
       <c r="E154" s="4">
-        <f>-O43*$D$2*B8/100/((1+$B$148*O43)^2)</f>
+        <f>-O43*$E$2*B8/100/((1+$B$148*O43)^2)</f>
         <v>-1.2687069623381448E-3</v>
       </c>
     </row>
@@ -14471,11 +14468,11 @@
         <v>100</v>
       </c>
       <c r="C155" s="4">
-        <f>$D$2*B9/100/(1+$B$148*O44)</f>
+        <f>$E$2*B9/100/(1+$B$148*O44)</f>
         <v>0.35293838626350005</v>
       </c>
       <c r="E155" s="4">
-        <f>-O44*$D$2*B9/100/((1+$B$148*O44)^2)</f>
+        <f>-O44*$E$2*B9/100/((1+$B$148*O44)^2)</f>
         <v>-8.2660453436425661E-4</v>
       </c>
     </row>
@@ -14484,11 +14481,11 @@
         <v>101</v>
       </c>
       <c r="C156" s="4">
-        <f>$D$2*B10/100/(1+$B$148*O45)</f>
+        <f>$E$2*B10/100/(1+$B$148*O45)</f>
         <v>0.10870505673208948</v>
       </c>
       <c r="E156" s="4">
-        <f>-O45*$D$2*B10/100/((1+$B$148*O45)^2)</f>
+        <f>-O45*$E$2*B10/100/((1+$B$148*O45)^2)</f>
         <v>-2.8566247254562319E-4</v>
       </c>
     </row>
@@ -14510,7 +14507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14580,23 +14577,23 @@
         <v>2.2222222222222197</v>
       </c>
       <c r="C2" s="4">
-        <f>Проверка_пример!C2</f>
+        <f>Проверка_пример!D2</f>
         <v>5.5089585124776503</v>
       </c>
       <c r="D2" s="4">
-        <f>Проверка_пример!D2</f>
+        <f>Проверка_пример!E2</f>
         <v>13.8</v>
       </c>
       <c r="E2" s="4">
-        <f>Проверка_пример!E2</f>
+        <f>Проверка_пример!F2</f>
         <v>4.5</v>
       </c>
       <c r="F2" s="4">
-        <f>Проверка_пример!F2</f>
+        <f>Проверка_пример!G2</f>
         <v>13.5</v>
       </c>
       <c r="G2" s="4">
-        <f>Проверка_пример!G2</f>
+        <f>Проверка_пример!H2</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="H2" s="22">
@@ -14625,7 +14622,7 @@
         <v>4.4444444444444393</v>
       </c>
       <c r="C3" s="4">
-        <f>Проверка_пример!C3</f>
+        <f>Проверка_пример!D3</f>
         <v>4.190319451963604</v>
       </c>
     </row>
@@ -14638,7 +14635,7 @@
         <v>6.6666666666666696</v>
       </c>
       <c r="C4" s="4">
-        <f>Проверка_пример!C4</f>
+        <f>Проверка_пример!D4</f>
         <v>3.4655700890093284</v>
       </c>
     </row>
@@ -16276,7 +16273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -16346,23 +16343,23 @@
         <v>2.2222222222222197</v>
       </c>
       <c r="C2" s="4">
-        <f>Проверка_пример!C2</f>
+        <f>Проверка_пример!D2</f>
         <v>5.5089585124776503</v>
       </c>
       <c r="D2" s="4">
-        <f>Проверка_пример!D2</f>
+        <f>Проверка_пример!E2</f>
         <v>13.8</v>
       </c>
       <c r="E2" s="4">
-        <f>Проверка_пример!E2</f>
+        <f>Проверка_пример!F2</f>
         <v>4.5</v>
       </c>
       <c r="F2" s="4">
-        <f>Проверка_пример!F2</f>
+        <f>Проверка_пример!G2</f>
         <v>13.5</v>
       </c>
       <c r="G2" s="4">
-        <f>Проверка_пример!G2</f>
+        <f>Проверка_пример!H2</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="H2" s="22">
@@ -16391,7 +16388,7 @@
         <v>4.4444444444444393</v>
       </c>
       <c r="C3" s="4">
-        <f>Проверка_пример!C3</f>
+        <f>Проверка_пример!D3</f>
         <v>4.190319451963604</v>
       </c>
     </row>
@@ -16404,7 +16401,7 @@
         <v>6.6666666666666696</v>
       </c>
       <c r="C4" s="4">
-        <f>Проверка_пример!C4</f>
+        <f>Проверка_пример!D4</f>
         <v>3.4655700890093284</v>
       </c>
     </row>
@@ -18041,7 +18038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -18111,23 +18108,23 @@
         <v>2.2222222222222197</v>
       </c>
       <c r="C2" s="4">
-        <f>Проверка_пример!C2</f>
+        <f>Проверка_пример!D2</f>
         <v>5.5089585124776503</v>
       </c>
       <c r="D2" s="4">
-        <f>Проверка_пример!D2</f>
+        <f>Проверка_пример!E2</f>
         <v>13.8</v>
       </c>
       <c r="E2" s="4">
-        <f>Проверка_пример!E2</f>
+        <f>Проверка_пример!F2</f>
         <v>4.5</v>
       </c>
       <c r="F2" s="4">
-        <f>Проверка_пример!F2</f>
+        <f>Проверка_пример!G2</f>
         <v>13.5</v>
       </c>
       <c r="G2" s="4">
-        <f>Проверка_пример!G2</f>
+        <f>Проверка_пример!H2</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="H2" s="22">
@@ -18156,7 +18153,7 @@
         <v>4.4444444444444393</v>
       </c>
       <c r="C3" s="4">
-        <f>Проверка_пример!C3</f>
+        <f>Проверка_пример!D3</f>
         <v>4.190319451963604</v>
       </c>
     </row>
@@ -18169,7 +18166,7 @@
         <v>6.6666666666666696</v>
       </c>
       <c r="C4" s="4">
-        <f>Проверка_пример!C4</f>
+        <f>Проверка_пример!D4</f>
         <v>3.4655700890093284</v>
       </c>
     </row>
@@ -19807,7 +19804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -19877,23 +19874,23 @@
         <v>2.2222222222222197</v>
       </c>
       <c r="C2" s="4">
-        <f>Проверка_пример!C2</f>
+        <f>Проверка_пример!D2</f>
         <v>5.5089585124776503</v>
       </c>
       <c r="D2" s="4">
-        <f>Проверка_пример!D2</f>
+        <f>Проверка_пример!E2</f>
         <v>13.8</v>
       </c>
       <c r="E2" s="4">
-        <f>Проверка_пример!E2</f>
+        <f>Проверка_пример!F2</f>
         <v>4.5</v>
       </c>
       <c r="F2" s="4">
-        <f>Проверка_пример!F2</f>
+        <f>Проверка_пример!G2</f>
         <v>13.5</v>
       </c>
       <c r="G2" s="4">
-        <f>Проверка_пример!G2</f>
+        <f>Проверка_пример!H2</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="H2" s="22">
@@ -19922,7 +19919,7 @@
         <v>4.4444444444444393</v>
       </c>
       <c r="C3" s="4">
-        <f>Проверка_пример!C3</f>
+        <f>Проверка_пример!D3</f>
         <v>4.190319451963604</v>
       </c>
     </row>
@@ -19935,7 +19932,7 @@
         <v>6.6666666666666696</v>
       </c>
       <c r="C4" s="4">
-        <f>Проверка_пример!C4</f>
+        <f>Проверка_пример!D4</f>
         <v>3.4655700890093284</v>
       </c>
     </row>
@@ -21572,7 +21569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -21642,23 +21639,23 @@
         <v>2.2222222222222197</v>
       </c>
       <c r="C2" s="4">
-        <f>Проверка_пример!C2</f>
+        <f>Проверка_пример!D2</f>
         <v>5.5089585124776503</v>
       </c>
       <c r="D2" s="4">
-        <f>Проверка_пример!D2</f>
+        <f>Проверка_пример!E2</f>
         <v>13.8</v>
       </c>
       <c r="E2" s="4">
-        <f>Проверка_пример!E2</f>
+        <f>Проверка_пример!F2</f>
         <v>4.5</v>
       </c>
       <c r="F2" s="4">
-        <f>Проверка_пример!F2</f>
+        <f>Проверка_пример!G2</f>
         <v>13.5</v>
       </c>
       <c r="G2" s="4">
-        <f>Проверка_пример!G2</f>
+        <f>Проверка_пример!H2</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="H2" s="22">
@@ -21687,7 +21684,7 @@
         <v>4.4444444444444393</v>
       </c>
       <c r="C3" s="4">
-        <f>Проверка_пример!C3</f>
+        <f>Проверка_пример!D3</f>
         <v>4.190319451963604</v>
       </c>
     </row>
@@ -21700,7 +21697,7 @@
         <v>6.6666666666666696</v>
       </c>
       <c r="C4" s="4">
-        <f>Проверка_пример!C4</f>
+        <f>Проверка_пример!D4</f>
         <v>3.4655700890093284</v>
       </c>
     </row>
@@ -23337,7 +23334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23407,23 +23404,23 @@
         <v>2.2222222222222197</v>
       </c>
       <c r="C2" s="4">
-        <f>Проверка_пример!C2</f>
+        <f>Проверка_пример!D2</f>
         <v>5.5089585124776503</v>
       </c>
       <c r="D2" s="4">
-        <f>Проверка_пример!D2</f>
+        <f>Проверка_пример!E2</f>
         <v>13.8</v>
       </c>
       <c r="E2" s="4">
-        <f>Проверка_пример!E2</f>
+        <f>Проверка_пример!F2</f>
         <v>4.5</v>
       </c>
       <c r="F2" s="4">
-        <f>Проверка_пример!F2</f>
+        <f>Проверка_пример!G2</f>
         <v>13.5</v>
       </c>
       <c r="G2" s="4">
-        <f>Проверка_пример!G2</f>
+        <f>Проверка_пример!H2</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="H2" s="22">
@@ -23452,7 +23449,7 @@
         <v>4.4444444444444393</v>
       </c>
       <c r="C3" s="4">
-        <f>Проверка_пример!C3</f>
+        <f>Проверка_пример!D3</f>
         <v>4.190319451963604</v>
       </c>
     </row>
@@ -23465,7 +23462,7 @@
         <v>6.6666666666666696</v>
       </c>
       <c r="C4" s="4">
-        <f>Проверка_пример!C4</f>
+        <f>Проверка_пример!D4</f>
         <v>3.4655700890093284</v>
       </c>
     </row>
@@ -25102,7 +25099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -25172,23 +25169,23 @@
         <v>2.2222222222222197</v>
       </c>
       <c r="C2" s="4">
-        <f>Проверка_пример!C2</f>
+        <f>Проверка_пример!D2</f>
         <v>5.5089585124776503</v>
       </c>
       <c r="D2" s="4">
-        <f>Проверка_пример!D2</f>
+        <f>Проверка_пример!E2</f>
         <v>13.8</v>
       </c>
       <c r="E2" s="4">
-        <f>Проверка_пример!E2</f>
+        <f>Проверка_пример!F2</f>
         <v>4.5</v>
       </c>
       <c r="F2" s="4">
-        <f>Проверка_пример!F2</f>
+        <f>Проверка_пример!G2</f>
         <v>13.5</v>
       </c>
       <c r="G2" s="4">
-        <f>Проверка_пример!G2</f>
+        <f>Проверка_пример!H2</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="H2" s="22">
@@ -25217,7 +25214,7 @@
         <v>4.4444444444444393</v>
       </c>
       <c r="C3" s="4">
-        <f>Проверка_пример!C3</f>
+        <f>Проверка_пример!D3</f>
         <v>4.190319451963604</v>
       </c>
     </row>
@@ -25230,7 +25227,7 @@
         <v>6.6666666666666696</v>
       </c>
       <c r="C4" s="4">
-        <f>Проверка_пример!C4</f>
+        <f>Проверка_пример!D4</f>
         <v>3.4655700890093284</v>
       </c>
     </row>

--- a/Проверка.xlsx
+++ b/Проверка.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93292EBD-F65C-4FF0-9ACC-11B935731CDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДНП" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,9 @@
     <sheet name="Лист8" sheetId="8" r:id="rId8"/>
     <sheet name="Лист9" sheetId="9" r:id="rId9"/>
     <sheet name="Лист10" sheetId="10" r:id="rId10"/>
+    <sheet name="Лист2" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -453,13 +455,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -628,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -691,6 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -709,7 +713,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -815,7 +819,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -908,7 +912,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1001,7 +1005,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1094,7 +1098,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1187,7 +1191,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1280,7 +1284,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1379,7 +1383,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1478,7 +1482,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -1630,14 +1634,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1673,7 +1677,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1755,7 +1759,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -1824,7 +1828,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -1891,7 +1895,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1986,7 +1990,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -2058,7 +2062,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -2130,7 +2134,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -2258,7 +2262,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2340,7 +2344,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2409,7 +2413,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2476,7 +2480,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2571,7 +2575,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2643,7 +2647,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2715,7 +2719,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2841,7 +2845,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2936,7 +2940,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -3008,7 +3012,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -3080,7 +3084,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -3206,7 +3210,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3301,7 +3305,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -3425,7 +3429,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3531,7 +3535,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -3624,7 +3628,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -3717,7 +3721,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -3810,7 +3814,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -3903,7 +3907,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -3996,7 +4000,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -4095,7 +4099,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -4194,7 +4198,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-E249-4A08-AC79-BC36F437E8DB}"/>
             </c:ext>
@@ -4346,14 +4350,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4389,7 +4393,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4471,7 +4475,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -4540,7 +4544,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -4592,7 +4596,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4608,7 +4611,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4690,7 +4693,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -4759,7 +4762,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -4826,7 +4829,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4908,7 +4911,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -4977,7 +4980,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -5044,7 +5047,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5126,7 +5129,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -5195,7 +5198,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -5262,7 +5265,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5344,7 +5347,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -5413,7 +5416,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -5480,7 +5483,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5562,7 +5565,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -5631,7 +5634,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -5698,7 +5701,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5780,7 +5783,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -5849,7 +5852,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -7047,7 +7050,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58C94ACE-71BD-4398-A09C-D1C4A56819D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C94ACE-71BD-4398-A09C-D1C4A56819D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7083,7 +7086,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE7B5430-F0AC-4403-B282-79309BE5028C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7B5430-F0AC-4403-B282-79309BE5028C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7124,7 +7127,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7160,7 +7163,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7198,7 +7201,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7234,7 +7237,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7270,7 +7273,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7311,7 +7314,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7352,7 +7355,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7395,7 +7398,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7438,7 +7441,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7481,7 +7484,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7524,7 +7527,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7567,7 +7570,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7610,7 +7613,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7888,14 +7891,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8872,7 +8875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -11006,11 +11009,140 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EDDBF3-718F-4A49-8A29-40A6550499E9}">
+  <dimension ref="B5:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.30666666666666598</v>
+      </c>
+      <c r="C5">
+        <f>B5/$B$15</f>
+        <v>2.2222222222222157E-2</v>
+      </c>
+      <c r="D5" s="38">
+        <v>6.6755813127041194E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.61333333333333295</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C13" si="0">B6/$B$15</f>
+        <v>4.4444444444444384E-2</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0.133511626254082</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.92</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666624E-2</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0.20026743937000399</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1.2266666666666699</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>8.8888888888889059E-2</v>
+      </c>
+      <c r="D8" s="38">
+        <v>0.26702013465604901</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1.5333333333333301</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111108</v>
+      </c>
+      <c r="D9" s="38">
+        <v>0.33243716099447201</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1.84</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333325</v>
+      </c>
+      <c r="D10" s="38">
+        <v>7.4920527476516E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2.1466666666666701</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.1555555555555557</v>
+      </c>
+      <c r="D11" s="38">
+        <v>3.3354516084136898E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2.4533333333333398</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.17777777777777812</v>
+      </c>
+      <c r="D12" s="38">
+        <v>4.4334492514580701E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2.76</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999984</v>
+      </c>
+      <c r="D13" s="38">
+        <v>1.6553704301965601E-18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>SUM(B5:B13)</f>
+        <v>13.80000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -11242,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="4">
-        <f>$F$2+$G$2</f>
+        <f t="shared" ref="B14:B19" si="0">$F$2+$G$2</f>
         <v>18</v>
       </c>
       <c r="C14" s="4">
@@ -11263,7 +11395,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="4">
-        <f>$F$2+$G$2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C15" s="4">
@@ -11284,7 +11416,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="4">
-        <f>$F$2+$G$2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C16" s="4">
@@ -11305,7 +11437,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <f>$F$2+$G$2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C17" s="4">
@@ -11318,7 +11450,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="4">
-        <f>$F$2+$G$2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C18" s="4">
@@ -11333,7 +11465,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="4">
-        <f>$F$2+$G$2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C19" s="4">
@@ -11406,7 +11538,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="10">
-        <f>$G$2/$F$2</f>
+        <f t="shared" ref="B24:B32" si="1">$G$2/$F$2</f>
         <v>3</v>
       </c>
       <c r="C24" s="10">
@@ -11418,7 +11550,7 @@
         <v>4.190319451963604</v>
       </c>
       <c r="E24" s="10">
-        <f>$D$24*D2</f>
+        <f t="shared" ref="E24:E32" si="2">$D$24*D2</f>
         <v>23.084296014895578</v>
       </c>
       <c r="F24" s="10">
@@ -11467,27 +11599,27 @@
         <v>94</v>
       </c>
       <c r="B25" s="10">
-        <f>$G$2/$F$2</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" ref="C25" si="0">B25+1</f>
+        <f t="shared" ref="C25" si="3">B25+1</f>
         <v>4</v>
       </c>
       <c r="E25" s="10">
-        <f>$D$24*D3</f>
+        <f t="shared" si="2"/>
         <v>17.558777109504558</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" ref="F25:F32" si="1">$C$14/(E25*$B$14)</f>
+        <f t="shared" ref="F25:F32" si="4">$C$14/(E25*$B$14)</f>
         <v>4.2713680760491313E-2</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" ref="G25:G26" si="2">F25*C25</f>
+        <f t="shared" ref="G25:G26" si="5">F25*C25</f>
         <v>0.17085472304196525</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" ref="H25:H26" si="3">G25+1</f>
+        <f t="shared" ref="H25:H26" si="6">G25+1</f>
         <v>1.1708547230419653</v>
       </c>
       <c r="I25" s="10">
@@ -11495,23 +11627,23 @@
         <v>1.9037570820732548</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" ref="J25:J32" si="4">G25*R38</f>
+        <f t="shared" ref="J25:J32" si="7">G25*R38</f>
         <v>8.1316472249201466E-2</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" ref="K25:K32" si="5">H25*R38</f>
+        <f t="shared" ref="K25:K32" si="8">H25*R38</f>
         <v>0.55725574276751511</v>
       </c>
       <c r="L25" s="10">
-        <f t="shared" ref="L25:L32" si="6">E38*S38</f>
+        <f t="shared" ref="L25:L32" si="9">E38*S38</f>
         <v>2.5716325399075197</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" ref="M25:M32" si="7">I38*S38</f>
+        <f t="shared" ref="M25:M32" si="10">I38*S38</f>
         <v>21.137548324773917</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" ref="N25:N32" si="8">J38*S38</f>
+        <f t="shared" ref="N25:N32" si="11">J38*S38</f>
         <v>21.274942387588936</v>
       </c>
       <c r="O25" s="10">
@@ -11524,7 +11656,7 @@
         <v>95</v>
       </c>
       <c r="B26" s="10">
-        <f>$G$2/$F$2</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C26" s="10">
@@ -11532,47 +11664,47 @@
         <v>4</v>
       </c>
       <c r="E26" s="10">
-        <f>$D$24*D4</f>
+        <f t="shared" si="2"/>
         <v>14.521845756119028</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.1646327374326687E-2</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20658530949730675</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2065853094973067</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" ref="I26:I32" si="9">C26*R39</f>
+        <f t="shared" ref="I26:I32" si="12">C26*R39</f>
         <v>2.4233186243338114</v>
       </c>
       <c r="J26" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.125155507004647</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.7309851630880998</v>
       </c>
       <c r="L26" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.9176676984451877</v>
       </c>
       <c r="M26" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33.42969648114385</v>
       </c>
       <c r="N26" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>33.743866825060401</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" ref="O26:O32" si="10">N39*S39</f>
+        <f t="shared" ref="O26:O32" si="13">N39*S39</f>
         <v>267.2108445502742</v>
       </c>
     </row>
@@ -11581,55 +11713,55 @@
         <v>96</v>
       </c>
       <c r="B27" s="10">
-        <f>$G$2/$F$2</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" ref="C27:C32" si="11">B27+1</f>
+        <f t="shared" ref="C27:C32" si="14">B27+1</f>
         <v>4</v>
       </c>
       <c r="E27" s="10">
-        <f>$D$24*D5</f>
+        <f t="shared" si="2"/>
         <v>12.46625031443774</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.016243706669281E-2</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" ref="G27:G32" si="12">F27*C27</f>
+        <f t="shared" ref="G27:G32" si="15">F27*C27</f>
         <v>0.24064974826677124</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" ref="H27:H32" si="13">G27+1</f>
+        <f t="shared" ref="H27:H32" si="16">G27+1</f>
         <v>1.2406497482667713</v>
       </c>
       <c r="I27" s="10">
+        <f t="shared" si="12"/>
+        <v>2.6791367858313815</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="7"/>
+        <v>0.16118339827064215</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="8"/>
+        <v>0.83096759472848758</v>
+      </c>
+      <c r="L27" s="10">
         <f t="shared" si="9"/>
-        <v>2.6791367858313815</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="4"/>
-        <v>0.16118339827064215</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="5"/>
-        <v>0.83096759472848758</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="6"/>
         <v>7.5617557161077524</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>44.127560739903949</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>44.684443210112768</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>303.75931550138449</v>
       </c>
     </row>
@@ -11638,55 +11770,55 @@
         <v>97</v>
       </c>
       <c r="B28" s="10">
-        <f>$G$2/$F$2</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C28" s="10">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="2"/>
+        <v>11.746340091464537</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="4"/>
+        <v>6.3849675231605674E-2</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="15"/>
+        <v>0.25539870092642269</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="16"/>
+        <v>1.2553987009264227</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="12"/>
+        <v>3.0671987956989666</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="7"/>
+        <v>0.19583964697615105</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="8"/>
+        <v>0.96263934590089273</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="9"/>
+        <v>9.8517375105740115</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="10"/>
+        <v>54.170998147352037</v>
+      </c>
+      <c r="N28" s="10">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="E28" s="10">
-        <f>$D$24*D6</f>
-        <v>11.746340091464537</v>
-      </c>
-      <c r="F28" s="10">
-        <f t="shared" si="1"/>
-        <v>6.3849675231605674E-2</v>
-      </c>
-      <c r="G28" s="10">
-        <f t="shared" si="12"/>
-        <v>0.25539870092642269</v>
-      </c>
-      <c r="H28" s="10">
+        <v>54.937531781760626</v>
+      </c>
+      <c r="O28" s="10">
         <f t="shared" si="13"/>
-        <v>1.2553987009264227</v>
-      </c>
-      <c r="I28" s="10">
-        <f t="shared" si="9"/>
-        <v>3.0671987956989666</v>
-      </c>
-      <c r="J28" s="10">
-        <f t="shared" si="4"/>
-        <v>0.19583964697615105</v>
-      </c>
-      <c r="K28" s="10">
-        <f t="shared" si="5"/>
-        <v>0.96263934590089273</v>
-      </c>
-      <c r="L28" s="10">
-        <f t="shared" si="6"/>
-        <v>9.8517375105740115</v>
-      </c>
-      <c r="M28" s="10">
-        <f t="shared" si="7"/>
-        <v>54.170998147352037</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="8"/>
-        <v>54.937531781760626</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="10"/>
         <v>351.89178331448488</v>
       </c>
     </row>
@@ -11695,55 +11827,55 @@
         <v>98</v>
       </c>
       <c r="B29" s="10">
-        <f>$G$2/$F$2</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C29" s="10">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="2"/>
+        <v>9.757387234881989</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="4"/>
+        <v>7.6864839115824118E-2</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="15"/>
+        <v>0.30745935646329647</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="16"/>
+        <v>1.3074593564632964</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="12"/>
+        <v>2.6499356055097598</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="7"/>
+        <v>0.20368687398480165</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="8"/>
+        <v>0.86617077536224152</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="9"/>
+        <v>12.770661561897038</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="10"/>
+        <v>58.330858955945786</v>
+      </c>
+      <c r="N29" s="10">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="E29" s="10">
-        <f>$D$24*D7</f>
-        <v>9.757387234881989</v>
-      </c>
-      <c r="F29" s="10">
-        <f t="shared" si="1"/>
-        <v>7.6864839115824118E-2</v>
-      </c>
-      <c r="G29" s="10">
-        <f t="shared" si="12"/>
-        <v>0.30745935646329647</v>
-      </c>
-      <c r="H29" s="10">
+        <v>59.508375054568347</v>
+      </c>
+      <c r="O29" s="10">
         <f t="shared" si="13"/>
-        <v>1.3074593564632964</v>
-      </c>
-      <c r="I29" s="10">
-        <f t="shared" si="9"/>
-        <v>2.6499356055097598</v>
-      </c>
-      <c r="J29" s="10">
-        <f t="shared" si="4"/>
-        <v>0.20368687398480165</v>
-      </c>
-      <c r="K29" s="10">
-        <f t="shared" si="5"/>
-        <v>0.86617077536224152</v>
-      </c>
-      <c r="L29" s="10">
-        <f t="shared" si="6"/>
-        <v>12.770661561897038</v>
-      </c>
-      <c r="M29" s="10">
-        <f t="shared" si="7"/>
-        <v>58.330858955945786</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="8"/>
-        <v>59.508375054568347</v>
-      </c>
-      <c r="O29" s="10">
-        <f t="shared" si="10"/>
         <v>316.62780053090557</v>
       </c>
     </row>
@@ -11752,55 +11884,55 @@
         <v>99</v>
       </c>
       <c r="B30" s="10">
-        <f>$G$2/$F$2</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C30" s="10">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="2"/>
+        <v>9.1538881234221936</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="4"/>
+        <v>8.1932397456438599E-2</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="15"/>
+        <v>0.3277295898257544</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="16"/>
+        <v>1.3277295898257544</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="12"/>
+        <v>2.7110552688810521</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="7"/>
+        <v>0.22212325781633438</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="8"/>
+        <v>0.89988707503659737</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="9"/>
+        <v>15.03639454606502</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="10"/>
+        <v>64.431871810322448</v>
+      </c>
+      <c r="N30" s="10">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="E30" s="10">
-        <f>$D$24*D8</f>
-        <v>9.1538881234221936</v>
-      </c>
-      <c r="F30" s="10">
-        <f t="shared" si="1"/>
-        <v>8.1932397456438599E-2</v>
-      </c>
-      <c r="G30" s="10">
-        <f t="shared" si="12"/>
-        <v>0.3277295898257544</v>
-      </c>
-      <c r="H30" s="10">
+        <v>65.900774659768857</v>
+      </c>
+      <c r="O30" s="10">
         <f t="shared" si="13"/>
-        <v>1.3277295898257544</v>
-      </c>
-      <c r="I30" s="10">
-        <f t="shared" si="9"/>
-        <v>2.7110552688810521</v>
-      </c>
-      <c r="J30" s="10">
-        <f t="shared" si="4"/>
-        <v>0.22212325781633438</v>
-      </c>
-      <c r="K30" s="10">
-        <f t="shared" si="5"/>
-        <v>0.89988707503659737</v>
-      </c>
-      <c r="L30" s="10">
-        <f t="shared" si="6"/>
-        <v>15.03639454606502</v>
-      </c>
-      <c r="M30" s="10">
-        <f t="shared" si="7"/>
-        <v>64.431871810322448</v>
-      </c>
-      <c r="N30" s="10">
-        <f t="shared" si="8"/>
-        <v>65.900774659768857</v>
-      </c>
-      <c r="O30" s="10">
-        <f t="shared" si="10"/>
         <v>328.9527578159948</v>
       </c>
     </row>
@@ -11809,55 +11941,55 @@
         <v>100</v>
       </c>
       <c r="B31" s="10">
-        <f>$G$2/$F$2</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C31" s="10">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="2"/>
+        <v>6.6137911968814862</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="4"/>
+        <v>0.11339940703807487</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="15"/>
+        <v>0.45359762815229948</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="16"/>
+        <v>1.4535976281522995</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="12"/>
+        <v>1.4117535450540002</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" si="7"/>
+        <v>0.16009201489302374</v>
+      </c>
+      <c r="K31" s="10">
+        <f t="shared" si="8"/>
+        <v>0.51303040115652376</v>
+      </c>
+      <c r="L31" s="10">
+        <f t="shared" si="9"/>
+        <v>16.117306581170091</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="10"/>
+        <v>49.899291803566911</v>
+      </c>
+      <c r="N31" s="10">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="E31" s="10">
-        <f>$D$24*D9</f>
-        <v>6.6137911968814862</v>
-      </c>
-      <c r="F31" s="10">
-        <f t="shared" si="1"/>
-        <v>0.11339940703807487</v>
-      </c>
-      <c r="G31" s="10">
-        <f t="shared" si="12"/>
-        <v>0.45359762815229948</v>
-      </c>
-      <c r="H31" s="10">
+        <v>51.999686750636748</v>
+      </c>
+      <c r="O31" s="10">
         <f t="shared" si="13"/>
-        <v>1.4535976281522995</v>
-      </c>
-      <c r="I31" s="10">
-        <f t="shared" si="9"/>
-        <v>1.4117535450540002</v>
-      </c>
-      <c r="J31" s="10">
-        <f t="shared" si="4"/>
-        <v>0.16009201489302374</v>
-      </c>
-      <c r="K31" s="10">
-        <f t="shared" si="5"/>
-        <v>0.51303040115652376</v>
-      </c>
-      <c r="L31" s="10">
-        <f t="shared" si="6"/>
-        <v>16.117306581170091</v>
-      </c>
-      <c r="M31" s="10">
-        <f t="shared" si="7"/>
-        <v>49.899291803566911</v>
-      </c>
-      <c r="N31" s="10">
-        <f t="shared" si="8"/>
-        <v>51.999686750636748</v>
-      </c>
-      <c r="O31" s="10">
-        <f t="shared" si="10"/>
         <v>187.53771443713779</v>
       </c>
     </row>
@@ -11866,85 +11998,85 @@
         <v>101</v>
       </c>
       <c r="B32" s="10">
-        <f>$G$2/$F$2</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C32" s="10">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="2"/>
+        <v>4.190319451963604</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="4"/>
+        <v>0.17898396735565028</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="15"/>
+        <v>0.71593586942260112</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="16"/>
+        <v>1.715935869422601</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="12"/>
+        <v>0.43482022692835792</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" si="7"/>
+        <v>7.7825849302121664E-2</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" si="8"/>
+        <v>0.18653090603421113</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="9"/>
+        <v>13.861306681693108</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="10"/>
+        <v>27.189595115847485</v>
+      </c>
+      <c r="N32" s="10">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="E32" s="10">
-        <f>$D$24*D10</f>
-        <v>4.190319451963604</v>
-      </c>
-      <c r="F32" s="10">
-        <f t="shared" si="1"/>
-        <v>0.17898396735565028</v>
-      </c>
-      <c r="G32" s="10">
-        <f t="shared" si="12"/>
-        <v>0.71593586942260112</v>
-      </c>
-      <c r="H32" s="10">
+        <v>29.840890059115395</v>
+      </c>
+      <c r="O32" s="10">
         <f t="shared" si="13"/>
-        <v>1.715935869422601</v>
-      </c>
-      <c r="I32" s="10">
-        <f t="shared" si="9"/>
-        <v>0.43482022692835792</v>
-      </c>
-      <c r="J32" s="10">
-        <f t="shared" si="4"/>
-        <v>7.7825849302121664E-2</v>
-      </c>
-      <c r="K32" s="10">
-        <f t="shared" si="5"/>
-        <v>0.18653090603421113</v>
-      </c>
-      <c r="L32" s="10">
-        <f t="shared" si="6"/>
-        <v>13.861306681693108</v>
-      </c>
-      <c r="M32" s="10">
-        <f t="shared" si="7"/>
-        <v>27.189595115847485</v>
-      </c>
-      <c r="N32" s="10">
-        <f t="shared" si="8"/>
-        <v>29.840890059115395</v>
-      </c>
-      <c r="O32" s="10">
-        <f t="shared" si="10"/>
         <v>68.18617319886998</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I33" s="11">
-        <f t="shared" ref="I33:O33" si="14">SUM(I24:I26)</f>
+        <f t="shared" ref="I33:O33" si="17">SUM(I24:I26)</f>
         <v>5.4179053990603361</v>
       </c>
       <c r="J33" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.24191262119337495</v>
       </c>
       <c r="K33" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5963889709584587</v>
       </c>
       <c r="L33" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8.3142577500898494</v>
       </c>
       <c r="M33" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>63.481799445946464</v>
       </c>
       <c r="N33" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>63.967323096181381</v>
       </c>
       <c r="O33" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>583.55828093482319</v>
       </c>
     </row>
@@ -12021,11 +12153,11 @@
         <v>2.1845322840798302</v>
       </c>
       <c r="C37" s="10">
-        <f>$B$37*D2</f>
+        <f t="shared" ref="C37:C45" si="18">$B$37*D2</f>
         <v>12.034497722163826</v>
       </c>
       <c r="D37" s="10">
-        <f>C37*$B$17/$H$2</f>
+        <f t="shared" ref="D37:D45" si="19">C37*$B$17/$H$2</f>
         <v>23.292576236446113</v>
       </c>
       <c r="E37" s="10">
@@ -12037,7 +12169,7 @@
         <v>2.9750119191022524</v>
       </c>
       <c r="G37" s="10">
-        <f>$F$37*D2</f>
+        <f t="shared" ref="G37:G45" si="20">$F$37*D2</f>
         <v>16.389217236460823</v>
       </c>
       <c r="H37" s="10">
@@ -12057,7 +12189,7 @@
         <v>3.4655700890093284</v>
       </c>
       <c r="L37" s="10">
-        <f>$K$37*D2</f>
+        <f t="shared" ref="L37:L45" si="21">$K$37*D2</f>
         <v>19.091681842435868</v>
       </c>
       <c r="M37" s="10">
@@ -12073,15 +12205,15 @@
         <v>3.4065559776355571E-4</v>
       </c>
       <c r="P37" s="10">
-        <f>$E$2*B2/100/(1+G24)</f>
+        <f t="shared" ref="P37:P45" si="22">$E$2*B2/100/(1+G24)</f>
         <v>0.27139640292350731</v>
       </c>
       <c r="Q37" s="10">
-        <f>$E$2*B2/100-P37</f>
+        <f t="shared" ref="Q37:Q45" si="23">$E$2*B2/100-P37</f>
         <v>3.5270263743159003E-2</v>
       </c>
       <c r="R37" s="10">
-        <f>$E$2*B2/100/(1+$B$148*O37)</f>
+        <f t="shared" ref="R37:R45" si="24">$E$2*B2/100/(1+$B$148*O37)</f>
         <v>0.27270742316331736</v>
       </c>
       <c r="S37" s="10">
@@ -12094,43 +12226,43 @@
         <v>94</v>
       </c>
       <c r="C38" s="10">
-        <f>$B$37*D3</f>
+        <f t="shared" si="18"/>
         <v>9.1538881234221936</v>
       </c>
       <c r="D38" s="10">
-        <f>C38*$B$17/$H$2</f>
+        <f t="shared" si="19"/>
         <v>17.717202819526825</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" ref="E38:E39" si="15">D38+1</f>
+        <f t="shared" ref="E38:E39" si="25">D38+1</f>
         <v>18.717202819526825</v>
       </c>
       <c r="G38" s="10">
-        <f>$F$37*D3</f>
+        <f t="shared" si="20"/>
         <v>12.46625031443774</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" ref="H38:H39" si="16">G38*$B$16/$C$16</f>
+        <f t="shared" ref="H38:H39" si="26">G38*$B$16/$C$16</f>
         <v>8.2195057018270816</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" ref="I38:I39" si="17">H38*E38</f>
+        <f t="shared" ref="I38:I39" si="27">H38*E38</f>
         <v>153.84615529735467</v>
       </c>
       <c r="J38" s="10">
-        <f t="shared" ref="J38:J39" si="18">I38+1</f>
+        <f t="shared" ref="J38:J39" si="28">I38+1</f>
         <v>154.84615529735467</v>
       </c>
       <c r="L38" s="10">
-        <f>$K$37*D3</f>
+        <f t="shared" si="21"/>
         <v>14.521845756119028</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" ref="M38:M39" si="19">L38*$B$15/$C$15</f>
+        <f t="shared" ref="M38:M39" si="29">L38*$B$15/$C$15</f>
         <v>9.5748433556828765</v>
       </c>
       <c r="N38" s="10">
-        <f t="shared" ref="N38:N39" si="20">M38*J38</f>
+        <f t="shared" ref="N38:N39" si="30">M38*J38</f>
         <v>1482.6276812019153</v>
       </c>
       <c r="O38" s="19">
@@ -12138,15 +12270,15 @@
         <v>7.8971594682003619E-4</v>
       </c>
       <c r="P38" s="12">
-        <f>$E$2*B3/100/(1+G25)</f>
+        <f t="shared" si="22"/>
         <v>0.52383384655941623</v>
       </c>
       <c r="Q38" s="10">
-        <f>$E$2*B3/100-P38</f>
+        <f t="shared" si="23"/>
         <v>8.9499486773916392E-2</v>
       </c>
       <c r="R38" s="10">
-        <f>$E$2*B3/100/(1+$B$148*O38)</f>
+        <f t="shared" si="24"/>
         <v>0.4759392705183137</v>
       </c>
       <c r="S38" s="10">
@@ -12159,43 +12291,43 @@
         <v>95</v>
       </c>
       <c r="C39" s="10">
-        <f>$B$37*D4</f>
+        <f t="shared" si="18"/>
         <v>7.5706497421822885</v>
       </c>
       <c r="D39" s="10">
-        <f>C39*$B$17/$H$2</f>
+        <f t="shared" si="19"/>
         <v>14.652870468739911</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>15.652870468739911</v>
       </c>
       <c r="G39" s="10">
-        <f>$F$37*D4</f>
+        <f t="shared" si="20"/>
         <v>10.310112321287006</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>6.7978762557936303</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>106.40627649446036</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>107.40627649446036</v>
       </c>
       <c r="L39" s="10">
-        <f>$K$37*D4</f>
+        <f t="shared" si="21"/>
         <v>12.010176041836125</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>7.9187973902216209</v>
       </c>
       <c r="N39" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>850.52854199775447</v>
       </c>
       <c r="O39" s="20">
@@ -12203,15 +12335,15 @@
         <v>1.4186300046594936E-3</v>
       </c>
       <c r="P39" s="12">
-        <f>$E$2*B4/100/(1+G26)</f>
+        <f t="shared" si="22"/>
         <v>0.76248234812613058</v>
       </c>
       <c r="Q39" s="10">
-        <f>$E$2*B4/100-P39</f>
+        <f t="shared" si="23"/>
         <v>0.15751765187386979</v>
       </c>
       <c r="R39" s="10">
-        <f>$E$2*B4/100/(1+$B$148*O39)</f>
+        <f t="shared" si="24"/>
         <v>0.60582965608345285</v>
       </c>
       <c r="S39" s="10">
@@ -12224,63 +12356,63 @@
         <v>96</v>
       </c>
       <c r="C40" s="10">
-        <f>$B$37*D5</f>
+        <f t="shared" si="18"/>
         <v>6.4990095828011629</v>
       </c>
       <c r="D40" s="10">
-        <f>C40*$B$17/$H$2</f>
+        <f t="shared" si="19"/>
         <v>12.578728224776444</v>
       </c>
       <c r="E40" s="10">
-        <f t="shared" ref="E40:E45" si="21">D40+1</f>
+        <f t="shared" ref="E40:E45" si="31">D40+1</f>
         <v>13.578728224776444</v>
       </c>
       <c r="G40" s="10">
-        <f>$F$37*D5</f>
+        <f t="shared" si="20"/>
         <v>8.8506959188004668</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" ref="H40:H45" si="22">G40*$B$16/$C$16</f>
+        <f t="shared" ref="H40:H45" si="32">G40*$B$16/$C$16</f>
         <v>5.8356236827255827</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" ref="I40:I45" si="23">H40*E40</f>
+        <f t="shared" ref="I40:I45" si="33">H40*E40</f>
         <v>79.240348009799732</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" ref="J40:J45" si="24">I40+1</f>
+        <f t="shared" ref="J40:J45" si="34">I40+1</f>
         <v>80.240348009799732</v>
       </c>
       <c r="L40" s="10">
-        <f>$K$37*D5</f>
+        <f t="shared" si="21"/>
         <v>10.310112321287006</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" ref="M40:M45" si="25">L40*$B$15/$C$15</f>
+        <f t="shared" ref="M40:M45" si="35">L40*$B$15/$C$15</f>
         <v>6.7978762557936303</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" ref="N40:N45" si="26">M40*J40</f>
+        <f t="shared" ref="N40:N45" si="36">M40*J40</f>
         <v>545.46395649243527</v>
       </c>
       <c r="O40" s="20">
-        <f t="shared" ref="O40:O45" si="27">H27/N40</f>
+        <f t="shared" ref="O40:O45" si="37">H27/N40</f>
         <v>2.2744852954990386E-3</v>
       </c>
       <c r="P40" s="12">
-        <f>$E$2*B5/100/(1+G27)</f>
+        <f t="shared" si="22"/>
         <v>0.98872922706860733</v>
       </c>
       <c r="Q40" s="10">
-        <f>$E$2*B5/100-P40</f>
+        <f t="shared" si="23"/>
         <v>0.23793743959805969</v>
       </c>
       <c r="R40" s="10">
-        <f>$E$2*B5/100/(1+$B$148*O40)</f>
+        <f t="shared" si="24"/>
         <v>0.66978419645784537</v>
       </c>
       <c r="S40" s="10">
-        <f t="shared" ref="S40:S45" si="28">$B$148*O40*R40</f>
+        <f t="shared" ref="S40:S45" si="38">$B$148*O40*R40</f>
         <v>0.55688247020882153</v>
       </c>
     </row>
@@ -12289,63 +12421,63 @@
         <v>97</v>
       </c>
       <c r="C41" s="10">
-        <f>$B$37*D6</f>
+        <f t="shared" si="18"/>
         <v>6.123699981289251</v>
       </c>
       <c r="D41" s="10">
-        <f>C41*$B$17/$H$2</f>
+        <f t="shared" si="19"/>
         <v>11.852322544430807</v>
       </c>
       <c r="E41" s="10">
+        <f t="shared" si="31"/>
+        <v>12.852322544430807</v>
+      </c>
+      <c r="G41" s="10">
+        <f t="shared" si="20"/>
+        <v>8.3395793992651335</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="32"/>
+        <v>5.4986237797352526</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" si="33"/>
+        <v>70.670086367634724</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" si="34"/>
+        <v>71.670086367634724</v>
+      </c>
+      <c r="L41" s="10">
         <f t="shared" si="21"/>
-        <v>12.852322544430807</v>
-      </c>
-      <c r="G41" s="10">
-        <f>$F$37*D6</f>
-        <v>8.3395793992651335</v>
-      </c>
-      <c r="H41" s="10">
+        <v>9.7147163463240833</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="35"/>
+        <v>6.4053074810928017</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" si="36"/>
+        <v>459.06894038117792</v>
+      </c>
+      <c r="O41" s="20">
+        <f t="shared" si="37"/>
+        <v>2.7346626846155822E-3</v>
+      </c>
+      <c r="P41" s="12">
         <f t="shared" si="22"/>
-        <v>5.4986237797352526</v>
-      </c>
-      <c r="I41" s="10">
+        <v>1.2213915246222633</v>
+      </c>
+      <c r="Q41" s="10">
         <f t="shared" si="23"/>
-        <v>70.670086367634724</v>
-      </c>
-      <c r="J41" s="10">
+        <v>0.3119418087110688</v>
+      </c>
+      <c r="R41" s="10">
         <f t="shared" si="24"/>
-        <v>71.670086367634724</v>
-      </c>
-      <c r="L41" s="10">
-        <f>$K$37*D6</f>
-        <v>9.7147163463240833</v>
-      </c>
-      <c r="M41" s="10">
-        <f t="shared" si="25"/>
-        <v>6.4053074810928017</v>
-      </c>
-      <c r="N41" s="10">
-        <f t="shared" si="26"/>
-        <v>459.06894038117792</v>
-      </c>
-      <c r="O41" s="20">
-        <f t="shared" si="27"/>
-        <v>2.7346626846155822E-3</v>
-      </c>
-      <c r="P41" s="12">
-        <f>$E$2*B6/100/(1+G28)</f>
-        <v>1.2213915246222633</v>
-      </c>
-      <c r="Q41" s="10">
-        <f>$E$2*B6/100-P41</f>
-        <v>0.3119418087110688</v>
-      </c>
-      <c r="R41" s="10">
-        <f>$E$2*B6/100/(1+$B$148*O41)</f>
         <v>0.76679969892474165</v>
       </c>
       <c r="S41" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>0.76653363440859057</v>
       </c>
     </row>
@@ -12354,63 +12486,63 @@
         <v>98</v>
       </c>
       <c r="C42" s="10">
-        <f>$B$37*D7</f>
+        <f t="shared" si="18"/>
         <v>5.0868024901728344</v>
       </c>
       <c r="D42" s="10">
-        <f>C42*$B$17/$H$2</f>
+        <f t="shared" si="19"/>
         <v>9.8454241745280662</v>
       </c>
       <c r="E42" s="10">
+        <f t="shared" si="31"/>
+        <v>10.845424174528066</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="20"/>
+        <v>6.9274774049666457</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" si="32"/>
+        <v>4.5675675197582279</v>
+      </c>
+      <c r="I42" s="10">
+        <f t="shared" si="33"/>
+        <v>49.537207197575086</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="34"/>
+        <v>50.537207197575086</v>
+      </c>
+      <c r="L42" s="10">
         <f t="shared" si="21"/>
-        <v>10.845424174528066</v>
-      </c>
-      <c r="G42" s="10">
-        <f>$F$37*D7</f>
-        <v>6.9274774049666457</v>
-      </c>
-      <c r="H42" s="10">
+        <v>8.069768841190049</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="35"/>
+        <v>5.3207267084769558</v>
+      </c>
+      <c r="N42" s="10">
+        <f t="shared" si="36"/>
+        <v>268.8946681079716</v>
+      </c>
+      <c r="O42" s="20">
+        <f t="shared" si="37"/>
+        <v>4.8623476458755999E-3</v>
+      </c>
+      <c r="P42" s="12">
         <f t="shared" si="22"/>
-        <v>4.5675675197582279</v>
-      </c>
-      <c r="I42" s="10">
+        <v>1.4073095204865351</v>
+      </c>
+      <c r="Q42" s="10">
         <f t="shared" si="23"/>
-        <v>49.537207197575086</v>
-      </c>
-      <c r="J42" s="10">
+        <v>0.43269047951346029</v>
+      </c>
+      <c r="R42" s="10">
         <f t="shared" si="24"/>
-        <v>50.537207197575086</v>
-      </c>
-      <c r="L42" s="10">
-        <f>$K$37*D7</f>
-        <v>8.069768841190049</v>
-      </c>
-      <c r="M42" s="10">
-        <f t="shared" si="25"/>
-        <v>5.3207267084769558</v>
-      </c>
-      <c r="N42" s="10">
-        <f t="shared" si="26"/>
-        <v>268.8946681079716</v>
-      </c>
-      <c r="O42" s="20">
-        <f t="shared" si="27"/>
-        <v>4.8623476458755999E-3</v>
-      </c>
-      <c r="P42" s="12">
-        <f>$E$2*B7/100/(1+G29)</f>
-        <v>1.4073095204865351</v>
-      </c>
-      <c r="Q42" s="10">
-        <f>$E$2*B7/100-P42</f>
-        <v>0.43269047951346029</v>
-      </c>
-      <c r="R42" s="10">
-        <f>$E$2*B7/100/(1+$B$148*O42)</f>
         <v>0.66248390137743995</v>
       </c>
       <c r="S42" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>1.1775160986225555</v>
       </c>
     </row>
@@ -12419,63 +12551,63 @@
         <v>99</v>
       </c>
       <c r="C43" s="10">
-        <f>$B$37*D8</f>
+        <f t="shared" si="18"/>
         <v>4.7721813001870403</v>
       </c>
       <c r="D43" s="10">
-        <f>C43*$B$17/$H$2</f>
+        <f t="shared" si="19"/>
         <v>9.2364799358458836</v>
       </c>
       <c r="E43" s="10">
+        <f t="shared" si="31"/>
+        <v>10.236479935845884</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" si="20"/>
+        <v>6.4990095828011629</v>
+      </c>
+      <c r="H43" s="10">
+        <f t="shared" si="32"/>
+        <v>4.2850612633853817</v>
+      </c>
+      <c r="I43" s="10">
+        <f t="shared" si="33"/>
+        <v>43.863943646514876</v>
+      </c>
+      <c r="J43" s="10">
+        <f t="shared" si="34"/>
+        <v>44.863943646514876</v>
+      </c>
+      <c r="L43" s="10">
         <f t="shared" si="21"/>
-        <v>10.236479935845884</v>
-      </c>
-      <c r="G43" s="10">
-        <f>$F$37*D8</f>
-        <v>6.4990095828011629</v>
-      </c>
-      <c r="H43" s="10">
+        <v>7.5706497421822885</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="35"/>
+        <v>4.9916371926476621</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" si="36"/>
+        <v>223.94452971479242</v>
+      </c>
+      <c r="O43" s="20">
+        <f t="shared" si="37"/>
+        <v>5.928832427908386E-3</v>
+      </c>
+      <c r="P43" s="12">
         <f t="shared" si="22"/>
-        <v>4.2850612633853817</v>
-      </c>
-      <c r="I43" s="10">
+        <v>1.6167950786939924</v>
+      </c>
+      <c r="Q43" s="10">
         <f t="shared" si="23"/>
-        <v>43.863943646514876</v>
-      </c>
-      <c r="J43" s="10">
+        <v>0.5298715879726803</v>
+      </c>
+      <c r="R43" s="10">
         <f t="shared" si="24"/>
-        <v>44.863943646514876</v>
-      </c>
-      <c r="L43" s="10">
-        <f>$K$37*D8</f>
-        <v>7.5706497421822885</v>
-      </c>
-      <c r="M43" s="10">
-        <f t="shared" si="25"/>
-        <v>4.9916371926476621</v>
-      </c>
-      <c r="N43" s="10">
-        <f t="shared" si="26"/>
-        <v>223.94452971479242</v>
-      </c>
-      <c r="O43" s="20">
-        <f t="shared" si="27"/>
-        <v>5.928832427908386E-3</v>
-      </c>
-      <c r="P43" s="12">
-        <f>$E$2*B8/100/(1+G30)</f>
-        <v>1.6167950786939924</v>
-      </c>
-      <c r="Q43" s="10">
-        <f>$E$2*B8/100-P43</f>
-        <v>0.5298715879726803</v>
-      </c>
-      <c r="R43" s="10">
-        <f>$E$2*B8/100/(1+$B$148*O43)</f>
         <v>0.67776381722026302</v>
       </c>
       <c r="S43" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>1.4689028494464098</v>
       </c>
     </row>
@@ -12484,63 +12616,63 @@
         <v>100</v>
       </c>
       <c r="C44" s="10">
-        <f>$B$37*D9</f>
+        <f t="shared" si="18"/>
         <v>3.4479567859629809</v>
       </c>
       <c r="D44" s="10">
-        <f>C44*$B$17/$H$2</f>
+        <f t="shared" si="19"/>
         <v>6.6734647470251236</v>
       </c>
       <c r="E44" s="10">
+        <f t="shared" si="31"/>
+        <v>7.6734647470251236</v>
+      </c>
+      <c r="G44" s="10">
+        <f t="shared" si="20"/>
+        <v>4.6956104103126686</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="32"/>
+        <v>3.0960068639424185</v>
+      </c>
+      <c r="I44" s="10">
+        <f t="shared" si="33"/>
+        <v>23.757099527009956</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" si="34"/>
+        <v>24.757099527009956</v>
+      </c>
+      <c r="L44" s="10">
         <f t="shared" si="21"/>
-        <v>7.6734647470251236</v>
-      </c>
-      <c r="G44" s="10">
-        <f>$F$37*D9</f>
-        <v>4.6956104103126686</v>
-      </c>
-      <c r="H44" s="10">
+        <v>5.4698829551348416</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="35"/>
+        <v>3.6065162341548405</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="36"/>
+        <v>89.28688135474853</v>
+      </c>
+      <c r="O44" s="20">
+        <f t="shared" si="37"/>
+        <v>1.6280080635552325E-2</v>
+      </c>
+      <c r="P44" s="12">
         <f t="shared" si="22"/>
-        <v>3.0960068639424185</v>
-      </c>
-      <c r="I44" s="10">
+        <v>1.6877664670186781</v>
+      </c>
+      <c r="Q44" s="10">
         <f t="shared" si="23"/>
-        <v>23.757099527009956</v>
-      </c>
-      <c r="J44" s="10">
+        <v>0.76556686631465865</v>
+      </c>
+      <c r="R44" s="10">
         <f t="shared" si="24"/>
-        <v>24.757099527009956</v>
-      </c>
-      <c r="L44" s="10">
-        <f>$K$37*D9</f>
-        <v>5.4698829551348416</v>
-      </c>
-      <c r="M44" s="10">
-        <f t="shared" si="25"/>
-        <v>3.6065162341548405</v>
-      </c>
-      <c r="N44" s="10">
-        <f t="shared" si="26"/>
-        <v>89.28688135474853</v>
-      </c>
-      <c r="O44" s="20">
-        <f t="shared" si="27"/>
-        <v>1.6280080635552325E-2</v>
-      </c>
-      <c r="P44" s="12">
-        <f>$E$2*B9/100/(1+G31)</f>
-        <v>1.6877664670186781</v>
-      </c>
-      <c r="Q44" s="10">
-        <f>$E$2*B9/100-P44</f>
-        <v>0.76556686631465865</v>
-      </c>
-      <c r="R44" s="10">
-        <f>$E$2*B9/100/(1+$B$148*O44)</f>
         <v>0.35293838626350005</v>
       </c>
       <c r="S44" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>2.1003949470698364</v>
       </c>
     </row>
@@ -12549,63 +12681,63 @@
         <v>101</v>
       </c>
       <c r="C45" s="10">
-        <f>$B$37*D10</f>
+        <f t="shared" si="18"/>
         <v>2.1845322840798302</v>
       </c>
       <c r="D45" s="10">
-        <f>C45*$B$17/$H$2</f>
+        <f t="shared" si="19"/>
         <v>4.2281270014448324</v>
       </c>
       <c r="E45" s="10">
+        <f t="shared" si="31"/>
+        <v>5.2281270014448324</v>
+      </c>
+      <c r="G45" s="10">
+        <f t="shared" si="20"/>
+        <v>2.9750119191022524</v>
+      </c>
+      <c r="H45" s="10">
+        <f t="shared" si="32"/>
+        <v>1.9615463202871992</v>
+      </c>
+      <c r="I45" s="10">
+        <f t="shared" si="33"/>
+        <v>10.255213281678261</v>
+      </c>
+      <c r="J45" s="10">
+        <f t="shared" si="34"/>
+        <v>11.255213281678261</v>
+      </c>
+      <c r="L45" s="10">
         <f t="shared" si="21"/>
-        <v>5.2281270014448324</v>
-      </c>
-      <c r="G45" s="10">
-        <f>$F$37*D10</f>
-        <v>2.9750119191022524</v>
-      </c>
-      <c r="H45" s="10">
+        <v>3.4655700890093284</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="35"/>
+        <v>2.2849912674786781</v>
+      </c>
+      <c r="N45" s="10">
+        <f t="shared" si="36"/>
+        <v>25.71806406224486</v>
+      </c>
+      <c r="O45" s="20">
+        <f t="shared" si="37"/>
+        <v>6.6721035660754227E-2</v>
+      </c>
+      <c r="P45" s="12">
         <f t="shared" si="22"/>
-        <v>1.9615463202871992</v>
-      </c>
-      <c r="I45" s="10">
+        <v>1.6084517196605479</v>
+      </c>
+      <c r="Q45" s="10">
         <f t="shared" si="23"/>
-        <v>10.255213281678261</v>
-      </c>
-      <c r="J45" s="10">
+        <v>1.1515482803394519</v>
+      </c>
+      <c r="R45" s="10">
         <f t="shared" si="24"/>
-        <v>11.255213281678261</v>
-      </c>
-      <c r="L45" s="10">
-        <f>$K$37*D10</f>
-        <v>3.4655700890093284</v>
-      </c>
-      <c r="M45" s="10">
-        <f t="shared" si="25"/>
-        <v>2.2849912674786781</v>
-      </c>
-      <c r="N45" s="10">
-        <f t="shared" si="26"/>
-        <v>25.71806406224486</v>
-      </c>
-      <c r="O45" s="20">
-        <f t="shared" si="27"/>
-        <v>6.6721035660754227E-2</v>
-      </c>
-      <c r="P45" s="12">
-        <f>$E$2*B10/100/(1+G32)</f>
-        <v>1.6084517196605479</v>
-      </c>
-      <c r="Q45" s="10">
-        <f>$E$2*B10/100-P45</f>
-        <v>1.1515482803394519</v>
-      </c>
-      <c r="R45" s="10">
-        <f>$E$2*B10/100/(1+$B$148*O45)</f>
         <v>0.10870505673208948</v>
       </c>
       <c r="S45" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>2.6512949432679105</v>
       </c>
     </row>
@@ -12685,7 +12817,7 @@
         <v>0.20133789948463468</v>
       </c>
       <c r="C50" s="4">
-        <f>B50*D2</f>
+        <f t="shared" ref="C50:C58" si="39">B50*D2</f>
         <v>1.1091621352502476</v>
       </c>
       <c r="D50" s="4">
@@ -12693,7 +12825,7 @@
         <v>6.9943541343286009E-2</v>
       </c>
       <c r="E50" s="4">
-        <f>D50*D2</f>
+        <f t="shared" ref="E50:E58" si="40">D50*D2</f>
         <v>0.38531606747592795</v>
       </c>
       <c r="F50" s="4">
@@ -12705,7 +12837,7 @@
         <v>2.8068157019059077E-2</v>
       </c>
       <c r="H50" s="4">
-        <f>D2*G50</f>
+        <f t="shared" ref="H50:H58" si="41">D2*G50</f>
         <v>0.15462631253970482</v>
       </c>
       <c r="I50" s="4">
@@ -12717,7 +12849,7 @@
         <v>2.4130453619036412E-2</v>
       </c>
       <c r="K50" s="4">
-        <f>D2*J50</f>
+        <f t="shared" ref="K50:K58" si="42">D2*J50</f>
         <v>0.13293366787453775</v>
       </c>
       <c r="L50" s="4">
@@ -12729,7 +12861,7 @@
         <v>9.8781430374127888E-3</v>
       </c>
       <c r="N50" s="4">
-        <f>D2*M50</f>
+        <f t="shared" ref="N50:N58" si="43">D2*M50</f>
         <v>5.4418280173427015E-2</v>
       </c>
     </row>
@@ -12738,55 +12870,55 @@
         <v>94</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" ref="B51:B58" si="29">R38/$R$46</f>
+        <f t="shared" ref="B51:B58" si="44">R38/$R$46</f>
         <v>0.35138248859115118</v>
       </c>
       <c r="C51" s="4">
-        <f>B51*D3</f>
+        <f t="shared" si="39"/>
         <v>1.4724048770228799</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" ref="D51:D58" si="30">S38/$S$46</f>
+        <f t="shared" ref="D51:D58" si="45">S38/$S$46</f>
         <v>0.28298119514578202</v>
       </c>
       <c r="E51" s="4">
-        <f>D51*D3</f>
+        <f t="shared" si="40"/>
         <v>1.185781606559279</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" ref="F51:F58" si="31">G25*R38</f>
+        <f t="shared" ref="F51:F58" si="46">G25*R38</f>
         <v>8.1316472249201466E-2</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" ref="G51:G58" si="32">F51/$F$59</f>
+        <f t="shared" ref="G51:G58" si="47">F51/$F$59</f>
         <v>6.4400738429656171E-2</v>
       </c>
       <c r="H51" s="4">
-        <f>D3*G51</f>
+        <f t="shared" si="41"/>
         <v>0.26985966696260827</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" ref="I51:I58" si="33">J38*S38</f>
+        <f t="shared" ref="I51:I58" si="48">J38*S38</f>
         <v>21.274942387588936</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" ref="J51:J58" si="34">I51/$I$59</f>
+        <f t="shared" ref="J51:J58" si="49">I51/$I$59</f>
         <v>5.7369750688563946E-2</v>
       </c>
       <c r="K51" s="4">
-        <f>D3*J51</f>
+        <f t="shared" si="42"/>
         <v>0.24039758226459187</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" ref="L51:L58" si="35">E38*S38</f>
+        <f t="shared" ref="L51:L58" si="50">E38*S38</f>
         <v>2.5716325399075197</v>
       </c>
       <c r="M51" s="4">
-        <f t="shared" ref="M51:M58" si="36">L51/$L$59</f>
+        <f t="shared" ref="M51:M58" si="51">L51/$L$59</f>
         <v>3.0793045347729187E-2</v>
       </c>
       <c r="N51" s="4">
-        <f>D3*M51</f>
+        <f t="shared" si="43"/>
         <v>0.12903269690578698</v>
       </c>
     </row>
@@ -12795,55 +12927,55 @@
         <v>95</v>
       </c>
       <c r="B52" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>0.44727961192421412</v>
       </c>
       <c r="C52" s="4">
-        <f>B52*D4</f>
+        <f t="shared" si="39"/>
         <v>1.5500788445082565</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>0.64707526351093203</v>
       </c>
       <c r="E52" s="4">
-        <f>D52*D4</f>
+        <f t="shared" si="40"/>
         <v>2.2424846785613153</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>0.125155507004647</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>9.9120225542204621E-2</v>
       </c>
       <c r="H52" s="4">
-        <f>D4*G52</f>
+        <f t="shared" si="41"/>
         <v>0.34350808885492279</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>33.743866825060401</v>
       </c>
       <c r="J52" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>9.0993300557708809E-2</v>
       </c>
       <c r="K52" s="4">
-        <f>D4*J52</f>
+        <f t="shared" si="42"/>
         <v>0.31534366071303149</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>4.9176676984451877</v>
       </c>
       <c r="M52" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>5.8884759814375104E-2</v>
       </c>
       <c r="N52" s="4">
-        <f>D4*M52</f>
+        <f t="shared" si="43"/>
         <v>0.20406926231119685</v>
       </c>
     </row>
@@ -12852,55 +12984,55 @@
         <v>96</v>
       </c>
       <c r="B53" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>0.49449678215054149</v>
       </c>
       <c r="C53" s="4">
-        <f>B53*D5</f>
+        <f t="shared" si="39"/>
         <v>1.4711338208555709</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>1.1469729022250099</v>
       </c>
       <c r="E53" s="4">
-        <f>D53*D5</f>
+        <f t="shared" si="40"/>
         <v>3.4122580550067068</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>0.16118339827064215</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>0.12765347025162735</v>
       </c>
       <c r="H53" s="4">
-        <f>D5*G53</f>
+        <f t="shared" si="41"/>
         <v>0.37977059551335618</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>44.684443210112768</v>
       </c>
       <c r="J53" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.12049552567140868</v>
       </c>
       <c r="K53" s="4">
-        <f>D5*J53</f>
+        <f t="shared" si="42"/>
         <v>0.35847562507093228</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>7.5617557161077524</v>
       </c>
       <c r="M53" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>9.0545395993056652E-2</v>
       </c>
       <c r="N53" s="4">
-        <f>D5*M53</f>
+        <f t="shared" si="43"/>
         <v>0.26937363229917688</v>
       </c>
     </row>
@@ -12909,55 +13041,55 @@
         <v>97</v>
       </c>
       <c r="B54" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>0.56612261931168673</v>
       </c>
       <c r="C54" s="4">
-        <f>B54*D6</f>
+        <f t="shared" si="39"/>
         <v>1.5869598717084972</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>1.578777128648031</v>
       </c>
       <c r="E54" s="4">
-        <f>D54*D6</f>
+        <f t="shared" si="40"/>
         <v>4.4256418381265474</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>0.19583964697615105</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>0.15510040623031532</v>
       </c>
       <c r="H54" s="4">
-        <f>D6*G54</f>
+        <f t="shared" si="41"/>
         <v>0.43477881359423692</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>54.937531781760626</v>
       </c>
       <c r="J54" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.14814387951542884</v>
       </c>
       <c r="K54" s="4">
-        <f>D6*J54</f>
+        <f t="shared" si="42"/>
         <v>0.41527821713968172</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>9.8517375105740115</v>
       </c>
       <c r="M54" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>0.11796592056186213</v>
       </c>
       <c r="N54" s="4">
-        <f>D6*M54</f>
+        <f t="shared" si="43"/>
         <v>0.33068309898735554</v>
       </c>
     </row>
@@ -12966,55 +13098,55 @@
         <v>98</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>0.48910702759213109</v>
       </c>
       <c r="C55" s="4">
-        <f>B55*D7</f>
+        <f t="shared" si="39"/>
         <v>1.1389123722493661</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>2.4252497237834385</v>
       </c>
       <c r="E55" s="4">
-        <f>D55*D7</f>
+        <f t="shared" si="40"/>
         <v>5.6473261686901886</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>0.20368687398480165</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>0.16131522593416939</v>
       </c>
       <c r="H55" s="4">
-        <f>D7*G55</f>
+        <f t="shared" si="41"/>
         <v>0.37563129598259559</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>59.508375054568347</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.16046955984960701</v>
       </c>
       <c r="K55" s="4">
-        <f>D7*J55</f>
+        <f t="shared" si="42"/>
         <v>0.37366211641214186</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>12.770661561897038</v>
       </c>
       <c r="M55" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>0.15291747731973379</v>
       </c>
       <c r="N55" s="4">
-        <f>D7*M55</f>
+        <f t="shared" si="43"/>
         <v>0.35607668061935777</v>
       </c>
     </row>
@@ -13023,55 +13155,55 @@
         <v>99</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>0.50038807790022477</v>
       </c>
       <c r="C56" s="4">
-        <f>B56*D8</f>
+        <f t="shared" si="39"/>
         <v>1.0931139107416941</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>3.0253991720809008</v>
       </c>
       <c r="E56" s="4">
-        <f>D56*D8</f>
+        <f t="shared" si="40"/>
         <v>6.6090821636391173</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>0.22212325781633438</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>0.17591640943220219</v>
       </c>
       <c r="H56" s="4">
-        <f>D8*G56</f>
+        <f t="shared" si="41"/>
         <v>0.38429507570405125</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>65.900774659768857</v>
       </c>
       <c r="J56" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.17770722681814205</v>
       </c>
       <c r="K56" s="4">
-        <f>D8*J56</f>
+        <f t="shared" si="42"/>
         <v>0.38820717409852834</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>15.03639454606502</v>
       </c>
       <c r="M56" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>0.18004764364195627</v>
       </c>
       <c r="N56" s="4">
-        <f>D8*M56</f>
+        <f t="shared" si="43"/>
         <v>0.39331989020835406</v>
       </c>
     </row>
@@ -13080,55 +13212,55 @@
         <v>100</v>
       </c>
       <c r="B57" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>0.26057183377525384</v>
       </c>
       <c r="C57" s="4">
-        <f>B57*D9</f>
+        <f t="shared" si="39"/>
         <v>0.41127358430166022</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>4.3260404432484041</v>
       </c>
       <c r="E57" s="4">
-        <f>D57*D9</f>
+        <f t="shared" si="40"/>
         <v>6.8280064393424897</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>0.16009201489302374</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>0.12678912021916308</v>
       </c>
       <c r="H57" s="4">
-        <f>D9*G57</f>
+        <f t="shared" si="41"/>
         <v>0.20011762272036265</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>51.999686750636748</v>
       </c>
       <c r="J57" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.14022172236328842</v>
       </c>
       <c r="K57" s="4">
-        <f>D9*J57</f>
+        <f t="shared" si="42"/>
         <v>0.22131897188489866</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>16.117306581170091</v>
       </c>
       <c r="M57" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>0.1929906177245185</v>
       </c>
       <c r="N57" s="4">
-        <f>D9*M57</f>
+        <f t="shared" si="43"/>
         <v>0.30460676404731235</v>
       </c>
     </row>
@@ -13137,55 +13269,55 @@
         <v>101</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>8.0256149729703977E-2</v>
       </c>
       <c r="C58" s="4">
-        <f>B58*D10</f>
+        <f t="shared" si="39"/>
         <v>8.0256149729703977E-2</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>5.4606916511381272</v>
       </c>
       <c r="E58" s="4">
-        <f>D58*D10</f>
+        <f t="shared" si="40"/>
         <v>5.4606916511381272</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>7.7825849302121664E-2</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>6.163624694160285E-2</v>
       </c>
       <c r="H58" s="4">
-        <f>D10*G58</f>
+        <f t="shared" si="41"/>
         <v>6.163624694160285E-2</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>29.840890059115395</v>
       </c>
       <c r="J58" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>8.0468580916815885E-2</v>
       </c>
       <c r="K58" s="4">
-        <f>D10*J58</f>
+        <f t="shared" si="42"/>
         <v>8.0468580916815885E-2</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>13.861306681693108</v>
       </c>
       <c r="M58" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>0.16597699655935566</v>
       </c>
       <c r="N58" s="4">
-        <f>D10*M58</f>
+        <f t="shared" si="43"/>
         <v>0.16597699655935566</v>
       </c>
     </row>
@@ -13251,7 +13383,7 @@
         <v>-162.80000000000001</v>
       </c>
       <c r="C62" s="2">
-        <f>D2</f>
+        <f t="shared" ref="C62:C68" si="52">D2</f>
         <v>5.5089585124776503</v>
       </c>
       <c r="D62" s="1">
@@ -13279,7 +13411,7 @@
         <v>-123.80666666666667</v>
       </c>
       <c r="C63" s="2">
-        <f>D3</f>
+        <f t="shared" si="52"/>
         <v>4.190319451963604</v>
       </c>
       <c r="D63" s="1">
@@ -13287,7 +13419,7 @@
         <v>0.38399158750294643</v>
       </c>
       <c r="E63">
-        <f t="shared" ref="E63:E68" si="37">ABS(D63-C63)/C63*100</f>
+        <f t="shared" ref="E63:E68" si="53">ABS(D63-C63)/C63*100</f>
         <v>90.836221631670441</v>
       </c>
       <c r="F63">
@@ -13307,7 +13439,7 @@
         <v>-84.813333333333333</v>
       </c>
       <c r="C64" s="2">
-        <f>D4</f>
+        <f t="shared" si="52"/>
         <v>3.4655700890093284</v>
       </c>
       <c r="D64" s="1">
@@ -13315,7 +13447,7 @@
         <v>0.39586940420188593</v>
       </c>
       <c r="E64">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>88.577076958929737</v>
       </c>
       <c r="F64">
@@ -13335,7 +13467,7 @@
         <v>-45.82</v>
       </c>
       <c r="C65" s="2">
-        <f>D5</f>
+        <f t="shared" si="52"/>
         <v>2.9750119191022524</v>
       </c>
       <c r="D65" s="1">
@@ -13343,7 +13475,7 @@
         <v>0.45298937384030441</v>
       </c>
       <c r="E65">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>84.773527429194303</v>
       </c>
       <c r="F65">
@@ -13363,7 +13495,7 @@
         <v>-6.826666666666668</v>
       </c>
       <c r="C66" s="2">
-        <f>D6</f>
+        <f t="shared" si="52"/>
         <v>2.803208735305406</v>
       </c>
       <c r="D66" s="1"/>
@@ -13377,7 +13509,7 @@
         <v>32.166666666666664</v>
       </c>
       <c r="C67" s="2">
-        <f>D7</f>
+        <f t="shared" si="52"/>
         <v>2.3285545044327418</v>
       </c>
       <c r="D67" s="1"/>
@@ -13390,7 +13522,7 @@
         <v>71.16</v>
       </c>
       <c r="C68" s="2">
-        <f>D8</f>
+        <f t="shared" si="52"/>
         <v>2.1845322840798302</v>
       </c>
       <c r="D68" s="1">
@@ -13398,7 +13530,7 @@
         <v>2.7626912833063493E-2</v>
       </c>
       <c r="E68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>98.735339686467455</v>
       </c>
       <c r="F68">
@@ -13461,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="4">
-        <f>$E$2*B2/100/(1+$B$76*O37)</f>
+        <f t="shared" ref="C76:C84" si="54">$E$2*B2/100/(1+$B$76*O37)</f>
         <v>0.30666666666666631</v>
       </c>
       <c r="D76" s="27">
@@ -13469,7 +13601,7 @@
         <v>9.3000000000000025</v>
       </c>
       <c r="E76" s="4">
-        <f>-O37*$E$2*B2/100/((1+$B$76*O37)^2)</f>
+        <f t="shared" ref="E76:E84" si="55">-O37*$E$2*B2/100/((1+$B$76*O37)^2)</f>
         <v>-1.0446771664749031E-4</v>
       </c>
     </row>
@@ -13478,11 +13610,11 @@
         <v>94</v>
       </c>
       <c r="C77" s="4">
-        <f>$E$2*B3/100/(1+$B$76*O38)</f>
+        <f t="shared" si="54"/>
         <v>0.61333333333333262</v>
       </c>
       <c r="E77" s="4">
-        <f>-O38*$E$2*B3/100/((1+$B$76*O38)^2)</f>
+        <f t="shared" si="55"/>
         <v>-4.8435911404962165E-4</v>
       </c>
     </row>
@@ -13491,11 +13623,11 @@
         <v>95</v>
       </c>
       <c r="C78" s="4">
-        <f>$E$2*B4/100/(1+$B$76*O39)</f>
+        <f t="shared" si="54"/>
         <v>0.92000000000000037</v>
       </c>
       <c r="E78" s="4">
-        <f>-O39*$E$2*B4/100/((1+$B$76*O39)^2)</f>
+        <f t="shared" si="55"/>
         <v>-1.3051396042867347E-3</v>
       </c>
     </row>
@@ -13504,11 +13636,11 @@
         <v>96</v>
       </c>
       <c r="C79" s="4">
-        <f>$E$2*B5/100/(1+$B$76*O40)</f>
+        <f t="shared" si="54"/>
         <v>1.226666666666667</v>
       </c>
       <c r="E79" s="4">
-        <f>-O40*$E$2*B5/100/((1+$B$76*O40)^2)</f>
+        <f t="shared" si="55"/>
         <v>-2.7900352958121549E-3</v>
       </c>
     </row>
@@ -13517,11 +13649,11 @@
         <v>97</v>
       </c>
       <c r="C80" s="4">
-        <f>$E$2*B6/100/(1+$B$76*O41)</f>
+        <f t="shared" si="54"/>
         <v>1.5333333333333321</v>
       </c>
       <c r="E80" s="4">
-        <f>-O41*$E$2*B6/100/((1+$B$76*O41)^2)</f>
+        <f t="shared" si="55"/>
         <v>-4.193149449743889E-3</v>
       </c>
     </row>
@@ -13530,11 +13662,11 @@
         <v>98</v>
       </c>
       <c r="C81" s="4">
-        <f>$E$2*B7/100/(1+$B$76*O42)</f>
+        <f t="shared" si="54"/>
         <v>1.8399999999999954</v>
       </c>
       <c r="E81" s="4">
-        <f>-O42*$E$2*B7/100/((1+$B$76*O42)^2)</f>
+        <f t="shared" si="55"/>
         <v>-8.9467196684110822E-3</v>
       </c>
     </row>
@@ -13543,11 +13675,11 @@
         <v>99</v>
       </c>
       <c r="C82" s="4">
-        <f>$E$2*B8/100/(1+$B$76*O43)</f>
+        <f t="shared" si="54"/>
         <v>2.1466666666666727</v>
       </c>
       <c r="E82" s="4">
-        <f>-O43*$E$2*B8/100/((1+$B$76*O43)^2)</f>
+        <f t="shared" si="55"/>
         <v>-1.2727226945243373E-2</v>
       </c>
     </row>
@@ -13556,11 +13688,11 @@
         <v>100</v>
       </c>
       <c r="C83" s="4">
-        <f>$E$2*B9/100/(1+$B$76*O44)</f>
+        <f t="shared" si="54"/>
         <v>2.4533333333333367</v>
       </c>
       <c r="E83" s="4">
-        <f>-O44*$E$2*B9/100/((1+$B$76*O44)^2)</f>
+        <f t="shared" si="55"/>
         <v>-3.9940464492555089E-2</v>
       </c>
     </row>
@@ -13569,11 +13701,11 @@
         <v>101</v>
       </c>
       <c r="C84" s="4">
-        <f>$E$2*B10/100/(1+$B$76*O45)</f>
+        <f t="shared" si="54"/>
         <v>2.76</v>
       </c>
       <c r="E84" s="4">
-        <f>-O45*$E$2*B10/100/((1+$B$76*O45)^2)</f>
+        <f t="shared" si="55"/>
         <v>-0.18415005842368168</v>
       </c>
     </row>
@@ -13613,7 +13745,7 @@
         <v>36.521916464612879</v>
       </c>
       <c r="C88" s="4">
-        <f>$E$2*B2/100/(1+$B$88*O37)</f>
+        <f t="shared" ref="C88:C96" si="56">$E$2*B2/100/(1+$B$88*O37)</f>
         <v>0.30289819054704309</v>
       </c>
       <c r="D88" s="27">
@@ -13621,7 +13753,7 @@
         <v>5.4691262812124268</v>
       </c>
       <c r="E88" s="4">
-        <f>-O37*$E$2*B2/100/((1+$B$88*O37)^2)</f>
+        <f t="shared" ref="E88:E96" si="57">-O37*$E$2*B2/100/((1+$B$88*O37)^2)</f>
         <v>-1.0191598708119252E-4</v>
       </c>
     </row>
@@ -13630,11 +13762,11 @@
         <v>94</v>
       </c>
       <c r="C89" s="4">
-        <f>$E$2*B3/100/(1+$B$88*O38)</f>
+        <f t="shared" si="56"/>
         <v>0.59613951335265025</v>
       </c>
       <c r="E89" s="4">
-        <f>-O38*$E$2*B3/100/((1+$B$88*O38)^2)</f>
+        <f t="shared" si="57"/>
         <v>-4.5758329048784001E-4</v>
       </c>
     </row>
@@ -13643,11 +13775,11 @@
         <v>95</v>
       </c>
       <c r="C90" s="4">
-        <f>$E$2*B4/100/(1+$B$88*O39)</f>
+        <f t="shared" si="56"/>
         <v>0.87468178628927828</v>
       </c>
       <c r="E90" s="4">
-        <f>-O39*$E$2*B4/100/((1+$B$88*O39)^2)</f>
+        <f t="shared" si="57"/>
         <v>-1.1797268943603077E-3</v>
       </c>
     </row>
@@ -13656,11 +13788,11 @@
         <v>96</v>
       </c>
       <c r="C91" s="4">
-        <f>$E$2*B5/100/(1+$B$88*O40)</f>
+        <f t="shared" si="56"/>
         <v>1.1325845008780446</v>
       </c>
       <c r="E91" s="4">
-        <f>-O40*$E$2*B5/100/((1+$B$88*O40)^2)</f>
+        <f t="shared" si="57"/>
         <v>-2.3784706560867953E-3</v>
       </c>
     </row>
@@ -13669,11 +13801,11 @@
         <v>97</v>
       </c>
       <c r="C92" s="4">
-        <f>$E$2*B6/100/(1+$B$88*O41)</f>
+        <f t="shared" si="56"/>
         <v>1.3940976593496259</v>
       </c>
       <c r="E92" s="4">
-        <f>-O41*$E$2*B6/100/((1+$B$88*O41)^2)</f>
+        <f t="shared" si="57"/>
         <v>-3.4661997267132799E-3</v>
       </c>
     </row>
@@ -13682,11 +13814,11 @@
         <v>98</v>
       </c>
       <c r="C93" s="4">
-        <f>$E$2*B7/100/(1+$B$88*O42)</f>
+        <f t="shared" si="56"/>
         <v>1.562523545934043</v>
       </c>
       <c r="E93" s="4">
-        <f>-O42*$E$2*B7/100/((1+$B$88*O42)^2)</f>
+        <f t="shared" si="57"/>
         <v>-6.4518063650134561E-3</v>
       </c>
     </row>
@@ -13695,11 +13827,11 @@
         <v>99</v>
       </c>
       <c r="C94" s="4">
-        <f>$E$2*B8/100/(1+$B$88*O43)</f>
+        <f t="shared" si="56"/>
         <v>1.7645784059107434</v>
       </c>
       <c r="E94" s="4">
-        <f>-O43*$E$2*B8/100/((1+$B$88*O43)^2)</f>
+        <f t="shared" si="57"/>
         <v>-8.5997630146268673E-3</v>
       </c>
     </row>
@@ -13708,11 +13840,11 @@
         <v>100</v>
       </c>
       <c r="C95" s="4">
-        <f>$E$2*B9/100/(1+$B$88*O44)</f>
+        <f t="shared" si="56"/>
         <v>1.5385454010766904</v>
       </c>
       <c r="E95" s="4">
-        <f>-O44*$E$2*B9/100/((1+$B$88*O44)^2)</f>
+        <f t="shared" si="57"/>
         <v>-1.5707990314933057E-2</v>
       </c>
     </row>
@@ -13721,11 +13853,11 @@
         <v>101</v>
       </c>
       <c r="C96" s="4">
-        <f>$E$2*B10/100/(1+$B$88*O45)</f>
+        <f t="shared" si="56"/>
         <v>0.80307727787430638</v>
       </c>
       <c r="E96" s="4">
-        <f>-O45*$E$2*B10/100/((1+$B$88*O45)^2)</f>
+        <f t="shared" si="57"/>
         <v>-1.5590799026766406E-2</v>
       </c>
     </row>
@@ -13765,7 +13897,7 @@
         <v>137.92549111708601</v>
       </c>
       <c r="C100" s="4">
-        <f>$E$2*B2/100/(1+$B$100*O37)</f>
+        <f t="shared" ref="C100:C108" si="58">$E$2*B2/100/(1+$B$100*O37)</f>
         <v>0.29290452119436794</v>
       </c>
       <c r="D100" s="27">
@@ -13773,7 +13905,7 @@
         <v>2.4713522978101601</v>
       </c>
       <c r="E100" s="4">
-        <f>-O37*$E$2*B2/100/((1+$B$100*O37)^2)</f>
+        <f t="shared" ref="E100:E108" si="59">-O37*$E$2*B2/100/((1+$B$100*O37)^2)</f>
         <v>-9.5301800998629025E-5</v>
       </c>
     </row>
@@ -13782,11 +13914,11 @@
         <v>94</v>
       </c>
       <c r="C101" s="4">
-        <f>$E$2*B3/100/(1+$B$100*O38)</f>
+        <f t="shared" si="58"/>
         <v>0.55308971736788759</v>
       </c>
       <c r="E101" s="4">
-        <f>-O38*$E$2*B3/100/((1+$B$100*O38)^2)</f>
+        <f t="shared" si="59"/>
         <v>-3.9388143229048727E-4</v>
       </c>
     </row>
@@ -13795,11 +13927,11 @@
         <v>95</v>
       </c>
       <c r="C102" s="4">
-        <f>$E$2*B4/100/(1+$B$100*O39)</f>
+        <f t="shared" si="58"/>
         <v>0.76944613687888608</v>
       </c>
       <c r="E102" s="4">
-        <f>-O39*$E$2*B4/100/((1+$B$100*O39)^2)</f>
+        <f t="shared" si="59"/>
         <v>-9.1293059305534924E-4</v>
       </c>
     </row>
@@ -13808,11 +13940,11 @@
         <v>96</v>
       </c>
       <c r="C103" s="4">
-        <f>$E$2*B5/100/(1+$B$100*O40)</f>
+        <f t="shared" si="58"/>
         <v>0.9337427074558543</v>
       </c>
       <c r="E103" s="4">
-        <f>-O40*$E$2*B5/100/((1+$B$100*O40)^2)</f>
+        <f t="shared" si="59"/>
         <v>-1.6166314208671758E-3</v>
       </c>
     </row>
@@ -13821,11 +13953,11 @@
         <v>97</v>
       </c>
       <c r="C104" s="4">
-        <f>$E$2*B6/100/(1+$B$100*O41)</f>
+        <f t="shared" si="58"/>
         <v>1.113386539330659</v>
       </c>
       <c r="E104" s="4">
-        <f>-O41*$E$2*B6/100/((1+$B$100*O41)^2)</f>
+        <f t="shared" si="59"/>
         <v>-2.2108491987897819E-3</v>
       </c>
     </row>
@@ -13834,11 +13966,11 @@
         <v>98</v>
       </c>
       <c r="C105" s="4">
-        <f>$E$2*B7/100/(1+$B$100*O42)</f>
+        <f t="shared" si="58"/>
         <v>1.1013732114279526</v>
       </c>
       <c r="E105" s="4">
-        <f>-O42*$E$2*B7/100/((1+$B$100*O42)^2)</f>
+        <f t="shared" si="59"/>
         <v>-3.2055104834043694E-3</v>
       </c>
     </row>
@@ -13847,11 +13979,11 @@
         <v>99</v>
       </c>
       <c r="C106" s="4">
-        <f>$E$2*B8/100/(1+$B$100*O43)</f>
+        <f t="shared" si="58"/>
         <v>1.1809555066497719</v>
       </c>
       <c r="E106" s="4">
-        <f>-O43*$E$2*B8/100/((1+$B$100*O43)^2)</f>
+        <f t="shared" si="59"/>
         <v>-3.8518701135997159E-3</v>
       </c>
     </row>
@@ -13860,11 +13992,11 @@
         <v>100</v>
       </c>
       <c r="C107" s="4">
-        <f>$E$2*B9/100/(1+$B$100*O44)</f>
+        <f t="shared" si="58"/>
         <v>0.75593286478603328</v>
       </c>
       <c r="E107" s="4">
-        <f>-O44*$E$2*B9/100/((1+$B$100*O44)^2)</f>
+        <f t="shared" si="59"/>
         <v>-3.7919835627113789E-3</v>
       </c>
     </row>
@@ -13873,11 +14005,11 @@
         <v>101</v>
       </c>
       <c r="C108" s="4">
-        <f>$E$2*B10/100/(1+$B$100*O45)</f>
+        <f t="shared" si="58"/>
         <v>0.27052109271874725</v>
       </c>
       <c r="E108" s="4">
-        <f>-O45*$E$2*B10/100/((1+$B$100*O45)^2)</f>
+        <f t="shared" si="59"/>
         <v>-1.7691145846775959E-3</v>
       </c>
     </row>
@@ -13917,7 +14049,7 @@
         <v>276.39154688943665</v>
       </c>
       <c r="C112" s="4">
-        <f>$E$2*B2/100/(1+$B$112*O37)</f>
+        <f t="shared" ref="C112:C120" si="60">$E$2*B2/100/(1+$B$112*O37)</f>
         <v>0.28027734198433374</v>
       </c>
       <c r="D112" s="27">
@@ -13925,7 +14057,7 @@
         <v>0.75765930149332839</v>
       </c>
       <c r="E112" s="4">
-        <f>-O37*$E$2*B2/100/((1+$B$112*O37)^2)</f>
+        <f t="shared" ref="E112:E120" si="61">-O37*$E$2*B2/100/((1+$B$112*O37)^2)</f>
         <v>-8.7261954792726995E-5</v>
       </c>
     </row>
@@ -13934,11 +14066,11 @@
         <v>94</v>
       </c>
       <c r="C113" s="4">
-        <f>$E$2*B3/100/(1+$B$112*O38)</f>
+        <f t="shared" si="60"/>
         <v>0.50344580795916705</v>
       </c>
       <c r="E113" s="4">
-        <f>-O38*$E$2*B3/100/((1+$B$112*O38)^2)</f>
+        <f t="shared" si="61"/>
         <v>-3.2634712983485781E-4</v>
       </c>
     </row>
@@ -13947,11 +14079,11 @@
         <v>95</v>
       </c>
       <c r="C114" s="4">
-        <f>$E$2*B4/100/(1+$B$112*O39)</f>
+        <f t="shared" si="60"/>
         <v>0.66087332588443315</v>
       </c>
       <c r="E114" s="4">
-        <f>-O39*$E$2*B4/100/((1+$B$112*O39)^2)</f>
+        <f t="shared" si="61"/>
         <v>-6.7346923340946569E-4</v>
       </c>
     </row>
@@ -13960,11 +14092,11 @@
         <v>96</v>
       </c>
       <c r="C115" s="4">
-        <f>$E$2*B5/100/(1+$B$112*O40)</f>
+        <f t="shared" si="60"/>
         <v>0.75318072606655828</v>
       </c>
       <c r="E115" s="4">
-        <f>-O40*$E$2*B5/100/((1+$B$112*O40)^2)</f>
+        <f t="shared" si="61"/>
         <v>-1.0518527948875159E-3</v>
       </c>
     </row>
@@ -13973,11 +14105,11 @@
         <v>97</v>
       </c>
       <c r="C116" s="4">
-        <f>$E$2*B6/100/(1+$B$112*O41)</f>
+        <f t="shared" si="60"/>
         <v>0.87327739763620804</v>
       </c>
       <c r="E116" s="4">
-        <f>-O41*$E$2*B6/100/((1+$B$112*O41)^2)</f>
+        <f t="shared" si="61"/>
         <v>-1.3601024634301699E-3</v>
       </c>
     </row>
@@ -13986,11 +14118,11 @@
         <v>98</v>
       </c>
       <c r="C117" s="4">
-        <f>$E$2*B7/100/(1+$B$112*O42)</f>
+        <f t="shared" si="60"/>
         <v>0.78501247782630112</v>
       </c>
       <c r="E117" s="4">
-        <f>-O42*$E$2*B7/100/((1+$B$112*O42)^2)</f>
+        <f t="shared" si="61"/>
         <v>-1.6284757788792464E-3</v>
       </c>
     </row>
@@ -13999,11 +14131,11 @@
         <v>99</v>
       </c>
       <c r="C118" s="4">
-        <f>$E$2*B8/100/(1+$B$112*O43)</f>
+        <f t="shared" si="60"/>
         <v>0.81353833930578701</v>
       </c>
       <c r="E118" s="4">
-        <f>-O43*$E$2*B8/100/((1+$B$112*O43)^2)</f>
+        <f t="shared" si="61"/>
         <v>-1.8279344262753048E-3</v>
       </c>
     </row>
@@ -14012,11 +14144,11 @@
         <v>100</v>
       </c>
       <c r="C119" s="4">
-        <f>$E$2*B9/100/(1+$B$112*O44)</f>
+        <f t="shared" si="60"/>
         <v>0.44608683026076978</v>
       </c>
       <c r="E119" s="4">
-        <f>-O44*$E$2*B9/100/((1+$B$112*O44)^2)</f>
+        <f t="shared" si="61"/>
         <v>-1.3205011862356644E-3</v>
       </c>
     </row>
@@ -14025,11 +14157,11 @@
         <v>101</v>
       </c>
       <c r="C120" s="4">
-        <f>$E$2*B10/100/(1+$B$112*O45)</f>
+        <f t="shared" si="60"/>
         <v>0.14196705456977066</v>
       </c>
       <c r="E120" s="4">
-        <f>-O45*$E$2*B10/100/((1+$B$112*O45)^2)</f>
+        <f t="shared" si="61"/>
         <v>-4.8722418839369493E-4</v>
       </c>
     </row>
@@ -14069,7 +14201,7 @@
         <v>362.85105577185777</v>
       </c>
       <c r="C124" s="4">
-        <f>$E$2*B2/100/(1+$B$124*O37)</f>
+        <f t="shared" ref="C124:C132" si="62">$E$2*B2/100/(1+$B$124*O37)</f>
         <v>0.2729304821541999</v>
       </c>
       <c r="D124" s="27">
@@ -14077,7 +14209,7 @@
         <v>0.11018908757720425</v>
       </c>
       <c r="E124" s="4">
-        <f>-O37*$E$2*B2/100/((1+$B$124*O37)^2)</f>
+        <f t="shared" ref="E124:E132" si="63">-O37*$E$2*B2/100/((1+$B$124*O37)^2)</f>
         <v>-8.2747149504672449E-5</v>
       </c>
     </row>
@@ -14086,11 +14218,11 @@
         <v>94</v>
       </c>
       <c r="C125" s="4">
-        <f>$E$2*B3/100/(1+$B$124*O38)</f>
+        <f t="shared" si="62"/>
         <v>0.47672743670880707</v>
       </c>
       <c r="E125" s="4">
-        <f>-O38*$E$2*B3/100/((1+$B$124*O38)^2)</f>
+        <f t="shared" si="63"/>
         <v>-2.9262716110369554E-4</v>
       </c>
     </row>
@@ -14099,11 +14231,11 @@
         <v>95</v>
       </c>
       <c r="C126" s="4">
-        <f>$E$2*B4/100/(1+$B$124*O39)</f>
+        <f t="shared" si="62"/>
         <v>0.60736039133090869</v>
       </c>
       <c r="E126" s="4">
-        <f>-O39*$E$2*B4/100/((1+$B$124*O39)^2)</f>
+        <f t="shared" si="63"/>
         <v>-5.6881919875551501E-4</v>
       </c>
     </row>
@@ -14112,11 +14244,11 @@
         <v>96</v>
       </c>
       <c r="C127" s="4">
-        <f>$E$2*B5/100/(1+$B$124*O40)</f>
+        <f t="shared" si="62"/>
         <v>0.67203587139900733</v>
       </c>
       <c r="E127" s="4">
-        <f>-O40*$E$2*B5/100/((1+$B$124*O40)^2)</f>
+        <f t="shared" si="63"/>
         <v>-8.3741643438949845E-4</v>
       </c>
     </row>
@@ -14125,11 +14257,11 @@
         <v>97</v>
       </c>
       <c r="C128" s="4">
-        <f>$E$2*B6/100/(1+$B$124*O41)</f>
+        <f t="shared" si="62"/>
         <v>0.76963930524419177</v>
       </c>
       <c r="E128" s="4">
-        <f>-O41*$E$2*B6/100/((1+$B$124*O41)^2)</f>
+        <f t="shared" si="63"/>
         <v>-1.0564322860543633E-3</v>
       </c>
     </row>
@@ -14138,11 +14270,11 @@
         <v>98</v>
       </c>
       <c r="C129" s="4">
-        <f>$E$2*B7/100/(1+$B$124*O42)</f>
+        <f t="shared" si="62"/>
         <v>0.66562771421229106</v>
       </c>
       <c r="E129" s="4">
-        <f>-O42*$E$2*B7/100/((1+$B$124*O42)^2)</f>
+        <f t="shared" si="63"/>
         <v>-1.1708222731876797E-3</v>
       </c>
     </row>
@@ -14151,11 +14283,11 @@
         <v>99</v>
       </c>
       <c r="C130" s="4">
-        <f>$E$2*B8/100/(1+$B$124*O43)</f>
+        <f t="shared" si="62"/>
         <v>0.68120400309512852</v>
       </c>
       <c r="E130" s="4">
-        <f>-O43*$E$2*B8/100/((1+$B$124*O43)^2)</f>
+        <f t="shared" si="63"/>
         <v>-1.2816190255745957E-3</v>
       </c>
     </row>
@@ -14164,11 +14296,11 @@
         <v>100</v>
       </c>
       <c r="C131" s="4">
-        <f>$E$2*B9/100/(1+$B$124*O44)</f>
+        <f t="shared" si="62"/>
         <v>0.35518264226470836</v>
       </c>
       <c r="E131" s="4">
-        <f>-O44*$E$2*B9/100/((1+$B$124*O44)^2)</f>
+        <f t="shared" si="63"/>
         <v>-8.3715034281335089E-4</v>
       </c>
     </row>
@@ -14177,11 +14309,11 @@
         <v>101</v>
       </c>
       <c r="C132" s="4">
-        <f>$E$2*B10/100/(1+$B$124*O45)</f>
+        <f t="shared" si="62"/>
         <v>0.10948124116796119</v>
       </c>
       <c r="E132" s="4">
-        <f>-O45*$E$2*B10/100/((1+$B$124*O45)^2)</f>
+        <f t="shared" si="63"/>
         <v>-2.8975645616103837E-4</v>
       </c>
     </row>
@@ -14221,7 +14353,7 @@
         <v>479.55286158223691</v>
       </c>
       <c r="C136" s="4">
-        <f>$E$2*B2/100/(1+$B$136*O37)</f>
+        <f t="shared" ref="C136:C144" si="64">$E$2*B2/100/(1+$B$136*O37)</f>
         <v>0.26360373641007984</v>
       </c>
       <c r="D136" s="27">
@@ -14229,7 +14361,7 @@
         <v>-0.52089509266219158</v>
       </c>
       <c r="E136" s="4">
-        <f>-O37*$E$2*B2/100/((1+$B$136*O37)^2)</f>
+        <f t="shared" ref="E136:E144" si="65">-O37*$E$2*B2/100/((1+$B$136*O37)^2)</f>
         <v>-7.7188407471476963E-5</v>
       </c>
     </row>
@@ -14238,11 +14370,11 @@
         <v>94</v>
       </c>
       <c r="C137" s="4">
-        <f>$E$2*B3/100/(1+$B$136*O38)</f>
+        <f t="shared" si="64"/>
         <v>0.4448601171814508</v>
       </c>
       <c r="E137" s="4">
-        <f>-O38*$E$2*B3/100/((1+$B$136*O38)^2)</f>
+        <f t="shared" si="65"/>
         <v>-2.5481282539442933E-4</v>
       </c>
     </row>
@@ -14251,11 +14383,11 @@
         <v>95</v>
       </c>
       <c r="C138" s="4">
-        <f>$E$2*B4/100/(1+$B$136*O39)</f>
+        <f t="shared" si="64"/>
         <v>0.54751864369550596</v>
       </c>
       <c r="E138" s="4">
-        <f>-O39*$E$2*B4/100/((1+$B$136*O39)^2)</f>
+        <f t="shared" si="65"/>
         <v>-4.6225236080566038E-4</v>
       </c>
     </row>
@@ -14264,11 +14396,11 @@
         <v>96</v>
       </c>
       <c r="C139" s="4">
-        <f>$E$2*B5/100/(1+$B$136*O40)</f>
+        <f t="shared" si="64"/>
         <v>0.58671525554371307</v>
       </c>
       <c r="E139" s="4">
-        <f>-O40*$E$2*B5/100/((1+$B$136*O40)^2)</f>
+        <f t="shared" si="65"/>
         <v>-6.3828013901756479E-4</v>
       </c>
     </row>
@@ -14277,11 +14409,11 @@
         <v>97</v>
       </c>
       <c r="C140" s="4">
-        <f>$E$2*B6/100/(1+$B$136*O41)</f>
+        <f t="shared" si="64"/>
         <v>0.66337422046391759</v>
       </c>
       <c r="E140" s="4">
-        <f>-O41*$E$2*B6/100/((1+$B$136*O41)^2)</f>
+        <f t="shared" si="65"/>
         <v>-7.8484585361335269E-4</v>
       </c>
     </row>
@@ -14290,11 +14422,11 @@
         <v>98</v>
       </c>
       <c r="C141" s="4">
-        <f>$E$2*B7/100/(1+$B$136*O42)</f>
+        <f t="shared" si="64"/>
         <v>0.55226187248668945</v>
       </c>
       <c r="E141" s="4">
-        <f>-O42*$E$2*B7/100/((1+$B$136*O42)^2)</f>
+        <f t="shared" si="65"/>
         <v>-8.0596894041925755E-4</v>
       </c>
     </row>
@@ -14303,11 +14435,11 @@
         <v>99</v>
       </c>
       <c r="C142" s="4">
-        <f>$E$2*B8/100/(1+$B$136*O43)</f>
+        <f t="shared" si="64"/>
         <v>0.55856397234400579</v>
       </c>
       <c r="E142" s="4">
-        <f>-O43*$E$2*B8/100/((1+$B$136*O43)^2)</f>
+        <f t="shared" si="65"/>
         <v>-8.6168871068491261E-4</v>
       </c>
     </row>
@@ -14316,11 +14448,11 @@
         <v>100</v>
       </c>
       <c r="C143" s="4">
-        <f>$E$2*B9/100/(1+$B$136*O44)</f>
+        <f t="shared" si="64"/>
         <v>0.27856125478622612</v>
       </c>
       <c r="E143" s="4">
-        <f>-O44*$E$2*B9/100/((1+$B$136*O44)^2)</f>
+        <f t="shared" si="65"/>
         <v>-5.1492195817771349E-4</v>
       </c>
     </row>
@@ -14329,11 +14461,11 @@
         <v>101</v>
       </c>
       <c r="C144" s="4">
-        <f>$E$2*B10/100/(1+$B$136*O45)</f>
+        <f t="shared" si="64"/>
         <v>8.3645834426220103E-2</v>
       </c>
       <c r="E144" s="4">
-        <f>-O45*$E$2*B10/100/((1+$B$136*O45)^2)</f>
+        <f t="shared" si="65"/>
         <v>-1.691384446693374E-4</v>
       </c>
     </row>
@@ -14373,7 +14505,7 @@
         <v>365.54893046176556</v>
       </c>
       <c r="C148" s="4">
-        <f>$E$2*B2/100/(1+$B$148*O37)</f>
+        <f t="shared" ref="C148:C156" si="66">$E$2*B2/100/(1+$B$148*O37)</f>
         <v>0.27270742316331736</v>
       </c>
       <c r="D148" s="29">
@@ -14381,7 +14513,7 @@
         <v>9.2951406740963805E-2</v>
       </c>
       <c r="E148" s="4">
-        <f>-O37*$E$2*B2/100/((1+$B$148*O37)^2)</f>
+        <f t="shared" ref="E148:E156" si="67">-O37*$E$2*B2/100/((1+$B$148*O37)^2)</f>
         <v>-8.2611950584379615E-5</v>
       </c>
     </row>
@@ -14390,11 +14522,11 @@
         <v>94</v>
       </c>
       <c r="C149" s="4">
-        <f>$E$2*B3/100/(1+$B$148*O38)</f>
+        <f t="shared" si="66"/>
         <v>0.4759392705183137</v>
       </c>
       <c r="E149" s="4">
-        <f>-O38*$E$2*B3/100/((1+$B$148*O38)^2)</f>
+        <f t="shared" si="67"/>
         <v>-2.916603689234035E-4</v>
       </c>
     </row>
@@ -14403,11 +14535,11 @@
         <v>95</v>
       </c>
       <c r="C150" s="4">
-        <f>$E$2*B4/100/(1+$B$148*O39)</f>
+        <f t="shared" si="66"/>
         <v>0.60582965608345285</v>
       </c>
       <c r="E150" s="4">
-        <f>-O39*$E$2*B4/100/((1+$B$148*O39)^2)</f>
+        <f t="shared" si="67"/>
         <v>-5.6595561272429116E-4</v>
       </c>
     </row>
@@ -14416,11 +14548,11 @@
         <v>96</v>
       </c>
       <c r="C151" s="4">
-        <f>$E$2*B5/100/(1+$B$148*O40)</f>
+        <f t="shared" si="66"/>
         <v>0.66978419645784537</v>
       </c>
       <c r="E151" s="4">
-        <f>-O40*$E$2*B5/100/((1+$B$148*O40)^2)</f>
+        <f t="shared" si="67"/>
         <v>-8.3181426099234097E-4</v>
       </c>
     </row>
@@ -14429,11 +14561,11 @@
         <v>97</v>
       </c>
       <c r="C152" s="4">
-        <f>$E$2*B6/100/(1+$B$148*O41)</f>
+        <f t="shared" si="66"/>
         <v>0.76679969892474165</v>
       </c>
       <c r="E152" s="4">
-        <f>-O41*$E$2*B6/100/((1+$B$148*O41)^2)</f>
+        <f t="shared" si="67"/>
         <v>-1.048651192351188E-3</v>
       </c>
     </row>
@@ -14442,11 +14574,11 @@
         <v>98</v>
       </c>
       <c r="C153" s="4">
-        <f>$E$2*B7/100/(1+$B$148*O42)</f>
+        <f t="shared" si="66"/>
         <v>0.66248390137743995</v>
       </c>
       <c r="E153" s="4">
-        <f>-O42*$E$2*B7/100/((1+$B$148*O42)^2)</f>
+        <f t="shared" si="67"/>
         <v>-1.1597886171472284E-3</v>
       </c>
     </row>
@@ -14455,11 +14587,11 @@
         <v>99</v>
       </c>
       <c r="C154" s="4">
-        <f>$E$2*B8/100/(1+$B$148*O43)</f>
+        <f t="shared" si="66"/>
         <v>0.67776381722026302</v>
       </c>
       <c r="E154" s="4">
-        <f>-O43*$E$2*B8/100/((1+$B$148*O43)^2)</f>
+        <f t="shared" si="67"/>
         <v>-1.2687069623381448E-3</v>
       </c>
     </row>
@@ -14468,11 +14600,11 @@
         <v>100</v>
       </c>
       <c r="C155" s="4">
-        <f>$E$2*B9/100/(1+$B$148*O44)</f>
+        <f t="shared" si="66"/>
         <v>0.35293838626350005</v>
       </c>
       <c r="E155" s="4">
-        <f>-O44*$E$2*B9/100/((1+$B$148*O44)^2)</f>
+        <f t="shared" si="67"/>
         <v>-8.2660453436425661E-4</v>
       </c>
     </row>
@@ -14481,11 +14613,11 @@
         <v>101</v>
       </c>
       <c r="C156" s="4">
-        <f>$E$2*B10/100/(1+$B$148*O45)</f>
+        <f t="shared" si="66"/>
         <v>0.10870505673208948</v>
       </c>
       <c r="E156" s="4">
-        <f>-O45*$E$2*B10/100/((1+$B$148*O45)^2)</f>
+        <f t="shared" si="67"/>
         <v>-2.8566247254562319E-4</v>
       </c>
     </row>
@@ -14507,7 +14639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16273,7 +16405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -18038,7 +18170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -19804,7 +19936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -21569,7 +21701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -23334,7 +23466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25099,7 +25231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
